--- a/Matt Ansari-Gantt Chart.xlsx
+++ b/Matt Ansari-Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeojinansari/Desktop/Gannt Chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C1970-DBBB-E040-A3B4-6F167AA7ACCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A03F78F-463F-C042-8AB3-24414A151B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="289">
   <si>
     <t>[Company Name]</t>
   </si>
@@ -2019,7 +2019,10 @@
     <t>Thr 30/09/21</t>
   </si>
   <si>
-    <t>Thr 27/09/21</t>
+    <t>Fri 23/09/21</t>
+  </si>
+  <si>
+    <t>Thr 25/09/21</t>
   </si>
 </sst>
 </file>
@@ -3546,23 +3549,35 @@
     <xf numFmtId="9" fontId="40" fillId="26" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="45" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="45" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="45" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="52" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3571,42 +3586,30 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="45" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="45" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="80" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="45" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="52" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="51" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4439,8 +4442,8 @@
   <dimension ref="A1:GW87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4468,29 +4471,29 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="I1" s="122"/>
-      <c r="K1" s="200" t="s">
+      <c r="K1" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="200"/>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="200"/>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="204"/>
+      <c r="T1" s="204"/>
+      <c r="U1" s="204"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="204"/>
+      <c r="X1" s="204"/>
+      <c r="Y1" s="204"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="204"/>
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="204"/>
+      <c r="AD1" s="204"/>
+      <c r="AE1" s="204"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="51" t="s">
@@ -4535,11 +4538,11 @@
       <c r="B4" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="207">
+      <c r="C4" s="209">
         <v>44460</v>
       </c>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
       <c r="F4" s="103"/>
       <c r="G4" s="106" t="s">
         <v>75</v>
@@ -4549,182 +4552,182 @@
       </c>
       <c r="I4" s="104"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="194" t="str">
+      <c r="K4" s="206" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="196"/>
-      <c r="R4" s="194" t="str">
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="206" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="195"/>
-      <c r="T4" s="195"/>
-      <c r="U4" s="195"/>
-      <c r="V4" s="195"/>
-      <c r="W4" s="195"/>
-      <c r="X4" s="196"/>
-      <c r="Y4" s="194" t="str">
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="208"/>
+      <c r="Y4" s="206" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="195"/>
-      <c r="AA4" s="195"/>
-      <c r="AB4" s="195"/>
-      <c r="AC4" s="195"/>
-      <c r="AD4" s="195"/>
-      <c r="AE4" s="196"/>
-      <c r="AF4" s="194" t="str">
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="208"/>
+      <c r="AF4" s="206" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="195"/>
-      <c r="AH4" s="195"/>
-      <c r="AI4" s="195"/>
-      <c r="AJ4" s="195"/>
-      <c r="AK4" s="195"/>
-      <c r="AL4" s="196"/>
-      <c r="AM4" s="194" t="str">
+      <c r="AG4" s="207"/>
+      <c r="AH4" s="207"/>
+      <c r="AI4" s="207"/>
+      <c r="AJ4" s="207"/>
+      <c r="AK4" s="207"/>
+      <c r="AL4" s="208"/>
+      <c r="AM4" s="206" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="195"/>
-      <c r="AO4" s="195"/>
-      <c r="AP4" s="195"/>
-      <c r="AQ4" s="195"/>
-      <c r="AR4" s="195"/>
-      <c r="AS4" s="196"/>
-      <c r="AT4" s="194" t="str">
+      <c r="AN4" s="207"/>
+      <c r="AO4" s="207"/>
+      <c r="AP4" s="207"/>
+      <c r="AQ4" s="207"/>
+      <c r="AR4" s="207"/>
+      <c r="AS4" s="208"/>
+      <c r="AT4" s="206" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="195"/>
-      <c r="AV4" s="195"/>
-      <c r="AW4" s="195"/>
-      <c r="AX4" s="195"/>
-      <c r="AY4" s="195"/>
-      <c r="AZ4" s="196"/>
-      <c r="BA4" s="194" t="str">
+      <c r="AU4" s="207"/>
+      <c r="AV4" s="207"/>
+      <c r="AW4" s="207"/>
+      <c r="AX4" s="207"/>
+      <c r="AY4" s="207"/>
+      <c r="AZ4" s="208"/>
+      <c r="BA4" s="206" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="195"/>
-      <c r="BC4" s="195"/>
-      <c r="BD4" s="195"/>
-      <c r="BE4" s="195"/>
-      <c r="BF4" s="195"/>
-      <c r="BG4" s="196"/>
-      <c r="BH4" s="194" t="str">
+      <c r="BB4" s="207"/>
+      <c r="BC4" s="207"/>
+      <c r="BD4" s="207"/>
+      <c r="BE4" s="207"/>
+      <c r="BF4" s="207"/>
+      <c r="BG4" s="208"/>
+      <c r="BH4" s="206" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="195"/>
-      <c r="BJ4" s="195"/>
-      <c r="BK4" s="195"/>
-      <c r="BL4" s="195"/>
-      <c r="BM4" s="195"/>
-      <c r="BN4" s="196"/>
+      <c r="BI4" s="207"/>
+      <c r="BJ4" s="207"/>
+      <c r="BK4" s="207"/>
+      <c r="BL4" s="207"/>
+      <c r="BM4" s="207"/>
+      <c r="BN4" s="208"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="102"/>
       <c r="B5" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="205" t="s">
         <v>266</v>
       </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
       <c r="F5" s="105"/>
       <c r="G5" s="105"/>
       <c r="H5" s="105"/>
       <c r="I5" s="105"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="197">
+      <c r="K5" s="210">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="199"/>
-      <c r="R5" s="197">
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
+      <c r="O5" s="211"/>
+      <c r="P5" s="211"/>
+      <c r="Q5" s="212"/>
+      <c r="R5" s="210">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="198"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="199"/>
-      <c r="Y5" s="197">
+      <c r="S5" s="211"/>
+      <c r="T5" s="211"/>
+      <c r="U5" s="211"/>
+      <c r="V5" s="211"/>
+      <c r="W5" s="211"/>
+      <c r="X5" s="212"/>
+      <c r="Y5" s="210">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="198"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="198"/>
-      <c r="AE5" s="199"/>
-      <c r="AF5" s="197">
+      <c r="Z5" s="211"/>
+      <c r="AA5" s="211"/>
+      <c r="AB5" s="211"/>
+      <c r="AC5" s="211"/>
+      <c r="AD5" s="211"/>
+      <c r="AE5" s="212"/>
+      <c r="AF5" s="210">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="198"/>
-      <c r="AH5" s="198"/>
-      <c r="AI5" s="198"/>
-      <c r="AJ5" s="198"/>
-      <c r="AK5" s="198"/>
-      <c r="AL5" s="199"/>
-      <c r="AM5" s="197">
+      <c r="AG5" s="211"/>
+      <c r="AH5" s="211"/>
+      <c r="AI5" s="211"/>
+      <c r="AJ5" s="211"/>
+      <c r="AK5" s="211"/>
+      <c r="AL5" s="212"/>
+      <c r="AM5" s="210">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="198"/>
-      <c r="AO5" s="198"/>
-      <c r="AP5" s="198"/>
-      <c r="AQ5" s="198"/>
-      <c r="AR5" s="198"/>
-      <c r="AS5" s="199"/>
-      <c r="AT5" s="197">
+      <c r="AN5" s="211"/>
+      <c r="AO5" s="211"/>
+      <c r="AP5" s="211"/>
+      <c r="AQ5" s="211"/>
+      <c r="AR5" s="211"/>
+      <c r="AS5" s="212"/>
+      <c r="AT5" s="210">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="198"/>
-      <c r="AV5" s="198"/>
-      <c r="AW5" s="198"/>
-      <c r="AX5" s="198"/>
-      <c r="AY5" s="198"/>
-      <c r="AZ5" s="199"/>
-      <c r="BA5" s="197">
+      <c r="AU5" s="211"/>
+      <c r="AV5" s="211"/>
+      <c r="AW5" s="211"/>
+      <c r="AX5" s="211"/>
+      <c r="AY5" s="211"/>
+      <c r="AZ5" s="212"/>
+      <c r="BA5" s="210">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="198"/>
-      <c r="BC5" s="198"/>
-      <c r="BD5" s="198"/>
-      <c r="BE5" s="198"/>
-      <c r="BF5" s="198"/>
-      <c r="BG5" s="199"/>
-      <c r="BH5" s="197">
+      <c r="BB5" s="211"/>
+      <c r="BC5" s="211"/>
+      <c r="BD5" s="211"/>
+      <c r="BE5" s="211"/>
+      <c r="BF5" s="211"/>
+      <c r="BG5" s="212"/>
+      <c r="BH5" s="210">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="198"/>
-      <c r="BJ5" s="198"/>
-      <c r="BK5" s="198"/>
-      <c r="BL5" s="198"/>
-      <c r="BM5" s="198"/>
-      <c r="BN5" s="199"/>
+      <c r="BI5" s="211"/>
+      <c r="BJ5" s="211"/>
+      <c r="BK5" s="211"/>
+      <c r="BL5" s="211"/>
+      <c r="BM5" s="211"/>
+      <c r="BN5" s="212"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A6" s="48"/>
@@ -4962,7 +4965,7 @@
         <v>44514</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="116" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66" s="116" customFormat="1" ht="61" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="108" t="s">
         <v>1</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="118"/>
-      <c r="E9" s="203" t="s">
+      <c r="E9" s="194" t="s">
         <v>281</v>
       </c>
       <c r="F9" s="174" t="s">
@@ -5388,7 +5391,7 @@
         <v>185</v>
       </c>
       <c r="D10" s="118"/>
-      <c r="E10" s="203" t="s">
+      <c r="E10" s="194" t="s">
         <v>281</v>
       </c>
       <c r="F10" s="174" t="s">
@@ -5467,7 +5470,7 @@
         <v>186</v>
       </c>
       <c r="D11" s="118"/>
-      <c r="E11" s="203" t="s">
+      <c r="E11" s="194" t="s">
         <v>281</v>
       </c>
       <c r="F11" s="174" t="s">
@@ -5547,11 +5550,11 @@
         <v>187</v>
       </c>
       <c r="D12" s="118"/>
-      <c r="E12" s="203" t="s">
-        <v>220</v>
+      <c r="E12" s="194" t="s">
+        <v>287</v>
       </c>
       <c r="F12" s="174" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G12" s="177">
         <v>5</v>
@@ -5620,7 +5623,7 @@
       <c r="BM12" s="99"/>
       <c r="BN12" s="99"/>
     </row>
-    <row r="13" spans="1:66" s="57" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:66" s="57" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="157" t="s">
         <v>142</v>
       </c>
@@ -5628,7 +5631,7 @@
         <v>188</v>
       </c>
       <c r="D13" s="118"/>
-      <c r="E13" s="203" t="s">
+      <c r="E13" s="194" t="s">
         <v>219</v>
       </c>
       <c r="F13" s="174" t="s">
@@ -5699,7 +5702,7 @@
       <c r="BM13" s="99"/>
       <c r="BN13" s="99"/>
     </row>
-    <row r="14" spans="1:66" s="57" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:66" s="57" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="157" t="s">
         <v>143</v>
       </c>
@@ -5707,7 +5710,7 @@
         <v>189</v>
       </c>
       <c r="D14" s="118"/>
-      <c r="E14" s="203" t="s">
+      <c r="E14" s="194" t="s">
         <v>219</v>
       </c>
       <c r="F14" s="174" t="s">
@@ -5786,7 +5789,7 @@
         <v>190</v>
       </c>
       <c r="D15" s="118"/>
-      <c r="E15" s="203" t="s">
+      <c r="E15" s="194" t="s">
         <v>220</v>
       </c>
       <c r="F15" s="174" t="s">
@@ -5865,7 +5868,7 @@
         <v>191</v>
       </c>
       <c r="D16" s="118"/>
-      <c r="E16" s="203" t="s">
+      <c r="E16" s="194" t="s">
         <v>220</v>
       </c>
       <c r="F16" s="174" t="s">
@@ -5944,7 +5947,7 @@
         <v>192</v>
       </c>
       <c r="D17" s="118"/>
-      <c r="E17" s="203" t="s">
+      <c r="E17" s="194" t="s">
         <v>220</v>
       </c>
       <c r="F17" s="174" t="s">
@@ -6023,7 +6026,7 @@
         <v>193</v>
       </c>
       <c r="D18" s="53"/>
-      <c r="E18" s="203" t="s">
+      <c r="E18" s="194" t="s">
         <v>221</v>
       </c>
       <c r="F18" s="174" t="s">
@@ -6036,179 +6039,179 @@
       <c r="I18" s="178">
         <v>1</v>
       </c>
-      <c r="J18" s="210"/>
-      <c r="K18" s="211"/>
-      <c r="L18" s="211"/>
-      <c r="M18" s="211"/>
-      <c r="N18" s="211"/>
-      <c r="O18" s="211"/>
-      <c r="P18" s="211"/>
-      <c r="Q18" s="211"/>
-      <c r="R18" s="211"/>
-      <c r="S18" s="211"/>
-      <c r="T18" s="211"/>
-      <c r="U18" s="211"/>
-      <c r="V18" s="211"/>
-      <c r="W18" s="211"/>
-      <c r="X18" s="211"/>
-      <c r="Y18" s="211"/>
-      <c r="Z18" s="211"/>
-      <c r="AA18" s="211"/>
-      <c r="AB18" s="211"/>
-      <c r="AC18" s="211"/>
-      <c r="AD18" s="211"/>
-      <c r="AE18" s="211"/>
-      <c r="AF18" s="211"/>
-      <c r="AG18" s="211"/>
-      <c r="AH18" s="211"/>
-      <c r="AI18" s="211"/>
-      <c r="AJ18" s="211"/>
-      <c r="AK18" s="211"/>
-      <c r="AL18" s="211"/>
-      <c r="AM18" s="211"/>
-      <c r="AN18" s="211"/>
-      <c r="AO18" s="211"/>
-      <c r="AP18" s="211"/>
-      <c r="AQ18" s="211"/>
-      <c r="AR18" s="211"/>
-      <c r="AS18" s="211"/>
-      <c r="AT18" s="211"/>
-      <c r="AU18" s="211"/>
-      <c r="AV18" s="211"/>
-      <c r="AW18" s="211"/>
-      <c r="AX18" s="211"/>
-      <c r="AY18" s="211"/>
-      <c r="AZ18" s="211"/>
-      <c r="BA18" s="211"/>
-      <c r="BB18" s="211"/>
-      <c r="BC18" s="211"/>
-      <c r="BD18" s="211"/>
-      <c r="BE18" s="211"/>
-      <c r="BF18" s="211"/>
-      <c r="BG18" s="211"/>
-      <c r="BH18" s="211"/>
-      <c r="BI18" s="211"/>
-      <c r="BJ18" s="211"/>
-      <c r="BK18" s="211"/>
-      <c r="BL18" s="211"/>
-      <c r="BM18" s="211"/>
-      <c r="BN18" s="211"/>
-      <c r="BO18" s="212"/>
-      <c r="BP18" s="212"/>
-      <c r="BQ18" s="212"/>
-      <c r="BR18" s="212"/>
-      <c r="BS18" s="212"/>
-      <c r="BT18" s="212"/>
-      <c r="BU18" s="212"/>
-      <c r="BV18" s="212"/>
-      <c r="BW18" s="212"/>
-      <c r="BX18" s="212"/>
-      <c r="BY18" s="212"/>
-      <c r="BZ18" s="212"/>
-      <c r="CA18" s="212"/>
-      <c r="CB18" s="212"/>
-      <c r="CC18" s="212"/>
-      <c r="CD18" s="212"/>
-      <c r="CE18" s="212"/>
-      <c r="CF18" s="212"/>
-      <c r="CG18" s="212"/>
-      <c r="CH18" s="212"/>
-      <c r="CI18" s="212"/>
-      <c r="CJ18" s="212"/>
-      <c r="CK18" s="212"/>
-      <c r="CL18" s="212"/>
-      <c r="CM18" s="212"/>
-      <c r="CN18" s="212"/>
-      <c r="CO18" s="212"/>
-      <c r="CP18" s="212"/>
-      <c r="CQ18" s="212"/>
-      <c r="CR18" s="212"/>
-      <c r="CS18" s="212"/>
-      <c r="CT18" s="212"/>
-      <c r="CU18" s="212"/>
-      <c r="CV18" s="212"/>
-      <c r="CW18" s="212"/>
-      <c r="CX18" s="212"/>
-      <c r="CY18" s="212"/>
-      <c r="CZ18" s="212"/>
-      <c r="DA18" s="212"/>
-      <c r="DB18" s="212"/>
-      <c r="DC18" s="212"/>
-      <c r="DD18" s="212"/>
-      <c r="DE18" s="212"/>
-      <c r="DF18" s="212"/>
-      <c r="DG18" s="212"/>
-      <c r="DH18" s="212"/>
-      <c r="DI18" s="212"/>
-      <c r="DJ18" s="212"/>
-      <c r="DK18" s="212"/>
-      <c r="DL18" s="212"/>
-      <c r="DM18" s="212"/>
-      <c r="DN18" s="212"/>
-      <c r="DO18" s="212"/>
-      <c r="DP18" s="212"/>
-      <c r="DQ18" s="212"/>
-      <c r="DR18" s="212"/>
-      <c r="DS18" s="212"/>
-      <c r="DT18" s="212"/>
-      <c r="DU18" s="212"/>
-      <c r="DV18" s="212"/>
-      <c r="DW18" s="212"/>
-      <c r="DX18" s="212"/>
-      <c r="DY18" s="212"/>
-      <c r="DZ18" s="212"/>
-      <c r="EA18" s="212"/>
-      <c r="EB18" s="212"/>
-      <c r="EC18" s="212"/>
-      <c r="ED18" s="212"/>
-      <c r="EE18" s="212"/>
-      <c r="EF18" s="212"/>
-      <c r="EG18" s="212"/>
-      <c r="EH18" s="212"/>
-      <c r="EI18" s="212"/>
-      <c r="EJ18" s="212"/>
-      <c r="EK18" s="212"/>
-      <c r="EL18" s="212"/>
-      <c r="EM18" s="212"/>
-      <c r="EN18" s="212"/>
-      <c r="EO18" s="212"/>
-      <c r="EP18" s="212"/>
-      <c r="EQ18" s="212"/>
-      <c r="ER18" s="212"/>
-      <c r="ES18" s="212"/>
-      <c r="ET18" s="212"/>
-      <c r="EU18" s="212"/>
-      <c r="EV18" s="212"/>
-      <c r="EW18" s="212"/>
-      <c r="EX18" s="212"/>
-      <c r="EY18" s="212"/>
-      <c r="EZ18" s="212"/>
-      <c r="FA18" s="212"/>
-      <c r="FB18" s="212"/>
-      <c r="FC18" s="212"/>
-      <c r="FD18" s="212"/>
-      <c r="FE18" s="212"/>
-      <c r="FF18" s="212"/>
-      <c r="FG18" s="212"/>
-      <c r="FH18" s="212"/>
-      <c r="FI18" s="212"/>
-      <c r="FJ18" s="212"/>
-      <c r="FK18" s="212"/>
-      <c r="FL18" s="212"/>
-      <c r="FM18" s="212"/>
-      <c r="FN18" s="212"/>
-      <c r="FO18" s="212"/>
-      <c r="FP18" s="212"/>
-      <c r="FQ18" s="212"/>
-      <c r="FR18" s="212"/>
-      <c r="FS18" s="212"/>
-      <c r="FT18" s="212"/>
-      <c r="FU18" s="212"/>
-      <c r="FV18" s="212"/>
-      <c r="FW18" s="212"/>
-      <c r="FX18" s="212"/>
-      <c r="FY18" s="212"/>
-      <c r="FZ18" s="212"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="201"/>
+      <c r="O18" s="201"/>
+      <c r="P18" s="201"/>
+      <c r="Q18" s="201"/>
+      <c r="R18" s="201"/>
+      <c r="S18" s="201"/>
+      <c r="T18" s="201"/>
+      <c r="U18" s="201"/>
+      <c r="V18" s="201"/>
+      <c r="W18" s="201"/>
+      <c r="X18" s="201"/>
+      <c r="Y18" s="201"/>
+      <c r="Z18" s="201"/>
+      <c r="AA18" s="201"/>
+      <c r="AB18" s="201"/>
+      <c r="AC18" s="201"/>
+      <c r="AD18" s="201"/>
+      <c r="AE18" s="201"/>
+      <c r="AF18" s="201"/>
+      <c r="AG18" s="201"/>
+      <c r="AH18" s="201"/>
+      <c r="AI18" s="201"/>
+      <c r="AJ18" s="201"/>
+      <c r="AK18" s="201"/>
+      <c r="AL18" s="201"/>
+      <c r="AM18" s="201"/>
+      <c r="AN18" s="201"/>
+      <c r="AO18" s="201"/>
+      <c r="AP18" s="201"/>
+      <c r="AQ18" s="201"/>
+      <c r="AR18" s="201"/>
+      <c r="AS18" s="201"/>
+      <c r="AT18" s="201"/>
+      <c r="AU18" s="201"/>
+      <c r="AV18" s="201"/>
+      <c r="AW18" s="201"/>
+      <c r="AX18" s="201"/>
+      <c r="AY18" s="201"/>
+      <c r="AZ18" s="201"/>
+      <c r="BA18" s="201"/>
+      <c r="BB18" s="201"/>
+      <c r="BC18" s="201"/>
+      <c r="BD18" s="201"/>
+      <c r="BE18" s="201"/>
+      <c r="BF18" s="201"/>
+      <c r="BG18" s="201"/>
+      <c r="BH18" s="201"/>
+      <c r="BI18" s="201"/>
+      <c r="BJ18" s="201"/>
+      <c r="BK18" s="201"/>
+      <c r="BL18" s="201"/>
+      <c r="BM18" s="201"/>
+      <c r="BN18" s="201"/>
+      <c r="BO18" s="202"/>
+      <c r="BP18" s="202"/>
+      <c r="BQ18" s="202"/>
+      <c r="BR18" s="202"/>
+      <c r="BS18" s="202"/>
+      <c r="BT18" s="202"/>
+      <c r="BU18" s="202"/>
+      <c r="BV18" s="202"/>
+      <c r="BW18" s="202"/>
+      <c r="BX18" s="202"/>
+      <c r="BY18" s="202"/>
+      <c r="BZ18" s="202"/>
+      <c r="CA18" s="202"/>
+      <c r="CB18" s="202"/>
+      <c r="CC18" s="202"/>
+      <c r="CD18" s="202"/>
+      <c r="CE18" s="202"/>
+      <c r="CF18" s="202"/>
+      <c r="CG18" s="202"/>
+      <c r="CH18" s="202"/>
+      <c r="CI18" s="202"/>
+      <c r="CJ18" s="202"/>
+      <c r="CK18" s="202"/>
+      <c r="CL18" s="202"/>
+      <c r="CM18" s="202"/>
+      <c r="CN18" s="202"/>
+      <c r="CO18" s="202"/>
+      <c r="CP18" s="202"/>
+      <c r="CQ18" s="202"/>
+      <c r="CR18" s="202"/>
+      <c r="CS18" s="202"/>
+      <c r="CT18" s="202"/>
+      <c r="CU18" s="202"/>
+      <c r="CV18" s="202"/>
+      <c r="CW18" s="202"/>
+      <c r="CX18" s="202"/>
+      <c r="CY18" s="202"/>
+      <c r="CZ18" s="202"/>
+      <c r="DA18" s="202"/>
+      <c r="DB18" s="202"/>
+      <c r="DC18" s="202"/>
+      <c r="DD18" s="202"/>
+      <c r="DE18" s="202"/>
+      <c r="DF18" s="202"/>
+      <c r="DG18" s="202"/>
+      <c r="DH18" s="202"/>
+      <c r="DI18" s="202"/>
+      <c r="DJ18" s="202"/>
+      <c r="DK18" s="202"/>
+      <c r="DL18" s="202"/>
+      <c r="DM18" s="202"/>
+      <c r="DN18" s="202"/>
+      <c r="DO18" s="202"/>
+      <c r="DP18" s="202"/>
+      <c r="DQ18" s="202"/>
+      <c r="DR18" s="202"/>
+      <c r="DS18" s="202"/>
+      <c r="DT18" s="202"/>
+      <c r="DU18" s="202"/>
+      <c r="DV18" s="202"/>
+      <c r="DW18" s="202"/>
+      <c r="DX18" s="202"/>
+      <c r="DY18" s="202"/>
+      <c r="DZ18" s="202"/>
+      <c r="EA18" s="202"/>
+      <c r="EB18" s="202"/>
+      <c r="EC18" s="202"/>
+      <c r="ED18" s="202"/>
+      <c r="EE18" s="202"/>
+      <c r="EF18" s="202"/>
+      <c r="EG18" s="202"/>
+      <c r="EH18" s="202"/>
+      <c r="EI18" s="202"/>
+      <c r="EJ18" s="202"/>
+      <c r="EK18" s="202"/>
+      <c r="EL18" s="202"/>
+      <c r="EM18" s="202"/>
+      <c r="EN18" s="202"/>
+      <c r="EO18" s="202"/>
+      <c r="EP18" s="202"/>
+      <c r="EQ18" s="202"/>
+      <c r="ER18" s="202"/>
+      <c r="ES18" s="202"/>
+      <c r="ET18" s="202"/>
+      <c r="EU18" s="202"/>
+      <c r="EV18" s="202"/>
+      <c r="EW18" s="202"/>
+      <c r="EX18" s="202"/>
+      <c r="EY18" s="202"/>
+      <c r="EZ18" s="202"/>
+      <c r="FA18" s="202"/>
+      <c r="FB18" s="202"/>
+      <c r="FC18" s="202"/>
+      <c r="FD18" s="202"/>
+      <c r="FE18" s="202"/>
+      <c r="FF18" s="202"/>
+      <c r="FG18" s="202"/>
+      <c r="FH18" s="202"/>
+      <c r="FI18" s="202"/>
+      <c r="FJ18" s="202"/>
+      <c r="FK18" s="202"/>
+      <c r="FL18" s="202"/>
+      <c r="FM18" s="202"/>
+      <c r="FN18" s="202"/>
+      <c r="FO18" s="202"/>
+      <c r="FP18" s="202"/>
+      <c r="FQ18" s="202"/>
+      <c r="FR18" s="202"/>
+      <c r="FS18" s="202"/>
+      <c r="FT18" s="202"/>
+      <c r="FU18" s="202"/>
+      <c r="FV18" s="202"/>
+      <c r="FW18" s="202"/>
+      <c r="FX18" s="202"/>
+      <c r="FY18" s="202"/>
+      <c r="FZ18" s="202"/>
     </row>
     <row r="19" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A19" s="157" t="s">
@@ -6218,7 +6221,7 @@
         <v>194</v>
       </c>
       <c r="D19" s="118"/>
-      <c r="E19" s="203" t="s">
+      <c r="E19" s="194" t="s">
         <v>221</v>
       </c>
       <c r="F19" s="174" t="s">
@@ -6297,7 +6300,7 @@
         <v>195</v>
       </c>
       <c r="D20" s="118"/>
-      <c r="E20" s="203" t="s">
+      <c r="E20" s="194" t="s">
         <v>221</v>
       </c>
       <c r="F20" s="174" t="s">
@@ -6376,7 +6379,7 @@
         <v>196</v>
       </c>
       <c r="D21" s="118"/>
-      <c r="E21" s="203" t="s">
+      <c r="E21" s="194" t="s">
         <v>282</v>
       </c>
       <c r="F21" s="174" t="s">
@@ -6456,7 +6459,7 @@
         <v>197</v>
       </c>
       <c r="D22" s="118"/>
-      <c r="E22" s="203" t="s">
+      <c r="E22" s="194" t="s">
         <v>283</v>
       </c>
       <c r="F22" s="174" t="s">
@@ -6538,7 +6541,7 @@
         <v>198</v>
       </c>
       <c r="D23" s="118"/>
-      <c r="E23" s="203" t="s">
+      <c r="E23" s="194" t="s">
         <v>286</v>
       </c>
       <c r="F23" s="174" t="s">
@@ -6620,7 +6623,7 @@
         <v>199</v>
       </c>
       <c r="D24" s="53"/>
-      <c r="E24" s="203" t="s">
+      <c r="E24" s="194" t="s">
         <v>284</v>
       </c>
       <c r="F24" s="174" t="s">
@@ -6635,180 +6638,180 @@
       <c r="I24" s="178">
         <v>2</v>
       </c>
-      <c r="J24" s="210"/>
-      <c r="K24" s="211"/>
-      <c r="L24" s="211"/>
-      <c r="M24" s="211"/>
-      <c r="N24" s="211"/>
-      <c r="O24" s="211"/>
-      <c r="P24" s="211"/>
-      <c r="Q24" s="211"/>
-      <c r="R24" s="211"/>
-      <c r="S24" s="211"/>
-      <c r="T24" s="211"/>
-      <c r="U24" s="211"/>
-      <c r="V24" s="211"/>
-      <c r="W24" s="211"/>
-      <c r="X24" s="211"/>
-      <c r="Y24" s="211"/>
-      <c r="Z24" s="211"/>
-      <c r="AA24" s="211"/>
-      <c r="AB24" s="211"/>
-      <c r="AC24" s="211"/>
-      <c r="AD24" s="211"/>
-      <c r="AE24" s="211"/>
-      <c r="AF24" s="211"/>
-      <c r="AG24" s="211"/>
-      <c r="AH24" s="211"/>
-      <c r="AI24" s="211"/>
-      <c r="AJ24" s="211"/>
-      <c r="AK24" s="211"/>
-      <c r="AL24" s="211"/>
-      <c r="AM24" s="211"/>
-      <c r="AN24" s="211"/>
-      <c r="AO24" s="211"/>
-      <c r="AP24" s="211"/>
-      <c r="AQ24" s="211"/>
-      <c r="AR24" s="211"/>
-      <c r="AS24" s="211"/>
-      <c r="AT24" s="211"/>
-      <c r="AU24" s="211"/>
-      <c r="AV24" s="211"/>
-      <c r="AW24" s="211"/>
-      <c r="AX24" s="211"/>
-      <c r="AY24" s="211"/>
-      <c r="AZ24" s="211"/>
-      <c r="BA24" s="211"/>
-      <c r="BB24" s="211"/>
-      <c r="BC24" s="211"/>
-      <c r="BD24" s="211"/>
-      <c r="BE24" s="211"/>
-      <c r="BF24" s="211"/>
-      <c r="BG24" s="211"/>
-      <c r="BH24" s="211"/>
-      <c r="BI24" s="211"/>
-      <c r="BJ24" s="211"/>
-      <c r="BK24" s="211"/>
-      <c r="BL24" s="211"/>
-      <c r="BM24" s="211"/>
-      <c r="BN24" s="211"/>
-      <c r="BO24" s="212"/>
-      <c r="BP24" s="212"/>
-      <c r="BQ24" s="212"/>
-      <c r="BR24" s="212"/>
-      <c r="BS24" s="212"/>
-      <c r="BT24" s="212"/>
-      <c r="BU24" s="212"/>
-      <c r="BV24" s="212"/>
-      <c r="BW24" s="212"/>
-      <c r="BX24" s="212"/>
-      <c r="BY24" s="212"/>
-      <c r="BZ24" s="212"/>
-      <c r="CA24" s="212"/>
-      <c r="CB24" s="212"/>
-      <c r="CC24" s="212"/>
-      <c r="CD24" s="212"/>
-      <c r="CE24" s="212"/>
-      <c r="CF24" s="212"/>
-      <c r="CG24" s="212"/>
-      <c r="CH24" s="212"/>
-      <c r="CI24" s="212"/>
-      <c r="CJ24" s="212"/>
-      <c r="CK24" s="212"/>
-      <c r="CL24" s="212"/>
-      <c r="CM24" s="212"/>
-      <c r="CN24" s="212"/>
-      <c r="CO24" s="212"/>
-      <c r="CP24" s="212"/>
-      <c r="CQ24" s="212"/>
-      <c r="CR24" s="212"/>
-      <c r="CS24" s="212"/>
-      <c r="CT24" s="212"/>
-      <c r="CU24" s="212"/>
-      <c r="CV24" s="212"/>
-      <c r="CW24" s="212"/>
-      <c r="CX24" s="212"/>
-      <c r="CY24" s="212"/>
-      <c r="CZ24" s="212"/>
-      <c r="DA24" s="212"/>
-      <c r="DB24" s="212"/>
-      <c r="DC24" s="212"/>
-      <c r="DD24" s="212"/>
-      <c r="DE24" s="212"/>
-      <c r="DF24" s="212"/>
-      <c r="DG24" s="212"/>
-      <c r="DH24" s="212"/>
-      <c r="DI24" s="212"/>
-      <c r="DJ24" s="212"/>
-      <c r="DK24" s="212"/>
-      <c r="DL24" s="212"/>
-      <c r="DM24" s="212"/>
-      <c r="DN24" s="212"/>
-      <c r="DO24" s="212"/>
-      <c r="DP24" s="212"/>
-      <c r="DQ24" s="212"/>
-      <c r="DR24" s="212"/>
-      <c r="DS24" s="212"/>
-      <c r="DT24" s="212"/>
-      <c r="DU24" s="212"/>
-      <c r="DV24" s="212"/>
-      <c r="DW24" s="212"/>
-      <c r="DX24" s="212"/>
-      <c r="DY24" s="212"/>
-      <c r="DZ24" s="212"/>
-      <c r="EA24" s="212"/>
-      <c r="EB24" s="212"/>
-      <c r="EC24" s="212"/>
-      <c r="ED24" s="212"/>
-      <c r="EE24" s="212"/>
-      <c r="EF24" s="212"/>
-      <c r="EG24" s="212"/>
-      <c r="EH24" s="212"/>
-      <c r="EI24" s="212"/>
-      <c r="EJ24" s="212"/>
-      <c r="EK24" s="212"/>
-      <c r="EL24" s="212"/>
-      <c r="EM24" s="212"/>
-      <c r="EN24" s="212"/>
-      <c r="EO24" s="212"/>
-      <c r="EP24" s="212"/>
-      <c r="EQ24" s="212"/>
-      <c r="ER24" s="212"/>
-      <c r="ES24" s="212"/>
-      <c r="ET24" s="212"/>
-      <c r="EU24" s="212"/>
-      <c r="EV24" s="212"/>
-      <c r="EW24" s="212"/>
-      <c r="EX24" s="212"/>
-      <c r="EY24" s="212"/>
-      <c r="EZ24" s="212"/>
-      <c r="FA24" s="212"/>
-      <c r="FB24" s="212"/>
-      <c r="FC24" s="212"/>
-      <c r="FD24" s="212"/>
-      <c r="FE24" s="212"/>
-      <c r="FF24" s="212"/>
-      <c r="FG24" s="212"/>
-      <c r="FH24" s="212"/>
-      <c r="FI24" s="212"/>
-      <c r="FJ24" s="212"/>
-      <c r="FK24" s="212"/>
-      <c r="FL24" s="212"/>
-      <c r="FM24" s="212"/>
-      <c r="FN24" s="212"/>
-      <c r="FO24" s="212"/>
-      <c r="FP24" s="212"/>
-      <c r="FQ24" s="212"/>
-      <c r="FR24" s="212"/>
-      <c r="FS24" s="212"/>
-      <c r="FT24" s="212"/>
-      <c r="FU24" s="212"/>
-      <c r="FV24" s="212"/>
-      <c r="FW24" s="212"/>
-      <c r="FX24" s="212"/>
-      <c r="FY24" s="212"/>
-      <c r="FZ24" s="212"/>
-      <c r="GA24" s="212"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="201"/>
+      <c r="M24" s="201"/>
+      <c r="N24" s="201"/>
+      <c r="O24" s="201"/>
+      <c r="P24" s="201"/>
+      <c r="Q24" s="201"/>
+      <c r="R24" s="201"/>
+      <c r="S24" s="201"/>
+      <c r="T24" s="201"/>
+      <c r="U24" s="201"/>
+      <c r="V24" s="201"/>
+      <c r="W24" s="201"/>
+      <c r="X24" s="201"/>
+      <c r="Y24" s="201"/>
+      <c r="Z24" s="201"/>
+      <c r="AA24" s="201"/>
+      <c r="AB24" s="201"/>
+      <c r="AC24" s="201"/>
+      <c r="AD24" s="201"/>
+      <c r="AE24" s="201"/>
+      <c r="AF24" s="201"/>
+      <c r="AG24" s="201"/>
+      <c r="AH24" s="201"/>
+      <c r="AI24" s="201"/>
+      <c r="AJ24" s="201"/>
+      <c r="AK24" s="201"/>
+      <c r="AL24" s="201"/>
+      <c r="AM24" s="201"/>
+      <c r="AN24" s="201"/>
+      <c r="AO24" s="201"/>
+      <c r="AP24" s="201"/>
+      <c r="AQ24" s="201"/>
+      <c r="AR24" s="201"/>
+      <c r="AS24" s="201"/>
+      <c r="AT24" s="201"/>
+      <c r="AU24" s="201"/>
+      <c r="AV24" s="201"/>
+      <c r="AW24" s="201"/>
+      <c r="AX24" s="201"/>
+      <c r="AY24" s="201"/>
+      <c r="AZ24" s="201"/>
+      <c r="BA24" s="201"/>
+      <c r="BB24" s="201"/>
+      <c r="BC24" s="201"/>
+      <c r="BD24" s="201"/>
+      <c r="BE24" s="201"/>
+      <c r="BF24" s="201"/>
+      <c r="BG24" s="201"/>
+      <c r="BH24" s="201"/>
+      <c r="BI24" s="201"/>
+      <c r="BJ24" s="201"/>
+      <c r="BK24" s="201"/>
+      <c r="BL24" s="201"/>
+      <c r="BM24" s="201"/>
+      <c r="BN24" s="201"/>
+      <c r="BO24" s="202"/>
+      <c r="BP24" s="202"/>
+      <c r="BQ24" s="202"/>
+      <c r="BR24" s="202"/>
+      <c r="BS24" s="202"/>
+      <c r="BT24" s="202"/>
+      <c r="BU24" s="202"/>
+      <c r="BV24" s="202"/>
+      <c r="BW24" s="202"/>
+      <c r="BX24" s="202"/>
+      <c r="BY24" s="202"/>
+      <c r="BZ24" s="202"/>
+      <c r="CA24" s="202"/>
+      <c r="CB24" s="202"/>
+      <c r="CC24" s="202"/>
+      <c r="CD24" s="202"/>
+      <c r="CE24" s="202"/>
+      <c r="CF24" s="202"/>
+      <c r="CG24" s="202"/>
+      <c r="CH24" s="202"/>
+      <c r="CI24" s="202"/>
+      <c r="CJ24" s="202"/>
+      <c r="CK24" s="202"/>
+      <c r="CL24" s="202"/>
+      <c r="CM24" s="202"/>
+      <c r="CN24" s="202"/>
+      <c r="CO24" s="202"/>
+      <c r="CP24" s="202"/>
+      <c r="CQ24" s="202"/>
+      <c r="CR24" s="202"/>
+      <c r="CS24" s="202"/>
+      <c r="CT24" s="202"/>
+      <c r="CU24" s="202"/>
+      <c r="CV24" s="202"/>
+      <c r="CW24" s="202"/>
+      <c r="CX24" s="202"/>
+      <c r="CY24" s="202"/>
+      <c r="CZ24" s="202"/>
+      <c r="DA24" s="202"/>
+      <c r="DB24" s="202"/>
+      <c r="DC24" s="202"/>
+      <c r="DD24" s="202"/>
+      <c r="DE24" s="202"/>
+      <c r="DF24" s="202"/>
+      <c r="DG24" s="202"/>
+      <c r="DH24" s="202"/>
+      <c r="DI24" s="202"/>
+      <c r="DJ24" s="202"/>
+      <c r="DK24" s="202"/>
+      <c r="DL24" s="202"/>
+      <c r="DM24" s="202"/>
+      <c r="DN24" s="202"/>
+      <c r="DO24" s="202"/>
+      <c r="DP24" s="202"/>
+      <c r="DQ24" s="202"/>
+      <c r="DR24" s="202"/>
+      <c r="DS24" s="202"/>
+      <c r="DT24" s="202"/>
+      <c r="DU24" s="202"/>
+      <c r="DV24" s="202"/>
+      <c r="DW24" s="202"/>
+      <c r="DX24" s="202"/>
+      <c r="DY24" s="202"/>
+      <c r="DZ24" s="202"/>
+      <c r="EA24" s="202"/>
+      <c r="EB24" s="202"/>
+      <c r="EC24" s="202"/>
+      <c r="ED24" s="202"/>
+      <c r="EE24" s="202"/>
+      <c r="EF24" s="202"/>
+      <c r="EG24" s="202"/>
+      <c r="EH24" s="202"/>
+      <c r="EI24" s="202"/>
+      <c r="EJ24" s="202"/>
+      <c r="EK24" s="202"/>
+      <c r="EL24" s="202"/>
+      <c r="EM24" s="202"/>
+      <c r="EN24" s="202"/>
+      <c r="EO24" s="202"/>
+      <c r="EP24" s="202"/>
+      <c r="EQ24" s="202"/>
+      <c r="ER24" s="202"/>
+      <c r="ES24" s="202"/>
+      <c r="ET24" s="202"/>
+      <c r="EU24" s="202"/>
+      <c r="EV24" s="202"/>
+      <c r="EW24" s="202"/>
+      <c r="EX24" s="202"/>
+      <c r="EY24" s="202"/>
+      <c r="EZ24" s="202"/>
+      <c r="FA24" s="202"/>
+      <c r="FB24" s="202"/>
+      <c r="FC24" s="202"/>
+      <c r="FD24" s="202"/>
+      <c r="FE24" s="202"/>
+      <c r="FF24" s="202"/>
+      <c r="FG24" s="202"/>
+      <c r="FH24" s="202"/>
+      <c r="FI24" s="202"/>
+      <c r="FJ24" s="202"/>
+      <c r="FK24" s="202"/>
+      <c r="FL24" s="202"/>
+      <c r="FM24" s="202"/>
+      <c r="FN24" s="202"/>
+      <c r="FO24" s="202"/>
+      <c r="FP24" s="202"/>
+      <c r="FQ24" s="202"/>
+      <c r="FR24" s="202"/>
+      <c r="FS24" s="202"/>
+      <c r="FT24" s="202"/>
+      <c r="FU24" s="202"/>
+      <c r="FV24" s="202"/>
+      <c r="FW24" s="202"/>
+      <c r="FX24" s="202"/>
+      <c r="FY24" s="202"/>
+      <c r="FZ24" s="202"/>
+      <c r="GA24" s="202"/>
     </row>
     <row r="25" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A25" s="157" t="str">
@@ -6819,7 +6822,7 @@
         <v>200</v>
       </c>
       <c r="D25" s="118"/>
-      <c r="E25" s="203" t="s">
+      <c r="E25" s="194" t="s">
         <v>285</v>
       </c>
       <c r="F25" s="174" t="s">
@@ -6901,7 +6904,7 @@
         <v>201</v>
       </c>
       <c r="D26" s="118"/>
-      <c r="E26" s="208"/>
+      <c r="E26" s="198"/>
       <c r="F26" s="169" t="str">
         <f t="shared" ref="F26:F58" si="6">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
         <v xml:space="preserve"> - </v>
@@ -6912,7 +6915,7 @@
         <f t="shared" ref="I26:I58" si="7">IF(OR(F26=0,E26=0)," - ",NETWORKDAYS(E26,F26))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J26" s="209"/>
+      <c r="J26" s="199"/>
       <c r="K26" s="101"/>
       <c r="L26" s="101"/>
       <c r="M26" s="101"/>
@@ -7118,7 +7121,7 @@
         <v>139</v>
       </c>
       <c r="D27" s="118"/>
-      <c r="E27" s="203" t="s">
+      <c r="E27" s="194" t="s">
         <v>222</v>
       </c>
       <c r="F27" s="174" t="s">
@@ -7200,7 +7203,7 @@
         <v>202</v>
       </c>
       <c r="D28" s="118"/>
-      <c r="E28" s="203" t="s">
+      <c r="E28" s="194" t="s">
         <v>223</v>
       </c>
       <c r="F28" s="174" t="s">
@@ -7281,7 +7284,7 @@
         <v>188</v>
       </c>
       <c r="D29" s="118"/>
-      <c r="E29" s="203" t="s">
+      <c r="E29" s="194" t="s">
         <v>223</v>
       </c>
       <c r="F29" s="174" t="s">
@@ -7362,7 +7365,7 @@
         <v>189</v>
       </c>
       <c r="D30" s="53"/>
-      <c r="E30" s="203" t="s">
+      <c r="E30" s="194" t="s">
         <v>223</v>
       </c>
       <c r="F30" s="174" t="s">
@@ -7377,198 +7380,198 @@
       <c r="I30" s="178">
         <v>1</v>
       </c>
-      <c r="J30" s="210"/>
-      <c r="K30" s="211"/>
-      <c r="L30" s="211"/>
-      <c r="M30" s="211"/>
-      <c r="N30" s="211"/>
-      <c r="O30" s="211"/>
-      <c r="P30" s="211"/>
-      <c r="Q30" s="211"/>
-      <c r="R30" s="211"/>
-      <c r="S30" s="211"/>
-      <c r="T30" s="211"/>
-      <c r="U30" s="211"/>
-      <c r="V30" s="211"/>
-      <c r="W30" s="211"/>
-      <c r="X30" s="211"/>
-      <c r="Y30" s="211"/>
-      <c r="Z30" s="211"/>
-      <c r="AA30" s="211"/>
-      <c r="AB30" s="211"/>
-      <c r="AC30" s="211"/>
-      <c r="AD30" s="211"/>
-      <c r="AE30" s="211"/>
-      <c r="AF30" s="211"/>
-      <c r="AG30" s="211"/>
-      <c r="AH30" s="211"/>
-      <c r="AI30" s="211"/>
-      <c r="AJ30" s="211"/>
-      <c r="AK30" s="211"/>
-      <c r="AL30" s="211"/>
-      <c r="AM30" s="211"/>
-      <c r="AN30" s="211"/>
-      <c r="AO30" s="211"/>
-      <c r="AP30" s="211"/>
-      <c r="AQ30" s="211"/>
-      <c r="AR30" s="211"/>
-      <c r="AS30" s="211"/>
-      <c r="AT30" s="211"/>
-      <c r="AU30" s="211"/>
-      <c r="AV30" s="211"/>
-      <c r="AW30" s="211"/>
-      <c r="AX30" s="211"/>
-      <c r="AY30" s="211"/>
-      <c r="AZ30" s="211"/>
-      <c r="BA30" s="211"/>
-      <c r="BB30" s="211"/>
-      <c r="BC30" s="211"/>
-      <c r="BD30" s="211"/>
-      <c r="BE30" s="211"/>
-      <c r="BF30" s="211"/>
-      <c r="BG30" s="211"/>
-      <c r="BH30" s="211"/>
-      <c r="BI30" s="211"/>
-      <c r="BJ30" s="211"/>
-      <c r="BK30" s="211"/>
-      <c r="BL30" s="211"/>
-      <c r="BM30" s="211"/>
-      <c r="BN30" s="211"/>
-      <c r="BO30" s="212"/>
-      <c r="BP30" s="212"/>
-      <c r="BQ30" s="212"/>
-      <c r="BR30" s="212"/>
-      <c r="BS30" s="212"/>
-      <c r="BT30" s="212"/>
-      <c r="BU30" s="212"/>
-      <c r="BV30" s="212"/>
-      <c r="BW30" s="212"/>
-      <c r="BX30" s="212"/>
-      <c r="BY30" s="212"/>
-      <c r="BZ30" s="212"/>
-      <c r="CA30" s="212"/>
-      <c r="CB30" s="212"/>
-      <c r="CC30" s="212"/>
-      <c r="CD30" s="212"/>
-      <c r="CE30" s="212"/>
-      <c r="CF30" s="212"/>
-      <c r="CG30" s="212"/>
-      <c r="CH30" s="212"/>
-      <c r="CI30" s="212"/>
-      <c r="CJ30" s="212"/>
-      <c r="CK30" s="212"/>
-      <c r="CL30" s="212"/>
-      <c r="CM30" s="212"/>
-      <c r="CN30" s="212"/>
-      <c r="CO30" s="212"/>
-      <c r="CP30" s="212"/>
-      <c r="CQ30" s="212"/>
-      <c r="CR30" s="212"/>
-      <c r="CS30" s="212"/>
-      <c r="CT30" s="212"/>
-      <c r="CU30" s="212"/>
-      <c r="CV30" s="212"/>
-      <c r="CW30" s="212"/>
-      <c r="CX30" s="212"/>
-      <c r="CY30" s="212"/>
-      <c r="CZ30" s="212"/>
-      <c r="DA30" s="212"/>
-      <c r="DB30" s="212"/>
-      <c r="DC30" s="212"/>
-      <c r="DD30" s="212"/>
-      <c r="DE30" s="212"/>
-      <c r="DF30" s="212"/>
-      <c r="DG30" s="212"/>
-      <c r="DH30" s="212"/>
-      <c r="DI30" s="212"/>
-      <c r="DJ30" s="212"/>
-      <c r="DK30" s="212"/>
-      <c r="DL30" s="212"/>
-      <c r="DM30" s="212"/>
-      <c r="DN30" s="212"/>
-      <c r="DO30" s="212"/>
-      <c r="DP30" s="212"/>
-      <c r="DQ30" s="212"/>
-      <c r="DR30" s="212"/>
-      <c r="DS30" s="212"/>
-      <c r="DT30" s="212"/>
-      <c r="DU30" s="212"/>
-      <c r="DV30" s="212"/>
-      <c r="DW30" s="212"/>
-      <c r="DX30" s="212"/>
-      <c r="DY30" s="212"/>
-      <c r="DZ30" s="212"/>
-      <c r="EA30" s="212"/>
-      <c r="EB30" s="212"/>
-      <c r="EC30" s="212"/>
-      <c r="ED30" s="212"/>
-      <c r="EE30" s="212"/>
-      <c r="EF30" s="212"/>
-      <c r="EG30" s="212"/>
-      <c r="EH30" s="212"/>
-      <c r="EI30" s="212"/>
-      <c r="EJ30" s="212"/>
-      <c r="EK30" s="212"/>
-      <c r="EL30" s="212"/>
-      <c r="EM30" s="212"/>
-      <c r="EN30" s="212"/>
-      <c r="EO30" s="212"/>
-      <c r="EP30" s="212"/>
-      <c r="EQ30" s="212"/>
-      <c r="ER30" s="212"/>
-      <c r="ES30" s="212"/>
-      <c r="ET30" s="212"/>
-      <c r="EU30" s="212"/>
-      <c r="EV30" s="212"/>
-      <c r="EW30" s="212"/>
-      <c r="EX30" s="212"/>
-      <c r="EY30" s="212"/>
-      <c r="EZ30" s="212"/>
-      <c r="FA30" s="212"/>
-      <c r="FB30" s="212"/>
-      <c r="FC30" s="212"/>
-      <c r="FD30" s="212"/>
-      <c r="FE30" s="212"/>
-      <c r="FF30" s="212"/>
-      <c r="FG30" s="212"/>
-      <c r="FH30" s="212"/>
-      <c r="FI30" s="212"/>
-      <c r="FJ30" s="212"/>
-      <c r="FK30" s="212"/>
-      <c r="FL30" s="212"/>
-      <c r="FM30" s="212"/>
-      <c r="FN30" s="212"/>
-      <c r="FO30" s="212"/>
-      <c r="FP30" s="212"/>
-      <c r="FQ30" s="212"/>
-      <c r="FR30" s="212"/>
-      <c r="FS30" s="212"/>
-      <c r="FT30" s="212"/>
-      <c r="FU30" s="212"/>
-      <c r="FV30" s="212"/>
-      <c r="FW30" s="212"/>
-      <c r="FX30" s="212"/>
-      <c r="FY30" s="212"/>
-      <c r="FZ30" s="212"/>
-      <c r="GA30" s="212"/>
-      <c r="GB30" s="212"/>
-      <c r="GC30" s="212"/>
-      <c r="GD30" s="212"/>
-      <c r="GE30" s="212"/>
-      <c r="GF30" s="212"/>
-      <c r="GG30" s="212"/>
-      <c r="GH30" s="212"/>
-      <c r="GI30" s="212"/>
-      <c r="GJ30" s="212"/>
-      <c r="GK30" s="212"/>
-      <c r="GL30" s="212"/>
-      <c r="GM30" s="212"/>
-      <c r="GN30" s="212"/>
-      <c r="GO30" s="212"/>
-      <c r="GP30" s="212"/>
-      <c r="GQ30" s="212"/>
-      <c r="GR30" s="212"/>
-      <c r="GS30" s="212"/>
+      <c r="J30" s="200"/>
+      <c r="K30" s="201"/>
+      <c r="L30" s="201"/>
+      <c r="M30" s="201"/>
+      <c r="N30" s="201"/>
+      <c r="O30" s="201"/>
+      <c r="P30" s="201"/>
+      <c r="Q30" s="201"/>
+      <c r="R30" s="201"/>
+      <c r="S30" s="201"/>
+      <c r="T30" s="201"/>
+      <c r="U30" s="201"/>
+      <c r="V30" s="201"/>
+      <c r="W30" s="201"/>
+      <c r="X30" s="201"/>
+      <c r="Y30" s="201"/>
+      <c r="Z30" s="201"/>
+      <c r="AA30" s="201"/>
+      <c r="AB30" s="201"/>
+      <c r="AC30" s="201"/>
+      <c r="AD30" s="201"/>
+      <c r="AE30" s="201"/>
+      <c r="AF30" s="201"/>
+      <c r="AG30" s="201"/>
+      <c r="AH30" s="201"/>
+      <c r="AI30" s="201"/>
+      <c r="AJ30" s="201"/>
+      <c r="AK30" s="201"/>
+      <c r="AL30" s="201"/>
+      <c r="AM30" s="201"/>
+      <c r="AN30" s="201"/>
+      <c r="AO30" s="201"/>
+      <c r="AP30" s="201"/>
+      <c r="AQ30" s="201"/>
+      <c r="AR30" s="201"/>
+      <c r="AS30" s="201"/>
+      <c r="AT30" s="201"/>
+      <c r="AU30" s="201"/>
+      <c r="AV30" s="201"/>
+      <c r="AW30" s="201"/>
+      <c r="AX30" s="201"/>
+      <c r="AY30" s="201"/>
+      <c r="AZ30" s="201"/>
+      <c r="BA30" s="201"/>
+      <c r="BB30" s="201"/>
+      <c r="BC30" s="201"/>
+      <c r="BD30" s="201"/>
+      <c r="BE30" s="201"/>
+      <c r="BF30" s="201"/>
+      <c r="BG30" s="201"/>
+      <c r="BH30" s="201"/>
+      <c r="BI30" s="201"/>
+      <c r="BJ30" s="201"/>
+      <c r="BK30" s="201"/>
+      <c r="BL30" s="201"/>
+      <c r="BM30" s="201"/>
+      <c r="BN30" s="201"/>
+      <c r="BO30" s="202"/>
+      <c r="BP30" s="202"/>
+      <c r="BQ30" s="202"/>
+      <c r="BR30" s="202"/>
+      <c r="BS30" s="202"/>
+      <c r="BT30" s="202"/>
+      <c r="BU30" s="202"/>
+      <c r="BV30" s="202"/>
+      <c r="BW30" s="202"/>
+      <c r="BX30" s="202"/>
+      <c r="BY30" s="202"/>
+      <c r="BZ30" s="202"/>
+      <c r="CA30" s="202"/>
+      <c r="CB30" s="202"/>
+      <c r="CC30" s="202"/>
+      <c r="CD30" s="202"/>
+      <c r="CE30" s="202"/>
+      <c r="CF30" s="202"/>
+      <c r="CG30" s="202"/>
+      <c r="CH30" s="202"/>
+      <c r="CI30" s="202"/>
+      <c r="CJ30" s="202"/>
+      <c r="CK30" s="202"/>
+      <c r="CL30" s="202"/>
+      <c r="CM30" s="202"/>
+      <c r="CN30" s="202"/>
+      <c r="CO30" s="202"/>
+      <c r="CP30" s="202"/>
+      <c r="CQ30" s="202"/>
+      <c r="CR30" s="202"/>
+      <c r="CS30" s="202"/>
+      <c r="CT30" s="202"/>
+      <c r="CU30" s="202"/>
+      <c r="CV30" s="202"/>
+      <c r="CW30" s="202"/>
+      <c r="CX30" s="202"/>
+      <c r="CY30" s="202"/>
+      <c r="CZ30" s="202"/>
+      <c r="DA30" s="202"/>
+      <c r="DB30" s="202"/>
+      <c r="DC30" s="202"/>
+      <c r="DD30" s="202"/>
+      <c r="DE30" s="202"/>
+      <c r="DF30" s="202"/>
+      <c r="DG30" s="202"/>
+      <c r="DH30" s="202"/>
+      <c r="DI30" s="202"/>
+      <c r="DJ30" s="202"/>
+      <c r="DK30" s="202"/>
+      <c r="DL30" s="202"/>
+      <c r="DM30" s="202"/>
+      <c r="DN30" s="202"/>
+      <c r="DO30" s="202"/>
+      <c r="DP30" s="202"/>
+      <c r="DQ30" s="202"/>
+      <c r="DR30" s="202"/>
+      <c r="DS30" s="202"/>
+      <c r="DT30" s="202"/>
+      <c r="DU30" s="202"/>
+      <c r="DV30" s="202"/>
+      <c r="DW30" s="202"/>
+      <c r="DX30" s="202"/>
+      <c r="DY30" s="202"/>
+      <c r="DZ30" s="202"/>
+      <c r="EA30" s="202"/>
+      <c r="EB30" s="202"/>
+      <c r="EC30" s="202"/>
+      <c r="ED30" s="202"/>
+      <c r="EE30" s="202"/>
+      <c r="EF30" s="202"/>
+      <c r="EG30" s="202"/>
+      <c r="EH30" s="202"/>
+      <c r="EI30" s="202"/>
+      <c r="EJ30" s="202"/>
+      <c r="EK30" s="202"/>
+      <c r="EL30" s="202"/>
+      <c r="EM30" s="202"/>
+      <c r="EN30" s="202"/>
+      <c r="EO30" s="202"/>
+      <c r="EP30" s="202"/>
+      <c r="EQ30" s="202"/>
+      <c r="ER30" s="202"/>
+      <c r="ES30" s="202"/>
+      <c r="ET30" s="202"/>
+      <c r="EU30" s="202"/>
+      <c r="EV30" s="202"/>
+      <c r="EW30" s="202"/>
+      <c r="EX30" s="202"/>
+      <c r="EY30" s="202"/>
+      <c r="EZ30" s="202"/>
+      <c r="FA30" s="202"/>
+      <c r="FB30" s="202"/>
+      <c r="FC30" s="202"/>
+      <c r="FD30" s="202"/>
+      <c r="FE30" s="202"/>
+      <c r="FF30" s="202"/>
+      <c r="FG30" s="202"/>
+      <c r="FH30" s="202"/>
+      <c r="FI30" s="202"/>
+      <c r="FJ30" s="202"/>
+      <c r="FK30" s="202"/>
+      <c r="FL30" s="202"/>
+      <c r="FM30" s="202"/>
+      <c r="FN30" s="202"/>
+      <c r="FO30" s="202"/>
+      <c r="FP30" s="202"/>
+      <c r="FQ30" s="202"/>
+      <c r="FR30" s="202"/>
+      <c r="FS30" s="202"/>
+      <c r="FT30" s="202"/>
+      <c r="FU30" s="202"/>
+      <c r="FV30" s="202"/>
+      <c r="FW30" s="202"/>
+      <c r="FX30" s="202"/>
+      <c r="FY30" s="202"/>
+      <c r="FZ30" s="202"/>
+      <c r="GA30" s="202"/>
+      <c r="GB30" s="202"/>
+      <c r="GC30" s="202"/>
+      <c r="GD30" s="202"/>
+      <c r="GE30" s="202"/>
+      <c r="GF30" s="202"/>
+      <c r="GG30" s="202"/>
+      <c r="GH30" s="202"/>
+      <c r="GI30" s="202"/>
+      <c r="GJ30" s="202"/>
+      <c r="GK30" s="202"/>
+      <c r="GL30" s="202"/>
+      <c r="GM30" s="202"/>
+      <c r="GN30" s="202"/>
+      <c r="GO30" s="202"/>
+      <c r="GP30" s="202"/>
+      <c r="GQ30" s="202"/>
+      <c r="GR30" s="202"/>
+      <c r="GS30" s="202"/>
     </row>
     <row r="31" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A31" s="157" t="s">
@@ -7578,7 +7581,7 @@
         <v>190</v>
       </c>
       <c r="D31" s="118"/>
-      <c r="E31" s="203" t="s">
+      <c r="E31" s="194" t="s">
         <v>224</v>
       </c>
       <c r="F31" s="174" t="s">
@@ -7659,7 +7662,7 @@
         <v>203</v>
       </c>
       <c r="D32" s="118"/>
-      <c r="E32" s="203" t="s">
+      <c r="E32" s="194" t="s">
         <v>224</v>
       </c>
       <c r="F32" s="174" t="s">
@@ -7740,7 +7743,7 @@
         <v>192</v>
       </c>
       <c r="D33" s="118"/>
-      <c r="E33" s="203" t="s">
+      <c r="E33" s="194" t="s">
         <v>225</v>
       </c>
       <c r="F33" s="174" t="s">
@@ -7821,7 +7824,7 @@
         <v>193</v>
       </c>
       <c r="D34" s="118"/>
-      <c r="E34" s="203" t="s">
+      <c r="E34" s="194" t="s">
         <v>225</v>
       </c>
       <c r="F34" s="174" t="s">
@@ -7902,7 +7905,7 @@
         <v>194</v>
       </c>
       <c r="D35" s="118"/>
-      <c r="E35" s="203" t="s">
+      <c r="E35" s="194" t="s">
         <v>226</v>
       </c>
       <c r="F35" s="174" t="s">
@@ -7984,7 +7987,7 @@
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="61"/>
-      <c r="E36" s="203" t="s">
+      <c r="E36" s="194" t="s">
         <v>226</v>
       </c>
       <c r="F36" s="174" t="s">
@@ -9217,7 +9220,7 @@
       <c r="E51" s="170" t="s">
         <v>269</v>
       </c>
-      <c r="F51" s="206" t="s">
+      <c r="F51" s="197" t="s">
         <v>235</v>
       </c>
       <c r="G51" s="180">
@@ -9299,7 +9302,7 @@
       <c r="E52" s="170" t="s">
         <v>235</v>
       </c>
-      <c r="F52" s="206" t="s">
+      <c r="F52" s="197" t="s">
         <v>254</v>
       </c>
       <c r="G52" s="180">
@@ -9381,7 +9384,7 @@
       <c r="E53" s="170" t="s">
         <v>270</v>
       </c>
-      <c r="F53" s="206" t="s">
+      <c r="F53" s="197" t="s">
         <v>236</v>
       </c>
       <c r="G53" s="180">
@@ -9463,7 +9466,7 @@
       <c r="E54" s="170" t="s">
         <v>236</v>
       </c>
-      <c r="F54" s="206" t="s">
+      <c r="F54" s="197" t="s">
         <v>255</v>
       </c>
       <c r="G54" s="180">
@@ -9545,7 +9548,7 @@
       <c r="E55" s="170" t="s">
         <v>237</v>
       </c>
-      <c r="F55" s="206" t="s">
+      <c r="F55" s="197" t="s">
         <v>237</v>
       </c>
       <c r="G55" s="180">
@@ -9627,7 +9630,7 @@
       <c r="E56" s="170" t="s">
         <v>238</v>
       </c>
-      <c r="F56" s="206" t="s">
+      <c r="F56" s="197" t="s">
         <v>238</v>
       </c>
       <c r="G56" s="180">
@@ -9857,143 +9860,143 @@
       <c r="BL58" s="101"/>
       <c r="BM58" s="101"/>
       <c r="BN58" s="101"/>
-      <c r="BO58" s="213"/>
-      <c r="BP58" s="213"/>
-      <c r="BQ58" s="213"/>
-      <c r="BR58" s="213"/>
-      <c r="BS58" s="213"/>
-      <c r="BT58" s="213"/>
-      <c r="BU58" s="213"/>
-      <c r="BV58" s="213"/>
-      <c r="BW58" s="213"/>
-      <c r="BX58" s="213"/>
-      <c r="BY58" s="213"/>
-      <c r="BZ58" s="213"/>
-      <c r="CA58" s="213"/>
-      <c r="CB58" s="213"/>
-      <c r="CC58" s="213"/>
-      <c r="CD58" s="213"/>
-      <c r="CE58" s="213"/>
-      <c r="CF58" s="213"/>
-      <c r="CG58" s="213"/>
-      <c r="CH58" s="213"/>
-      <c r="CI58" s="213"/>
-      <c r="CJ58" s="213"/>
-      <c r="CK58" s="213"/>
-      <c r="CL58" s="213"/>
-      <c r="CM58" s="213"/>
-      <c r="CN58" s="213"/>
-      <c r="CO58" s="213"/>
-      <c r="CP58" s="213"/>
-      <c r="CQ58" s="213"/>
-      <c r="CR58" s="213"/>
-      <c r="CS58" s="213"/>
-      <c r="CT58" s="213"/>
-      <c r="CU58" s="213"/>
-      <c r="CV58" s="213"/>
-      <c r="CW58" s="213"/>
-      <c r="CX58" s="213"/>
-      <c r="CY58" s="213"/>
-      <c r="CZ58" s="213"/>
-      <c r="DA58" s="213"/>
-      <c r="DB58" s="213"/>
-      <c r="DC58" s="213"/>
-      <c r="DD58" s="213"/>
-      <c r="DE58" s="213"/>
-      <c r="DF58" s="213"/>
-      <c r="DG58" s="213"/>
-      <c r="DH58" s="213"/>
-      <c r="DI58" s="213"/>
-      <c r="DJ58" s="213"/>
-      <c r="DK58" s="213"/>
-      <c r="DL58" s="213"/>
-      <c r="DM58" s="213"/>
-      <c r="DN58" s="213"/>
-      <c r="DO58" s="213"/>
-      <c r="DP58" s="213"/>
-      <c r="DQ58" s="213"/>
-      <c r="DR58" s="213"/>
-      <c r="DS58" s="213"/>
-      <c r="DT58" s="213"/>
-      <c r="DU58" s="213"/>
-      <c r="DV58" s="213"/>
-      <c r="DW58" s="213"/>
-      <c r="DX58" s="213"/>
-      <c r="DY58" s="213"/>
-      <c r="DZ58" s="213"/>
-      <c r="EA58" s="213"/>
-      <c r="EB58" s="213"/>
-      <c r="EC58" s="213"/>
-      <c r="ED58" s="213"/>
-      <c r="EE58" s="213"/>
-      <c r="EF58" s="213"/>
-      <c r="EG58" s="213"/>
-      <c r="EH58" s="213"/>
-      <c r="EI58" s="213"/>
-      <c r="EJ58" s="213"/>
-      <c r="EK58" s="213"/>
-      <c r="EL58" s="213"/>
-      <c r="EM58" s="213"/>
-      <c r="EN58" s="213"/>
-      <c r="EO58" s="213"/>
-      <c r="EP58" s="213"/>
-      <c r="EQ58" s="213"/>
-      <c r="ER58" s="213"/>
-      <c r="ES58" s="213"/>
-      <c r="ET58" s="213"/>
-      <c r="EU58" s="213"/>
-      <c r="EV58" s="213"/>
-      <c r="EW58" s="213"/>
-      <c r="EX58" s="213"/>
-      <c r="EY58" s="213"/>
-      <c r="EZ58" s="213"/>
-      <c r="FA58" s="213"/>
-      <c r="FB58" s="213"/>
-      <c r="FC58" s="213"/>
-      <c r="FD58" s="213"/>
-      <c r="FE58" s="213"/>
-      <c r="FF58" s="213"/>
-      <c r="FG58" s="213"/>
-      <c r="FH58" s="213"/>
-      <c r="FI58" s="213"/>
-      <c r="FJ58" s="213"/>
-      <c r="FK58" s="213"/>
-      <c r="FL58" s="213"/>
-      <c r="FM58" s="213"/>
-      <c r="FN58" s="213"/>
-      <c r="FO58" s="213"/>
-      <c r="FP58" s="213"/>
-      <c r="FQ58" s="213"/>
-      <c r="FR58" s="213"/>
-      <c r="FS58" s="213"/>
-      <c r="FT58" s="213"/>
-      <c r="FU58" s="213"/>
-      <c r="FV58" s="213"/>
-      <c r="FW58" s="213"/>
-      <c r="FX58" s="213"/>
-      <c r="FY58" s="213"/>
-      <c r="FZ58" s="213"/>
-      <c r="GA58" s="213"/>
-      <c r="GB58" s="213"/>
-      <c r="GC58" s="213"/>
-      <c r="GD58" s="213"/>
-      <c r="GE58" s="213"/>
-      <c r="GF58" s="213"/>
-      <c r="GG58" s="213"/>
-      <c r="GH58" s="213"/>
-      <c r="GI58" s="213"/>
-      <c r="GJ58" s="213"/>
-      <c r="GK58" s="213"/>
-      <c r="GL58" s="213"/>
-      <c r="GM58" s="213"/>
-      <c r="GN58" s="213"/>
-      <c r="GO58" s="213"/>
-      <c r="GP58" s="213"/>
-      <c r="GQ58" s="213"/>
-      <c r="GR58" s="213"/>
-      <c r="GS58" s="213"/>
-      <c r="GT58" s="213"/>
-      <c r="GU58" s="213"/>
+      <c r="BO58" s="203"/>
+      <c r="BP58" s="203"/>
+      <c r="BQ58" s="203"/>
+      <c r="BR58" s="203"/>
+      <c r="BS58" s="203"/>
+      <c r="BT58" s="203"/>
+      <c r="BU58" s="203"/>
+      <c r="BV58" s="203"/>
+      <c r="BW58" s="203"/>
+      <c r="BX58" s="203"/>
+      <c r="BY58" s="203"/>
+      <c r="BZ58" s="203"/>
+      <c r="CA58" s="203"/>
+      <c r="CB58" s="203"/>
+      <c r="CC58" s="203"/>
+      <c r="CD58" s="203"/>
+      <c r="CE58" s="203"/>
+      <c r="CF58" s="203"/>
+      <c r="CG58" s="203"/>
+      <c r="CH58" s="203"/>
+      <c r="CI58" s="203"/>
+      <c r="CJ58" s="203"/>
+      <c r="CK58" s="203"/>
+      <c r="CL58" s="203"/>
+      <c r="CM58" s="203"/>
+      <c r="CN58" s="203"/>
+      <c r="CO58" s="203"/>
+      <c r="CP58" s="203"/>
+      <c r="CQ58" s="203"/>
+      <c r="CR58" s="203"/>
+      <c r="CS58" s="203"/>
+      <c r="CT58" s="203"/>
+      <c r="CU58" s="203"/>
+      <c r="CV58" s="203"/>
+      <c r="CW58" s="203"/>
+      <c r="CX58" s="203"/>
+      <c r="CY58" s="203"/>
+      <c r="CZ58" s="203"/>
+      <c r="DA58" s="203"/>
+      <c r="DB58" s="203"/>
+      <c r="DC58" s="203"/>
+      <c r="DD58" s="203"/>
+      <c r="DE58" s="203"/>
+      <c r="DF58" s="203"/>
+      <c r="DG58" s="203"/>
+      <c r="DH58" s="203"/>
+      <c r="DI58" s="203"/>
+      <c r="DJ58" s="203"/>
+      <c r="DK58" s="203"/>
+      <c r="DL58" s="203"/>
+      <c r="DM58" s="203"/>
+      <c r="DN58" s="203"/>
+      <c r="DO58" s="203"/>
+      <c r="DP58" s="203"/>
+      <c r="DQ58" s="203"/>
+      <c r="DR58" s="203"/>
+      <c r="DS58" s="203"/>
+      <c r="DT58" s="203"/>
+      <c r="DU58" s="203"/>
+      <c r="DV58" s="203"/>
+      <c r="DW58" s="203"/>
+      <c r="DX58" s="203"/>
+      <c r="DY58" s="203"/>
+      <c r="DZ58" s="203"/>
+      <c r="EA58" s="203"/>
+      <c r="EB58" s="203"/>
+      <c r="EC58" s="203"/>
+      <c r="ED58" s="203"/>
+      <c r="EE58" s="203"/>
+      <c r="EF58" s="203"/>
+      <c r="EG58" s="203"/>
+      <c r="EH58" s="203"/>
+      <c r="EI58" s="203"/>
+      <c r="EJ58" s="203"/>
+      <c r="EK58" s="203"/>
+      <c r="EL58" s="203"/>
+      <c r="EM58" s="203"/>
+      <c r="EN58" s="203"/>
+      <c r="EO58" s="203"/>
+      <c r="EP58" s="203"/>
+      <c r="EQ58" s="203"/>
+      <c r="ER58" s="203"/>
+      <c r="ES58" s="203"/>
+      <c r="ET58" s="203"/>
+      <c r="EU58" s="203"/>
+      <c r="EV58" s="203"/>
+      <c r="EW58" s="203"/>
+      <c r="EX58" s="203"/>
+      <c r="EY58" s="203"/>
+      <c r="EZ58" s="203"/>
+      <c r="FA58" s="203"/>
+      <c r="FB58" s="203"/>
+      <c r="FC58" s="203"/>
+      <c r="FD58" s="203"/>
+      <c r="FE58" s="203"/>
+      <c r="FF58" s="203"/>
+      <c r="FG58" s="203"/>
+      <c r="FH58" s="203"/>
+      <c r="FI58" s="203"/>
+      <c r="FJ58" s="203"/>
+      <c r="FK58" s="203"/>
+      <c r="FL58" s="203"/>
+      <c r="FM58" s="203"/>
+      <c r="FN58" s="203"/>
+      <c r="FO58" s="203"/>
+      <c r="FP58" s="203"/>
+      <c r="FQ58" s="203"/>
+      <c r="FR58" s="203"/>
+      <c r="FS58" s="203"/>
+      <c r="FT58" s="203"/>
+      <c r="FU58" s="203"/>
+      <c r="FV58" s="203"/>
+      <c r="FW58" s="203"/>
+      <c r="FX58" s="203"/>
+      <c r="FY58" s="203"/>
+      <c r="FZ58" s="203"/>
+      <c r="GA58" s="203"/>
+      <c r="GB58" s="203"/>
+      <c r="GC58" s="203"/>
+      <c r="GD58" s="203"/>
+      <c r="GE58" s="203"/>
+      <c r="GF58" s="203"/>
+      <c r="GG58" s="203"/>
+      <c r="GH58" s="203"/>
+      <c r="GI58" s="203"/>
+      <c r="GJ58" s="203"/>
+      <c r="GK58" s="203"/>
+      <c r="GL58" s="203"/>
+      <c r="GM58" s="203"/>
+      <c r="GN58" s="203"/>
+      <c r="GO58" s="203"/>
+      <c r="GP58" s="203"/>
+      <c r="GQ58" s="203"/>
+      <c r="GR58" s="203"/>
+      <c r="GS58" s="203"/>
+      <c r="GT58" s="203"/>
+      <c r="GU58" s="203"/>
     </row>
     <row r="59" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A59" s="191" t="str">
@@ -10005,7 +10008,7 @@
       </c>
       <c r="C59" s="60"/>
       <c r="D59" s="61"/>
-      <c r="E59" s="203" t="s">
+      <c r="E59" s="194" t="s">
         <v>239</v>
       </c>
       <c r="F59" s="174" t="s">
@@ -10087,7 +10090,7 @@
       </c>
       <c r="C60" s="60"/>
       <c r="D60" s="61"/>
-      <c r="E60" s="203" t="s">
+      <c r="E60" s="194" t="s">
         <v>239</v>
       </c>
       <c r="F60" s="174" t="s">
@@ -10169,7 +10172,7 @@
       </c>
       <c r="C61" s="60"/>
       <c r="D61" s="61"/>
-      <c r="E61" s="203" t="s">
+      <c r="E61" s="194" t="s">
         <v>239</v>
       </c>
       <c r="F61" s="174" t="s">
@@ -10251,7 +10254,7 @@
       </c>
       <c r="C62" s="60"/>
       <c r="D62" s="61"/>
-      <c r="E62" s="203" t="s">
+      <c r="E62" s="194" t="s">
         <v>272</v>
       </c>
       <c r="F62" s="174" t="s">
@@ -10333,7 +10336,7 @@
       </c>
       <c r="C63" s="60"/>
       <c r="D63" s="61"/>
-      <c r="E63" s="204" t="s">
+      <c r="E63" s="195" t="s">
         <v>273</v>
       </c>
       <c r="F63" s="171" t="s">
@@ -10415,7 +10418,7 @@
       </c>
       <c r="C64" s="60"/>
       <c r="D64" s="61"/>
-      <c r="E64" s="204" t="s">
+      <c r="E64" s="195" t="s">
         <v>240</v>
       </c>
       <c r="F64" s="171" t="s">
@@ -10497,7 +10500,7 @@
       </c>
       <c r="C65" s="60"/>
       <c r="D65" s="61"/>
-      <c r="E65" s="204" t="s">
+      <c r="E65" s="195" t="s">
         <v>241</v>
       </c>
       <c r="F65" s="171" t="s">
@@ -10579,7 +10582,7 @@
       </c>
       <c r="C66" s="60"/>
       <c r="D66" s="61"/>
-      <c r="E66" s="204" t="s">
+      <c r="E66" s="195" t="s">
         <v>274</v>
       </c>
       <c r="F66" s="171" t="s">
@@ -10661,7 +10664,7 @@
       </c>
       <c r="C67" s="60"/>
       <c r="D67" s="61"/>
-      <c r="E67" s="204" t="s">
+      <c r="E67" s="195" t="s">
         <v>242</v>
       </c>
       <c r="F67" s="171" t="s">
@@ -10743,7 +10746,7 @@
       </c>
       <c r="C68" s="60"/>
       <c r="D68" s="61"/>
-      <c r="E68" s="204" t="s">
+      <c r="E68" s="195" t="s">
         <v>275</v>
       </c>
       <c r="F68" s="171" t="s">
@@ -10825,7 +10828,7 @@
       </c>
       <c r="C69" s="60"/>
       <c r="D69" s="61"/>
-      <c r="E69" s="204" t="s">
+      <c r="E69" s="195" t="s">
         <v>243</v>
       </c>
       <c r="F69" s="171" t="s">
@@ -10907,7 +10910,7 @@
       </c>
       <c r="C70" s="60"/>
       <c r="D70" s="61"/>
-      <c r="E70" s="204" t="s">
+      <c r="E70" s="195" t="s">
         <v>276</v>
       </c>
       <c r="F70" s="171" t="s">
@@ -11051,144 +11054,144 @@
       <c r="BL71" s="101"/>
       <c r="BM71" s="101"/>
       <c r="BN71" s="101"/>
-      <c r="BO71" s="213"/>
-      <c r="BP71" s="213"/>
-      <c r="BQ71" s="213"/>
-      <c r="BR71" s="213"/>
-      <c r="BS71" s="213"/>
-      <c r="BT71" s="213"/>
-      <c r="BU71" s="213"/>
-      <c r="BV71" s="213"/>
-      <c r="BW71" s="213"/>
-      <c r="BX71" s="213"/>
-      <c r="BY71" s="213"/>
-      <c r="BZ71" s="213"/>
-      <c r="CA71" s="213"/>
-      <c r="CB71" s="213"/>
-      <c r="CC71" s="213"/>
-      <c r="CD71" s="213"/>
-      <c r="CE71" s="213"/>
-      <c r="CF71" s="213"/>
-      <c r="CG71" s="213"/>
-      <c r="CH71" s="213"/>
-      <c r="CI71" s="213"/>
-      <c r="CJ71" s="213"/>
-      <c r="CK71" s="213"/>
-      <c r="CL71" s="213"/>
-      <c r="CM71" s="213"/>
-      <c r="CN71" s="213"/>
-      <c r="CO71" s="213"/>
-      <c r="CP71" s="213"/>
-      <c r="CQ71" s="213"/>
-      <c r="CR71" s="213"/>
-      <c r="CS71" s="213"/>
-      <c r="CT71" s="213"/>
-      <c r="CU71" s="213"/>
-      <c r="CV71" s="213"/>
-      <c r="CW71" s="213"/>
-      <c r="CX71" s="213"/>
-      <c r="CY71" s="213"/>
-      <c r="CZ71" s="213"/>
-      <c r="DA71" s="213"/>
-      <c r="DB71" s="213"/>
-      <c r="DC71" s="213"/>
-      <c r="DD71" s="213"/>
-      <c r="DE71" s="213"/>
-      <c r="DF71" s="213"/>
-      <c r="DG71" s="213"/>
-      <c r="DH71" s="213"/>
-      <c r="DI71" s="213"/>
-      <c r="DJ71" s="213"/>
-      <c r="DK71" s="213"/>
-      <c r="DL71" s="213"/>
-      <c r="DM71" s="213"/>
-      <c r="DN71" s="213"/>
-      <c r="DO71" s="213"/>
-      <c r="DP71" s="213"/>
-      <c r="DQ71" s="213"/>
-      <c r="DR71" s="213"/>
-      <c r="DS71" s="213"/>
-      <c r="DT71" s="213"/>
-      <c r="DU71" s="213"/>
-      <c r="DV71" s="213"/>
-      <c r="DW71" s="213"/>
-      <c r="DX71" s="213"/>
-      <c r="DY71" s="213"/>
-      <c r="DZ71" s="213"/>
-      <c r="EA71" s="213"/>
-      <c r="EB71" s="213"/>
-      <c r="EC71" s="213"/>
-      <c r="ED71" s="213"/>
-      <c r="EE71" s="213"/>
-      <c r="EF71" s="213"/>
-      <c r="EG71" s="213"/>
-      <c r="EH71" s="213"/>
-      <c r="EI71" s="213"/>
-      <c r="EJ71" s="213"/>
-      <c r="EK71" s="213"/>
-      <c r="EL71" s="213"/>
-      <c r="EM71" s="213"/>
-      <c r="EN71" s="213"/>
-      <c r="EO71" s="213"/>
-      <c r="EP71" s="213"/>
-      <c r="EQ71" s="213"/>
-      <c r="ER71" s="213"/>
-      <c r="ES71" s="213"/>
-      <c r="ET71" s="213"/>
-      <c r="EU71" s="213"/>
-      <c r="EV71" s="213"/>
-      <c r="EW71" s="213"/>
-      <c r="EX71" s="213"/>
-      <c r="EY71" s="213"/>
-      <c r="EZ71" s="213"/>
-      <c r="FA71" s="213"/>
-      <c r="FB71" s="213"/>
-      <c r="FC71" s="213"/>
-      <c r="FD71" s="213"/>
-      <c r="FE71" s="213"/>
-      <c r="FF71" s="213"/>
-      <c r="FG71" s="213"/>
-      <c r="FH71" s="213"/>
-      <c r="FI71" s="213"/>
-      <c r="FJ71" s="213"/>
-      <c r="FK71" s="213"/>
-      <c r="FL71" s="213"/>
-      <c r="FM71" s="213"/>
-      <c r="FN71" s="213"/>
-      <c r="FO71" s="213"/>
-      <c r="FP71" s="213"/>
-      <c r="FQ71" s="213"/>
-      <c r="FR71" s="213"/>
-      <c r="FS71" s="213"/>
-      <c r="FT71" s="213"/>
-      <c r="FU71" s="213"/>
-      <c r="FV71" s="213"/>
-      <c r="FW71" s="213"/>
-      <c r="FX71" s="213"/>
-      <c r="FY71" s="213"/>
-      <c r="FZ71" s="213"/>
-      <c r="GA71" s="213"/>
-      <c r="GB71" s="213"/>
-      <c r="GC71" s="213"/>
-      <c r="GD71" s="213"/>
-      <c r="GE71" s="213"/>
-      <c r="GF71" s="213"/>
-      <c r="GG71" s="213"/>
-      <c r="GH71" s="213"/>
-      <c r="GI71" s="213"/>
-      <c r="GJ71" s="213"/>
-      <c r="GK71" s="213"/>
-      <c r="GL71" s="213"/>
-      <c r="GM71" s="213"/>
-      <c r="GN71" s="213"/>
-      <c r="GO71" s="213"/>
-      <c r="GP71" s="213"/>
-      <c r="GQ71" s="213"/>
-      <c r="GR71" s="213"/>
-      <c r="GS71" s="213"/>
-      <c r="GT71" s="213"/>
-      <c r="GU71" s="213"/>
-      <c r="GV71" s="213"/>
+      <c r="BO71" s="203"/>
+      <c r="BP71" s="203"/>
+      <c r="BQ71" s="203"/>
+      <c r="BR71" s="203"/>
+      <c r="BS71" s="203"/>
+      <c r="BT71" s="203"/>
+      <c r="BU71" s="203"/>
+      <c r="BV71" s="203"/>
+      <c r="BW71" s="203"/>
+      <c r="BX71" s="203"/>
+      <c r="BY71" s="203"/>
+      <c r="BZ71" s="203"/>
+      <c r="CA71" s="203"/>
+      <c r="CB71" s="203"/>
+      <c r="CC71" s="203"/>
+      <c r="CD71" s="203"/>
+      <c r="CE71" s="203"/>
+      <c r="CF71" s="203"/>
+      <c r="CG71" s="203"/>
+      <c r="CH71" s="203"/>
+      <c r="CI71" s="203"/>
+      <c r="CJ71" s="203"/>
+      <c r="CK71" s="203"/>
+      <c r="CL71" s="203"/>
+      <c r="CM71" s="203"/>
+      <c r="CN71" s="203"/>
+      <c r="CO71" s="203"/>
+      <c r="CP71" s="203"/>
+      <c r="CQ71" s="203"/>
+      <c r="CR71" s="203"/>
+      <c r="CS71" s="203"/>
+      <c r="CT71" s="203"/>
+      <c r="CU71" s="203"/>
+      <c r="CV71" s="203"/>
+      <c r="CW71" s="203"/>
+      <c r="CX71" s="203"/>
+      <c r="CY71" s="203"/>
+      <c r="CZ71" s="203"/>
+      <c r="DA71" s="203"/>
+      <c r="DB71" s="203"/>
+      <c r="DC71" s="203"/>
+      <c r="DD71" s="203"/>
+      <c r="DE71" s="203"/>
+      <c r="DF71" s="203"/>
+      <c r="DG71" s="203"/>
+      <c r="DH71" s="203"/>
+      <c r="DI71" s="203"/>
+      <c r="DJ71" s="203"/>
+      <c r="DK71" s="203"/>
+      <c r="DL71" s="203"/>
+      <c r="DM71" s="203"/>
+      <c r="DN71" s="203"/>
+      <c r="DO71" s="203"/>
+      <c r="DP71" s="203"/>
+      <c r="DQ71" s="203"/>
+      <c r="DR71" s="203"/>
+      <c r="DS71" s="203"/>
+      <c r="DT71" s="203"/>
+      <c r="DU71" s="203"/>
+      <c r="DV71" s="203"/>
+      <c r="DW71" s="203"/>
+      <c r="DX71" s="203"/>
+      <c r="DY71" s="203"/>
+      <c r="DZ71" s="203"/>
+      <c r="EA71" s="203"/>
+      <c r="EB71" s="203"/>
+      <c r="EC71" s="203"/>
+      <c r="ED71" s="203"/>
+      <c r="EE71" s="203"/>
+      <c r="EF71" s="203"/>
+      <c r="EG71" s="203"/>
+      <c r="EH71" s="203"/>
+      <c r="EI71" s="203"/>
+      <c r="EJ71" s="203"/>
+      <c r="EK71" s="203"/>
+      <c r="EL71" s="203"/>
+      <c r="EM71" s="203"/>
+      <c r="EN71" s="203"/>
+      <c r="EO71" s="203"/>
+      <c r="EP71" s="203"/>
+      <c r="EQ71" s="203"/>
+      <c r="ER71" s="203"/>
+      <c r="ES71" s="203"/>
+      <c r="ET71" s="203"/>
+      <c r="EU71" s="203"/>
+      <c r="EV71" s="203"/>
+      <c r="EW71" s="203"/>
+      <c r="EX71" s="203"/>
+      <c r="EY71" s="203"/>
+      <c r="EZ71" s="203"/>
+      <c r="FA71" s="203"/>
+      <c r="FB71" s="203"/>
+      <c r="FC71" s="203"/>
+      <c r="FD71" s="203"/>
+      <c r="FE71" s="203"/>
+      <c r="FF71" s="203"/>
+      <c r="FG71" s="203"/>
+      <c r="FH71" s="203"/>
+      <c r="FI71" s="203"/>
+      <c r="FJ71" s="203"/>
+      <c r="FK71" s="203"/>
+      <c r="FL71" s="203"/>
+      <c r="FM71" s="203"/>
+      <c r="FN71" s="203"/>
+      <c r="FO71" s="203"/>
+      <c r="FP71" s="203"/>
+      <c r="FQ71" s="203"/>
+      <c r="FR71" s="203"/>
+      <c r="FS71" s="203"/>
+      <c r="FT71" s="203"/>
+      <c r="FU71" s="203"/>
+      <c r="FV71" s="203"/>
+      <c r="FW71" s="203"/>
+      <c r="FX71" s="203"/>
+      <c r="FY71" s="203"/>
+      <c r="FZ71" s="203"/>
+      <c r="GA71" s="203"/>
+      <c r="GB71" s="203"/>
+      <c r="GC71" s="203"/>
+      <c r="GD71" s="203"/>
+      <c r="GE71" s="203"/>
+      <c r="GF71" s="203"/>
+      <c r="GG71" s="203"/>
+      <c r="GH71" s="203"/>
+      <c r="GI71" s="203"/>
+      <c r="GJ71" s="203"/>
+      <c r="GK71" s="203"/>
+      <c r="GL71" s="203"/>
+      <c r="GM71" s="203"/>
+      <c r="GN71" s="203"/>
+      <c r="GO71" s="203"/>
+      <c r="GP71" s="203"/>
+      <c r="GQ71" s="203"/>
+      <c r="GR71" s="203"/>
+      <c r="GS71" s="203"/>
+      <c r="GT71" s="203"/>
+      <c r="GU71" s="203"/>
+      <c r="GV71" s="203"/>
     </row>
     <row r="72" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A72" s="160">
@@ -11199,7 +11202,7 @@
       </c>
       <c r="C72" s="60"/>
       <c r="D72" s="61"/>
-      <c r="E72" s="205" t="s">
+      <c r="E72" s="196" t="s">
         <v>277</v>
       </c>
       <c r="F72" s="173" t="s">
@@ -11281,7 +11284,7 @@
       </c>
       <c r="C73" s="60"/>
       <c r="D73" s="61"/>
-      <c r="E73" s="205" t="s">
+      <c r="E73" s="196" t="s">
         <v>278</v>
       </c>
       <c r="F73" s="173" t="s">
@@ -11363,7 +11366,7 @@
       </c>
       <c r="C74" s="60"/>
       <c r="D74" s="61"/>
-      <c r="E74" s="205" t="s">
+      <c r="E74" s="196" t="s">
         <v>279</v>
       </c>
       <c r="F74" s="173" t="s">
@@ -11507,145 +11510,145 @@
       <c r="BL75" s="101"/>
       <c r="BM75" s="101"/>
       <c r="BN75" s="101"/>
-      <c r="BO75" s="213"/>
-      <c r="BP75" s="213"/>
-      <c r="BQ75" s="213"/>
-      <c r="BR75" s="213"/>
-      <c r="BS75" s="213"/>
-      <c r="BT75" s="213"/>
-      <c r="BU75" s="213"/>
-      <c r="BV75" s="213"/>
-      <c r="BW75" s="213"/>
-      <c r="BX75" s="213"/>
-      <c r="BY75" s="213"/>
-      <c r="BZ75" s="213"/>
-      <c r="CA75" s="213"/>
-      <c r="CB75" s="213"/>
-      <c r="CC75" s="213"/>
-      <c r="CD75" s="213"/>
-      <c r="CE75" s="213"/>
-      <c r="CF75" s="213"/>
-      <c r="CG75" s="213"/>
-      <c r="CH75" s="213"/>
-      <c r="CI75" s="213"/>
-      <c r="CJ75" s="213"/>
-      <c r="CK75" s="213"/>
-      <c r="CL75" s="213"/>
-      <c r="CM75" s="213"/>
-      <c r="CN75" s="213"/>
-      <c r="CO75" s="213"/>
-      <c r="CP75" s="213"/>
-      <c r="CQ75" s="213"/>
-      <c r="CR75" s="213"/>
-      <c r="CS75" s="213"/>
-      <c r="CT75" s="213"/>
-      <c r="CU75" s="213"/>
-      <c r="CV75" s="213"/>
-      <c r="CW75" s="213"/>
-      <c r="CX75" s="213"/>
-      <c r="CY75" s="213"/>
-      <c r="CZ75" s="213"/>
-      <c r="DA75" s="213"/>
-      <c r="DB75" s="213"/>
-      <c r="DC75" s="213"/>
-      <c r="DD75" s="213"/>
-      <c r="DE75" s="213"/>
-      <c r="DF75" s="213"/>
-      <c r="DG75" s="213"/>
-      <c r="DH75" s="213"/>
-      <c r="DI75" s="213"/>
-      <c r="DJ75" s="213"/>
-      <c r="DK75" s="213"/>
-      <c r="DL75" s="213"/>
-      <c r="DM75" s="213"/>
-      <c r="DN75" s="213"/>
-      <c r="DO75" s="213"/>
-      <c r="DP75" s="213"/>
-      <c r="DQ75" s="213"/>
-      <c r="DR75" s="213"/>
-      <c r="DS75" s="213"/>
-      <c r="DT75" s="213"/>
-      <c r="DU75" s="213"/>
-      <c r="DV75" s="213"/>
-      <c r="DW75" s="213"/>
-      <c r="DX75" s="213"/>
-      <c r="DY75" s="213"/>
-      <c r="DZ75" s="213"/>
-      <c r="EA75" s="213"/>
-      <c r="EB75" s="213"/>
-      <c r="EC75" s="213"/>
-      <c r="ED75" s="213"/>
-      <c r="EE75" s="213"/>
-      <c r="EF75" s="213"/>
-      <c r="EG75" s="213"/>
-      <c r="EH75" s="213"/>
-      <c r="EI75" s="213"/>
-      <c r="EJ75" s="213"/>
-      <c r="EK75" s="213"/>
-      <c r="EL75" s="213"/>
-      <c r="EM75" s="213"/>
-      <c r="EN75" s="213"/>
-      <c r="EO75" s="213"/>
-      <c r="EP75" s="213"/>
-      <c r="EQ75" s="213"/>
-      <c r="ER75" s="213"/>
-      <c r="ES75" s="213"/>
-      <c r="ET75" s="213"/>
-      <c r="EU75" s="213"/>
-      <c r="EV75" s="213"/>
-      <c r="EW75" s="213"/>
-      <c r="EX75" s="213"/>
-      <c r="EY75" s="213"/>
-      <c r="EZ75" s="213"/>
-      <c r="FA75" s="213"/>
-      <c r="FB75" s="213"/>
-      <c r="FC75" s="213"/>
-      <c r="FD75" s="213"/>
-      <c r="FE75" s="213"/>
-      <c r="FF75" s="213"/>
-      <c r="FG75" s="213"/>
-      <c r="FH75" s="213"/>
-      <c r="FI75" s="213"/>
-      <c r="FJ75" s="213"/>
-      <c r="FK75" s="213"/>
-      <c r="FL75" s="213"/>
-      <c r="FM75" s="213"/>
-      <c r="FN75" s="213"/>
-      <c r="FO75" s="213"/>
-      <c r="FP75" s="213"/>
-      <c r="FQ75" s="213"/>
-      <c r="FR75" s="213"/>
-      <c r="FS75" s="213"/>
-      <c r="FT75" s="213"/>
-      <c r="FU75" s="213"/>
-      <c r="FV75" s="213"/>
-      <c r="FW75" s="213"/>
-      <c r="FX75" s="213"/>
-      <c r="FY75" s="213"/>
-      <c r="FZ75" s="213"/>
-      <c r="GA75" s="213"/>
-      <c r="GB75" s="213"/>
-      <c r="GC75" s="213"/>
-      <c r="GD75" s="213"/>
-      <c r="GE75" s="213"/>
-      <c r="GF75" s="213"/>
-      <c r="GG75" s="213"/>
-      <c r="GH75" s="213"/>
-      <c r="GI75" s="213"/>
-      <c r="GJ75" s="213"/>
-      <c r="GK75" s="213"/>
-      <c r="GL75" s="213"/>
-      <c r="GM75" s="213"/>
-      <c r="GN75" s="213"/>
-      <c r="GO75" s="213"/>
-      <c r="GP75" s="213"/>
-      <c r="GQ75" s="213"/>
-      <c r="GR75" s="213"/>
-      <c r="GS75" s="213"/>
-      <c r="GT75" s="213"/>
-      <c r="GU75" s="213"/>
-      <c r="GV75" s="213"/>
-      <c r="GW75" s="213"/>
+      <c r="BO75" s="203"/>
+      <c r="BP75" s="203"/>
+      <c r="BQ75" s="203"/>
+      <c r="BR75" s="203"/>
+      <c r="BS75" s="203"/>
+      <c r="BT75" s="203"/>
+      <c r="BU75" s="203"/>
+      <c r="BV75" s="203"/>
+      <c r="BW75" s="203"/>
+      <c r="BX75" s="203"/>
+      <c r="BY75" s="203"/>
+      <c r="BZ75" s="203"/>
+      <c r="CA75" s="203"/>
+      <c r="CB75" s="203"/>
+      <c r="CC75" s="203"/>
+      <c r="CD75" s="203"/>
+      <c r="CE75" s="203"/>
+      <c r="CF75" s="203"/>
+      <c r="CG75" s="203"/>
+      <c r="CH75" s="203"/>
+      <c r="CI75" s="203"/>
+      <c r="CJ75" s="203"/>
+      <c r="CK75" s="203"/>
+      <c r="CL75" s="203"/>
+      <c r="CM75" s="203"/>
+      <c r="CN75" s="203"/>
+      <c r="CO75" s="203"/>
+      <c r="CP75" s="203"/>
+      <c r="CQ75" s="203"/>
+      <c r="CR75" s="203"/>
+      <c r="CS75" s="203"/>
+      <c r="CT75" s="203"/>
+      <c r="CU75" s="203"/>
+      <c r="CV75" s="203"/>
+      <c r="CW75" s="203"/>
+      <c r="CX75" s="203"/>
+      <c r="CY75" s="203"/>
+      <c r="CZ75" s="203"/>
+      <c r="DA75" s="203"/>
+      <c r="DB75" s="203"/>
+      <c r="DC75" s="203"/>
+      <c r="DD75" s="203"/>
+      <c r="DE75" s="203"/>
+      <c r="DF75" s="203"/>
+      <c r="DG75" s="203"/>
+      <c r="DH75" s="203"/>
+      <c r="DI75" s="203"/>
+      <c r="DJ75" s="203"/>
+      <c r="DK75" s="203"/>
+      <c r="DL75" s="203"/>
+      <c r="DM75" s="203"/>
+      <c r="DN75" s="203"/>
+      <c r="DO75" s="203"/>
+      <c r="DP75" s="203"/>
+      <c r="DQ75" s="203"/>
+      <c r="DR75" s="203"/>
+      <c r="DS75" s="203"/>
+      <c r="DT75" s="203"/>
+      <c r="DU75" s="203"/>
+      <c r="DV75" s="203"/>
+      <c r="DW75" s="203"/>
+      <c r="DX75" s="203"/>
+      <c r="DY75" s="203"/>
+      <c r="DZ75" s="203"/>
+      <c r="EA75" s="203"/>
+      <c r="EB75" s="203"/>
+      <c r="EC75" s="203"/>
+      <c r="ED75" s="203"/>
+      <c r="EE75" s="203"/>
+      <c r="EF75" s="203"/>
+      <c r="EG75" s="203"/>
+      <c r="EH75" s="203"/>
+      <c r="EI75" s="203"/>
+      <c r="EJ75" s="203"/>
+      <c r="EK75" s="203"/>
+      <c r="EL75" s="203"/>
+      <c r="EM75" s="203"/>
+      <c r="EN75" s="203"/>
+      <c r="EO75" s="203"/>
+      <c r="EP75" s="203"/>
+      <c r="EQ75" s="203"/>
+      <c r="ER75" s="203"/>
+      <c r="ES75" s="203"/>
+      <c r="ET75" s="203"/>
+      <c r="EU75" s="203"/>
+      <c r="EV75" s="203"/>
+      <c r="EW75" s="203"/>
+      <c r="EX75" s="203"/>
+      <c r="EY75" s="203"/>
+      <c r="EZ75" s="203"/>
+      <c r="FA75" s="203"/>
+      <c r="FB75" s="203"/>
+      <c r="FC75" s="203"/>
+      <c r="FD75" s="203"/>
+      <c r="FE75" s="203"/>
+      <c r="FF75" s="203"/>
+      <c r="FG75" s="203"/>
+      <c r="FH75" s="203"/>
+      <c r="FI75" s="203"/>
+      <c r="FJ75" s="203"/>
+      <c r="FK75" s="203"/>
+      <c r="FL75" s="203"/>
+      <c r="FM75" s="203"/>
+      <c r="FN75" s="203"/>
+      <c r="FO75" s="203"/>
+      <c r="FP75" s="203"/>
+      <c r="FQ75" s="203"/>
+      <c r="FR75" s="203"/>
+      <c r="FS75" s="203"/>
+      <c r="FT75" s="203"/>
+      <c r="FU75" s="203"/>
+      <c r="FV75" s="203"/>
+      <c r="FW75" s="203"/>
+      <c r="FX75" s="203"/>
+      <c r="FY75" s="203"/>
+      <c r="FZ75" s="203"/>
+      <c r="GA75" s="203"/>
+      <c r="GB75" s="203"/>
+      <c r="GC75" s="203"/>
+      <c r="GD75" s="203"/>
+      <c r="GE75" s="203"/>
+      <c r="GF75" s="203"/>
+      <c r="GG75" s="203"/>
+      <c r="GH75" s="203"/>
+      <c r="GI75" s="203"/>
+      <c r="GJ75" s="203"/>
+      <c r="GK75" s="203"/>
+      <c r="GL75" s="203"/>
+      <c r="GM75" s="203"/>
+      <c r="GN75" s="203"/>
+      <c r="GO75" s="203"/>
+      <c r="GP75" s="203"/>
+      <c r="GQ75" s="203"/>
+      <c r="GR75" s="203"/>
+      <c r="GS75" s="203"/>
+      <c r="GT75" s="203"/>
+      <c r="GU75" s="203"/>
+      <c r="GV75" s="203"/>
+      <c r="GW75" s="203"/>
     </row>
     <row r="76" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A76" s="160">
@@ -11656,7 +11659,7 @@
       </c>
       <c r="C76" s="60"/>
       <c r="D76" s="61"/>
-      <c r="E76" s="205"/>
+      <c r="E76" s="196"/>
       <c r="F76" s="173"/>
       <c r="G76" s="192"/>
       <c r="H76" s="193"/>
@@ -11728,7 +11731,7 @@
       </c>
       <c r="C77" s="60"/>
       <c r="D77" s="61"/>
-      <c r="E77" s="205"/>
+      <c r="E77" s="196"/>
       <c r="F77" s="173"/>
       <c r="G77" s="192"/>
       <c r="H77" s="193"/>
@@ -12528,15 +12531,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -12547,6 +12541,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H78:H86 H8">
@@ -12965,10 +12968,10 @@
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="202" t="s">
+      <c r="A13" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="202"/>
+      <c r="B13" s="213"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:3" s="124" customFormat="1" ht="18" x14ac:dyDescent="0.15">
@@ -13030,10 +13033,10 @@
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="202" t="s">
+      <c r="A24" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="202"/>
+      <c r="B24" s="213"/>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="134"/>
@@ -13106,10 +13109,10 @@
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="202" t="s">
+      <c r="A38" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="202"/>
+      <c r="B38" s="213"/>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="B39" s="131" t="s">
@@ -13146,10 +13149,10 @@
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="202" t="s">
+      <c r="A49" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="202"/>
+      <c r="B49" s="213"/>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="B50" s="131" t="s">
@@ -13247,10 +13250,10 @@
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="202" t="s">
+      <c r="A65" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="202"/>
+      <c r="B65" s="213"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="B66" s="131" t="s">
@@ -13261,10 +13264,10 @@
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="202" t="s">
+      <c r="A68" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="202"/>
+      <c r="B68" s="213"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A69" s="146" t="s">

--- a/Matt Ansari-Gantt Chart.xlsx
+++ b/Matt Ansari-Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeojinansari/Desktop/Gannt Chart/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeojinansari/Desktop/5607/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A03F78F-463F-C042-8AB3-24414A151B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7ECBE0-16AE-3947-A1A4-EF43501CBB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22000" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -428,7 +428,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -437,12 +437,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Update the status of this task by entering the percent complete (between 0% and 100%).</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Update the status of this task by entering the percent complete (between 0% and 100%).</t>
         </r>
       </text>
     </comment>
@@ -452,7 +461,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -461,12 +470,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Counts the number of work days, excluding the weekends (Saturday and Sunday). In the PRO version, you can customize the work week and list specific non-working days like holidays. In the PRO version, the default input is the Work Days instead of the Calendar Days.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Counts the number of work days, excluding the weekends (Saturday and Sunday). In the PRO version, you can customize the work week and list specific non-working days like holidays. In the PRO version, the default input is the Work Days instead of the Calendar Days.</t>
         </r>
       </text>
     </comment>
@@ -498,10 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="289">
-  <si>
-    <t>[Company Name]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="287">
   <si>
     <t>WBS</t>
   </si>
@@ -1572,12 +1587,6 @@
     </r>
   </si>
   <si>
-    <t>Information Gathering</t>
-  </si>
-  <si>
-    <t>Version Control</t>
-  </si>
-  <si>
     <t>Maintenance</t>
   </si>
   <si>
@@ -1719,9 +1728,6 @@
     <t>Collect requirements</t>
   </si>
   <si>
-    <t>Write system use case narratives</t>
-  </si>
-  <si>
     <t>Add medication</t>
   </si>
   <si>
@@ -1746,48 +1752,21 @@
     <t>Close admission</t>
   </si>
   <si>
-    <t>Finalise on use case narratives</t>
-  </si>
-  <si>
-    <t>Draw use case diagrams</t>
-  </si>
-  <si>
-    <t>Draw Activity diagrams</t>
-  </si>
-  <si>
-    <t>Draw class diagrams</t>
-  </si>
-  <si>
     <t>Finalise on all diagrams</t>
   </si>
   <si>
-    <t>Project Design</t>
-  </si>
-  <si>
-    <t>Write design level use case descriptors</t>
-  </si>
-  <si>
     <t>Add Ward</t>
   </si>
   <si>
-    <t>Sequence Diagrams</t>
-  </si>
-  <si>
     <t>Deployment diagrams with descriptions</t>
   </si>
   <si>
-    <t>Databsase Design</t>
-  </si>
-  <si>
     <t>Annotated interface designs</t>
   </si>
   <si>
     <t>Test Plans</t>
   </si>
   <si>
-    <t>Implementation and Testing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coding </t>
   </si>
   <si>
@@ -1821,9 +1800,6 @@
     <t>Fri 24/09/21</t>
   </si>
   <si>
-    <t>Sat 25/09/21</t>
-  </si>
-  <si>
     <t>Wed 06/10/21</t>
   </si>
   <si>
@@ -1863,9 +1839,6 @@
     <t>Fri 15/10/22</t>
   </si>
   <si>
-    <t>Sat 16/10/22</t>
-  </si>
-  <si>
     <t>Sun 17/10/22</t>
   </si>
   <si>
@@ -1878,9 +1851,6 @@
     <t>Thr 21/10/21</t>
   </si>
   <si>
-    <t>Tue 26/10/21</t>
-  </si>
-  <si>
     <t>Wed 27/10/21</t>
   </si>
   <si>
@@ -1902,27 +1872,15 @@
     <t>Mon 27/09/21</t>
   </si>
   <si>
-    <t>Wed 29/09/21</t>
-  </si>
-  <si>
     <t>Fri 01/10/21</t>
   </si>
   <si>
-    <t>Sun 03/10/21</t>
-  </si>
-  <si>
     <t>Tue 05/10/21</t>
   </si>
   <si>
-    <t>Fri 14/10/21</t>
-  </si>
-  <si>
     <t>Mon 18/10/21</t>
   </si>
   <si>
-    <t>Sat 16/10/23</t>
-  </si>
-  <si>
     <t>Sun 17/10/23</t>
   </si>
   <si>
@@ -1932,15 +1890,9 @@
     <t>Thr 21/10/22</t>
   </si>
   <si>
-    <t>Sat 23/10/21</t>
-  </si>
-  <si>
     <t>Mon 25/10/21</t>
   </si>
   <si>
-    <t>Fri 29/10/21</t>
-  </si>
-  <si>
     <t>Mon 01/11/21</t>
   </si>
   <si>
@@ -1950,9 +1902,6 @@
     <t>Mon 08/11/21</t>
   </si>
   <si>
-    <t>Thr 11/10/21</t>
-  </si>
-  <si>
     <t>Sun 14/11/21</t>
   </si>
   <si>
@@ -1962,12 +1911,6 @@
     <t xml:space="preserve"> Mon 11/10/21</t>
   </si>
   <si>
-    <t>Thr 14/10/21</t>
-  </si>
-  <si>
-    <t>Sat 16/10/21</t>
-  </si>
-  <si>
     <t>Sun 17/10/21</t>
   </si>
   <si>
@@ -1980,9 +1923,6 @@
     <t>Sun 24/10/21</t>
   </si>
   <si>
-    <t>Thr 28/10/21</t>
-  </si>
-  <si>
     <t>Sun 31/10/21</t>
   </si>
   <si>
@@ -1995,12 +1935,6 @@
     <t>Tue 09/11/21</t>
   </si>
   <si>
-    <t>Fri 12/10/21</t>
-  </si>
-  <si>
-    <t>Saint Albert's</t>
-  </si>
-  <si>
     <t>Mon 20/09/21</t>
   </si>
   <si>
@@ -2010,19 +1944,97 @@
     <t>Tue 28/09/21</t>
   </si>
   <si>
-    <t>Sat 02/10/21</t>
-  </si>
-  <si>
     <t>Mon 04/10/21</t>
   </si>
   <si>
-    <t>Thr 30/09/21</t>
-  </si>
-  <si>
-    <t>Fri 23/09/21</t>
-  </si>
-  <si>
-    <t>Thr 25/09/21</t>
+    <t>Saint Albert</t>
+  </si>
+  <si>
+    <t>Draft business use case narratives</t>
+  </si>
+  <si>
+    <t>Draw activity diagrams</t>
+  </si>
+  <si>
+    <t>Draft design level use case narratives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data dictionary &amp; databsase design </t>
+  </si>
+  <si>
+    <t>Sequence diagrams</t>
+  </si>
+  <si>
+    <t>Version control</t>
+  </si>
+  <si>
+    <t>Project design</t>
+  </si>
+  <si>
+    <t>Information gathering</t>
+  </si>
+  <si>
+    <t>Implementation and testing</t>
+  </si>
+  <si>
+    <t>Thur 28/10/21</t>
+  </si>
+  <si>
+    <t>Wed 10/11/21</t>
+  </si>
+  <si>
+    <t>Thur 11/11/21</t>
+  </si>
+  <si>
+    <t>Thur 04/11/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thur 11/11/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mon 10/11/21</t>
+  </si>
+  <si>
+    <t>Thr 27/09/21</t>
+  </si>
+  <si>
+    <t>Draw use case diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tue 28/09/21</t>
+  </si>
+  <si>
+    <t>Draw class diagram</t>
+  </si>
+  <si>
+    <t>Thur 30/09/21</t>
+  </si>
+  <si>
+    <t>Thur 14/10/21</t>
+  </si>
+  <si>
+    <t>Thur 14/10/22</t>
+  </si>
+  <si>
+    <t>Fri 12/11/21</t>
+  </si>
+  <si>
+    <t>Sat 13/11/21</t>
+  </si>
+  <si>
+    <t>Sat 13/10/21</t>
+  </si>
+  <si>
+    <t>Mon 15/11/21</t>
+  </si>
+  <si>
+    <t>Tue 16/11/21</t>
+  </si>
+  <si>
+    <t>Wed 17/11/21</t>
+  </si>
+  <si>
+    <t>Mon 22/11/21</t>
   </si>
 </sst>
 </file>
@@ -3790,14 +3802,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>80433</xdr:rowOff>
     </xdr:to>
@@ -4439,17 +4451,17 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:GW87"/>
+  <dimension ref="A1:GW86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="3.5" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
@@ -4463,7 +4475,7 @@
   <sheetData>
     <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="117" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -4472,7 +4484,7 @@
       <c r="F1" s="46"/>
       <c r="I1" s="122"/>
       <c r="K1" s="204" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L1" s="204"/>
       <c r="M1" s="204"/>
@@ -4496,9 +4508,7 @@
       <c r="AE1" s="204"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="51"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="33"/>
@@ -4536,7 +4546,7 @@
     <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="102"/>
       <c r="B4" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="209">
         <v>44460</v>
@@ -4545,7 +4555,7 @@
       <c r="E4" s="209"/>
       <c r="F4" s="103"/>
       <c r="G4" s="106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="119">
         <v>1</v>
@@ -4636,10 +4646,10 @@
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="102"/>
       <c r="B5" s="106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="205" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D5" s="205"/>
       <c r="E5" s="205"/>
@@ -4967,31 +4977,31 @@
     </row>
     <row r="7" spans="1:66" s="116" customFormat="1" ht="61" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="108" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="D7" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="111" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="112" t="s">
+      <c r="F7" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="G7" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="110" t="s">
+      <c r="H7" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="110" t="s">
+      <c r="I7" s="110" t="s">
         <v>72</v>
-      </c>
-      <c r="I7" s="110" t="s">
-        <v>73</v>
       </c>
       <c r="J7" s="110"/>
       <c r="K7" s="113" t="str">
@@ -5225,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="161" t="s">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
@@ -5237,7 +5247,7 @@
       <c r="G8" s="82"/>
       <c r="H8" s="83"/>
       <c r="I8" s="84" t="str">
-        <f t="shared" ref="I8:I80" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I79" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="87"/>
@@ -5300,30 +5310,28 @@
     </row>
     <row r="9" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="157" t="str">
-        <f t="shared" ref="A9:A25" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A24" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="162" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="118"/>
       <c r="E9" s="194" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="F9" s="174" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="G9" s="177">
-        <v>1</v>
-      </c>
-      <c r="H9" s="59">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" s="59"/>
       <c r="I9" s="178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="88"/>
       <c r="K9" s="99"/>
@@ -5388,14 +5396,14 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="162" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D10" s="118"/>
       <c r="E10" s="194" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="F10" s="174" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="G10" s="177">
         <v>2</v>
@@ -5467,14 +5475,14 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="162" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D11" s="118"/>
       <c r="E11" s="194" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="F11" s="174" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G11" s="177">
         <v>3</v>
@@ -5541,29 +5549,27 @@
       <c r="BM11" s="99"/>
       <c r="BN11" s="99"/>
     </row>
-    <row r="12" spans="1:66" s="57" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A12" s="157" t="str">
         <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
       <c r="B12" s="163" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="D12" s="118"/>
       <c r="E12" s="194" t="s">
-        <v>287</v>
+        <v>206</v>
       </c>
       <c r="F12" s="174" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G12" s="177">
         <v>5</v>
       </c>
-      <c r="H12" s="59">
-        <v>0.6</v>
-      </c>
+      <c r="H12" s="59"/>
       <c r="I12" s="178">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="88"/>
       <c r="K12" s="99"/>
@@ -5625,17 +5631,17 @@
     </row>
     <row r="13" spans="1:66" s="57" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="157" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B13" s="164" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D13" s="118"/>
       <c r="E13" s="194" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F13" s="174" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="G13" s="177">
         <v>1</v>
@@ -5704,17 +5710,17 @@
     </row>
     <row r="14" spans="1:66" s="57" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="157" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B14" s="164" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D14" s="118"/>
       <c r="E14" s="194" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F14" s="174" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G14" s="177">
         <v>1</v>
@@ -5783,17 +5789,17 @@
     </row>
     <row r="15" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A15" s="157" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B15" s="164" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D15" s="118"/>
       <c r="E15" s="194" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F15" s="174" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="G15" s="177">
         <v>1</v>
@@ -5862,17 +5868,17 @@
     </row>
     <row r="16" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A16" s="157" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" s="164" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D16" s="118"/>
       <c r="E16" s="194" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="F16" s="174" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="G16" s="177">
         <v>1</v>
@@ -5941,17 +5947,17 @@
     </row>
     <row r="17" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A17" s="157" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" s="164" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D17" s="118"/>
       <c r="E17" s="194" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="F17" s="174" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="G17" s="177">
         <v>1</v>
@@ -6020,17 +6026,17 @@
     </row>
     <row r="18" spans="1:205" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A18" s="157" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" s="164" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D18" s="53"/>
       <c r="E18" s="194" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F18" s="174" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G18" s="177">
         <v>1</v>
@@ -6215,17 +6221,17 @@
     </row>
     <row r="19" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A19" s="157" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B19" s="164" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D19" s="118"/>
       <c r="E19" s="194" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F19" s="174" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G19" s="177">
         <v>1</v>
@@ -6294,17 +6300,17 @@
     </row>
     <row r="20" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A20" s="157" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B20" s="164" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D20" s="118"/>
       <c r="E20" s="194" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F20" s="174" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G20" s="177">
         <v>1</v>
@@ -6372,25 +6378,26 @@
       <c r="BN20" s="99"/>
     </row>
     <row r="21" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A21" s="157">
+      <c r="A21" s="157" t="str">
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="B21" s="163" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="D21" s="118"/>
       <c r="E21" s="194" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="F21" s="174" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="G21" s="177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="59"/>
       <c r="I21" s="178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="88"/>
       <c r="K21" s="99"/>
@@ -6456,23 +6463,21 @@
         <v>1.6</v>
       </c>
       <c r="B22" s="163" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="D22" s="118"/>
       <c r="E22" s="194" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F22" s="174" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="G22" s="177">
-        <v>2</v>
-      </c>
-      <c r="H22" s="59">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H22" s="59"/>
       <c r="I22" s="178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" s="88"/>
       <c r="K22" s="99"/>
@@ -6532,609 +6537,601 @@
       <c r="BM22" s="99"/>
       <c r="BN22" s="99"/>
     </row>
-    <row r="23" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:205" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A23" s="157" t="str">
         <f t="shared" si="5"/>
         <v>1.7</v>
       </c>
       <c r="B23" s="163" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" s="118"/>
+        <v>276</v>
+      </c>
+      <c r="D23" s="53"/>
       <c r="E23" s="194" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="F23" s="174" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="G23" s="177">
-        <v>2</v>
-      </c>
-      <c r="H23" s="59">
-        <v>0.75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H23" s="59"/>
       <c r="I23" s="178">
-        <v>2</v>
-      </c>
-      <c r="J23" s="88"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="99"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="99"/>
-      <c r="AH23" s="99"/>
-      <c r="AI23" s="99"/>
-      <c r="AJ23" s="99"/>
-      <c r="AK23" s="99"/>
-      <c r="AL23" s="99"/>
-      <c r="AM23" s="99"/>
-      <c r="AN23" s="99"/>
-      <c r="AO23" s="99"/>
-      <c r="AP23" s="99"/>
-      <c r="AQ23" s="99"/>
-      <c r="AR23" s="99"/>
-      <c r="AS23" s="99"/>
-      <c r="AT23" s="99"/>
-      <c r="AU23" s="99"/>
-      <c r="AV23" s="99"/>
-      <c r="AW23" s="99"/>
-      <c r="AX23" s="99"/>
-      <c r="AY23" s="99"/>
-      <c r="AZ23" s="99"/>
-      <c r="BA23" s="99"/>
-      <c r="BB23" s="99"/>
-      <c r="BC23" s="99"/>
-      <c r="BD23" s="99"/>
-      <c r="BE23" s="99"/>
-      <c r="BF23" s="99"/>
-      <c r="BG23" s="99"/>
-      <c r="BH23" s="99"/>
-      <c r="BI23" s="99"/>
-      <c r="BJ23" s="99"/>
-      <c r="BK23" s="99"/>
-      <c r="BL23" s="99"/>
-      <c r="BM23" s="99"/>
-      <c r="BN23" s="99"/>
-    </row>
-    <row r="24" spans="1:205" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="J23" s="200"/>
+      <c r="K23" s="201"/>
+      <c r="L23" s="201"/>
+      <c r="M23" s="201"/>
+      <c r="N23" s="201"/>
+      <c r="O23" s="201"/>
+      <c r="P23" s="201"/>
+      <c r="Q23" s="201"/>
+      <c r="R23" s="201"/>
+      <c r="S23" s="201"/>
+      <c r="T23" s="201"/>
+      <c r="U23" s="201"/>
+      <c r="V23" s="201"/>
+      <c r="W23" s="201"/>
+      <c r="X23" s="201"/>
+      <c r="Y23" s="201"/>
+      <c r="Z23" s="201"/>
+      <c r="AA23" s="201"/>
+      <c r="AB23" s="201"/>
+      <c r="AC23" s="201"/>
+      <c r="AD23" s="201"/>
+      <c r="AE23" s="201"/>
+      <c r="AF23" s="201"/>
+      <c r="AG23" s="201"/>
+      <c r="AH23" s="201"/>
+      <c r="AI23" s="201"/>
+      <c r="AJ23" s="201"/>
+      <c r="AK23" s="201"/>
+      <c r="AL23" s="201"/>
+      <c r="AM23" s="201"/>
+      <c r="AN23" s="201"/>
+      <c r="AO23" s="201"/>
+      <c r="AP23" s="201"/>
+      <c r="AQ23" s="201"/>
+      <c r="AR23" s="201"/>
+      <c r="AS23" s="201"/>
+      <c r="AT23" s="201"/>
+      <c r="AU23" s="201"/>
+      <c r="AV23" s="201"/>
+      <c r="AW23" s="201"/>
+      <c r="AX23" s="201"/>
+      <c r="AY23" s="201"/>
+      <c r="AZ23" s="201"/>
+      <c r="BA23" s="201"/>
+      <c r="BB23" s="201"/>
+      <c r="BC23" s="201"/>
+      <c r="BD23" s="201"/>
+      <c r="BE23" s="201"/>
+      <c r="BF23" s="201"/>
+      <c r="BG23" s="201"/>
+      <c r="BH23" s="201"/>
+      <c r="BI23" s="201"/>
+      <c r="BJ23" s="201"/>
+      <c r="BK23" s="201"/>
+      <c r="BL23" s="201"/>
+      <c r="BM23" s="201"/>
+      <c r="BN23" s="201"/>
+      <c r="BO23" s="202"/>
+      <c r="BP23" s="202"/>
+      <c r="BQ23" s="202"/>
+      <c r="BR23" s="202"/>
+      <c r="BS23" s="202"/>
+      <c r="BT23" s="202"/>
+      <c r="BU23" s="202"/>
+      <c r="BV23" s="202"/>
+      <c r="BW23" s="202"/>
+      <c r="BX23" s="202"/>
+      <c r="BY23" s="202"/>
+      <c r="BZ23" s="202"/>
+      <c r="CA23" s="202"/>
+      <c r="CB23" s="202"/>
+      <c r="CC23" s="202"/>
+      <c r="CD23" s="202"/>
+      <c r="CE23" s="202"/>
+      <c r="CF23" s="202"/>
+      <c r="CG23" s="202"/>
+      <c r="CH23" s="202"/>
+      <c r="CI23" s="202"/>
+      <c r="CJ23" s="202"/>
+      <c r="CK23" s="202"/>
+      <c r="CL23" s="202"/>
+      <c r="CM23" s="202"/>
+      <c r="CN23" s="202"/>
+      <c r="CO23" s="202"/>
+      <c r="CP23" s="202"/>
+      <c r="CQ23" s="202"/>
+      <c r="CR23" s="202"/>
+      <c r="CS23" s="202"/>
+      <c r="CT23" s="202"/>
+      <c r="CU23" s="202"/>
+      <c r="CV23" s="202"/>
+      <c r="CW23" s="202"/>
+      <c r="CX23" s="202"/>
+      <c r="CY23" s="202"/>
+      <c r="CZ23" s="202"/>
+      <c r="DA23" s="202"/>
+      <c r="DB23" s="202"/>
+      <c r="DC23" s="202"/>
+      <c r="DD23" s="202"/>
+      <c r="DE23" s="202"/>
+      <c r="DF23" s="202"/>
+      <c r="DG23" s="202"/>
+      <c r="DH23" s="202"/>
+      <c r="DI23" s="202"/>
+      <c r="DJ23" s="202"/>
+      <c r="DK23" s="202"/>
+      <c r="DL23" s="202"/>
+      <c r="DM23" s="202"/>
+      <c r="DN23" s="202"/>
+      <c r="DO23" s="202"/>
+      <c r="DP23" s="202"/>
+      <c r="DQ23" s="202"/>
+      <c r="DR23" s="202"/>
+      <c r="DS23" s="202"/>
+      <c r="DT23" s="202"/>
+      <c r="DU23" s="202"/>
+      <c r="DV23" s="202"/>
+      <c r="DW23" s="202"/>
+      <c r="DX23" s="202"/>
+      <c r="DY23" s="202"/>
+      <c r="DZ23" s="202"/>
+      <c r="EA23" s="202"/>
+      <c r="EB23" s="202"/>
+      <c r="EC23" s="202"/>
+      <c r="ED23" s="202"/>
+      <c r="EE23" s="202"/>
+      <c r="EF23" s="202"/>
+      <c r="EG23" s="202"/>
+      <c r="EH23" s="202"/>
+      <c r="EI23" s="202"/>
+      <c r="EJ23" s="202"/>
+      <c r="EK23" s="202"/>
+      <c r="EL23" s="202"/>
+      <c r="EM23" s="202"/>
+      <c r="EN23" s="202"/>
+      <c r="EO23" s="202"/>
+      <c r="EP23" s="202"/>
+      <c r="EQ23" s="202"/>
+      <c r="ER23" s="202"/>
+      <c r="ES23" s="202"/>
+      <c r="ET23" s="202"/>
+      <c r="EU23" s="202"/>
+      <c r="EV23" s="202"/>
+      <c r="EW23" s="202"/>
+      <c r="EX23" s="202"/>
+      <c r="EY23" s="202"/>
+      <c r="EZ23" s="202"/>
+      <c r="FA23" s="202"/>
+      <c r="FB23" s="202"/>
+      <c r="FC23" s="202"/>
+      <c r="FD23" s="202"/>
+      <c r="FE23" s="202"/>
+      <c r="FF23" s="202"/>
+      <c r="FG23" s="202"/>
+      <c r="FH23" s="202"/>
+      <c r="FI23" s="202"/>
+      <c r="FJ23" s="202"/>
+      <c r="FK23" s="202"/>
+      <c r="FL23" s="202"/>
+      <c r="FM23" s="202"/>
+      <c r="FN23" s="202"/>
+      <c r="FO23" s="202"/>
+      <c r="FP23" s="202"/>
+      <c r="FQ23" s="202"/>
+      <c r="FR23" s="202"/>
+      <c r="FS23" s="202"/>
+      <c r="FT23" s="202"/>
+      <c r="FU23" s="202"/>
+      <c r="FV23" s="202"/>
+      <c r="FW23" s="202"/>
+      <c r="FX23" s="202"/>
+      <c r="FY23" s="202"/>
+      <c r="FZ23" s="202"/>
+      <c r="GA23" s="202"/>
+    </row>
+    <row r="24" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A24" s="157" t="str">
         <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
       <c r="B24" s="163" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="53"/>
+        <v>192</v>
+      </c>
+      <c r="D24" s="118"/>
       <c r="E24" s="194" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="F24" s="174" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="G24" s="177">
         <v>2</v>
       </c>
-      <c r="H24" s="59">
-        <v>0</v>
-      </c>
+      <c r="H24" s="59"/>
       <c r="I24" s="178">
         <v>2</v>
       </c>
-      <c r="J24" s="200"/>
-      <c r="K24" s="201"/>
-      <c r="L24" s="201"/>
-      <c r="M24" s="201"/>
-      <c r="N24" s="201"/>
-      <c r="O24" s="201"/>
-      <c r="P24" s="201"/>
-      <c r="Q24" s="201"/>
-      <c r="R24" s="201"/>
-      <c r="S24" s="201"/>
-      <c r="T24" s="201"/>
-      <c r="U24" s="201"/>
-      <c r="V24" s="201"/>
-      <c r="W24" s="201"/>
-      <c r="X24" s="201"/>
-      <c r="Y24" s="201"/>
-      <c r="Z24" s="201"/>
-      <c r="AA24" s="201"/>
-      <c r="AB24" s="201"/>
-      <c r="AC24" s="201"/>
-      <c r="AD24" s="201"/>
-      <c r="AE24" s="201"/>
-      <c r="AF24" s="201"/>
-      <c r="AG24" s="201"/>
-      <c r="AH24" s="201"/>
-      <c r="AI24" s="201"/>
-      <c r="AJ24" s="201"/>
-      <c r="AK24" s="201"/>
-      <c r="AL24" s="201"/>
-      <c r="AM24" s="201"/>
-      <c r="AN24" s="201"/>
-      <c r="AO24" s="201"/>
-      <c r="AP24" s="201"/>
-      <c r="AQ24" s="201"/>
-      <c r="AR24" s="201"/>
-      <c r="AS24" s="201"/>
-      <c r="AT24" s="201"/>
-      <c r="AU24" s="201"/>
-      <c r="AV24" s="201"/>
-      <c r="AW24" s="201"/>
-      <c r="AX24" s="201"/>
-      <c r="AY24" s="201"/>
-      <c r="AZ24" s="201"/>
-      <c r="BA24" s="201"/>
-      <c r="BB24" s="201"/>
-      <c r="BC24" s="201"/>
-      <c r="BD24" s="201"/>
-      <c r="BE24" s="201"/>
-      <c r="BF24" s="201"/>
-      <c r="BG24" s="201"/>
-      <c r="BH24" s="201"/>
-      <c r="BI24" s="201"/>
-      <c r="BJ24" s="201"/>
-      <c r="BK24" s="201"/>
-      <c r="BL24" s="201"/>
-      <c r="BM24" s="201"/>
-      <c r="BN24" s="201"/>
-      <c r="BO24" s="202"/>
-      <c r="BP24" s="202"/>
-      <c r="BQ24" s="202"/>
-      <c r="BR24" s="202"/>
-      <c r="BS24" s="202"/>
-      <c r="BT24" s="202"/>
-      <c r="BU24" s="202"/>
-      <c r="BV24" s="202"/>
-      <c r="BW24" s="202"/>
-      <c r="BX24" s="202"/>
-      <c r="BY24" s="202"/>
-      <c r="BZ24" s="202"/>
-      <c r="CA24" s="202"/>
-      <c r="CB24" s="202"/>
-      <c r="CC24" s="202"/>
-      <c r="CD24" s="202"/>
-      <c r="CE24" s="202"/>
-      <c r="CF24" s="202"/>
-      <c r="CG24" s="202"/>
-      <c r="CH24" s="202"/>
-      <c r="CI24" s="202"/>
-      <c r="CJ24" s="202"/>
-      <c r="CK24" s="202"/>
-      <c r="CL24" s="202"/>
-      <c r="CM24" s="202"/>
-      <c r="CN24" s="202"/>
-      <c r="CO24" s="202"/>
-      <c r="CP24" s="202"/>
-      <c r="CQ24" s="202"/>
-      <c r="CR24" s="202"/>
-      <c r="CS24" s="202"/>
-      <c r="CT24" s="202"/>
-      <c r="CU24" s="202"/>
-      <c r="CV24" s="202"/>
-      <c r="CW24" s="202"/>
-      <c r="CX24" s="202"/>
-      <c r="CY24" s="202"/>
-      <c r="CZ24" s="202"/>
-      <c r="DA24" s="202"/>
-      <c r="DB24" s="202"/>
-      <c r="DC24" s="202"/>
-      <c r="DD24" s="202"/>
-      <c r="DE24" s="202"/>
-      <c r="DF24" s="202"/>
-      <c r="DG24" s="202"/>
-      <c r="DH24" s="202"/>
-      <c r="DI24" s="202"/>
-      <c r="DJ24" s="202"/>
-      <c r="DK24" s="202"/>
-      <c r="DL24" s="202"/>
-      <c r="DM24" s="202"/>
-      <c r="DN24" s="202"/>
-      <c r="DO24" s="202"/>
-      <c r="DP24" s="202"/>
-      <c r="DQ24" s="202"/>
-      <c r="DR24" s="202"/>
-      <c r="DS24" s="202"/>
-      <c r="DT24" s="202"/>
-      <c r="DU24" s="202"/>
-      <c r="DV24" s="202"/>
-      <c r="DW24" s="202"/>
-      <c r="DX24" s="202"/>
-      <c r="DY24" s="202"/>
-      <c r="DZ24" s="202"/>
-      <c r="EA24" s="202"/>
-      <c r="EB24" s="202"/>
-      <c r="EC24" s="202"/>
-      <c r="ED24" s="202"/>
-      <c r="EE24" s="202"/>
-      <c r="EF24" s="202"/>
-      <c r="EG24" s="202"/>
-      <c r="EH24" s="202"/>
-      <c r="EI24" s="202"/>
-      <c r="EJ24" s="202"/>
-      <c r="EK24" s="202"/>
-      <c r="EL24" s="202"/>
-      <c r="EM24" s="202"/>
-      <c r="EN24" s="202"/>
-      <c r="EO24" s="202"/>
-      <c r="EP24" s="202"/>
-      <c r="EQ24" s="202"/>
-      <c r="ER24" s="202"/>
-      <c r="ES24" s="202"/>
-      <c r="ET24" s="202"/>
-      <c r="EU24" s="202"/>
-      <c r="EV24" s="202"/>
-      <c r="EW24" s="202"/>
-      <c r="EX24" s="202"/>
-      <c r="EY24" s="202"/>
-      <c r="EZ24" s="202"/>
-      <c r="FA24" s="202"/>
-      <c r="FB24" s="202"/>
-      <c r="FC24" s="202"/>
-      <c r="FD24" s="202"/>
-      <c r="FE24" s="202"/>
-      <c r="FF24" s="202"/>
-      <c r="FG24" s="202"/>
-      <c r="FH24" s="202"/>
-      <c r="FI24" s="202"/>
-      <c r="FJ24" s="202"/>
-      <c r="FK24" s="202"/>
-      <c r="FL24" s="202"/>
-      <c r="FM24" s="202"/>
-      <c r="FN24" s="202"/>
-      <c r="FO24" s="202"/>
-      <c r="FP24" s="202"/>
-      <c r="FQ24" s="202"/>
-      <c r="FR24" s="202"/>
-      <c r="FS24" s="202"/>
-      <c r="FT24" s="202"/>
-      <c r="FU24" s="202"/>
-      <c r="FV24" s="202"/>
-      <c r="FW24" s="202"/>
-      <c r="FX24" s="202"/>
-      <c r="FY24" s="202"/>
-      <c r="FZ24" s="202"/>
-      <c r="GA24" s="202"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="99"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="99"/>
+      <c r="AN24" s="99"/>
+      <c r="AO24" s="99"/>
+      <c r="AP24" s="99"/>
+      <c r="AQ24" s="99"/>
+      <c r="AR24" s="99"/>
+      <c r="AS24" s="99"/>
+      <c r="AT24" s="99"/>
+      <c r="AU24" s="99"/>
+      <c r="AV24" s="99"/>
+      <c r="AW24" s="99"/>
+      <c r="AX24" s="99"/>
+      <c r="AY24" s="99"/>
+      <c r="AZ24" s="99"/>
+      <c r="BA24" s="99"/>
+      <c r="BB24" s="99"/>
+      <c r="BC24" s="99"/>
+      <c r="BD24" s="99"/>
+      <c r="BE24" s="99"/>
+      <c r="BF24" s="99"/>
+      <c r="BG24" s="99"/>
+      <c r="BH24" s="99"/>
+      <c r="BI24" s="99"/>
+      <c r="BJ24" s="99"/>
+      <c r="BK24" s="99"/>
+      <c r="BL24" s="99"/>
+      <c r="BM24" s="99"/>
+      <c r="BN24" s="99"/>
     </row>
     <row r="25" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A25" s="157" t="str">
-        <f t="shared" si="5"/>
-        <v>1.9</v>
-      </c>
-      <c r="B25" s="163" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25" s="118"/>
-      <c r="E25" s="194" t="s">
-        <v>285</v>
-      </c>
-      <c r="F25" s="174" t="s">
-        <v>251</v>
-      </c>
-      <c r="G25" s="177">
-        <v>2</v>
-      </c>
-      <c r="H25" s="59">
-        <v>0</v>
-      </c>
-      <c r="I25" s="178">
-        <v>2</v>
-      </c>
-      <c r="J25" s="88"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="99"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="99"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="99"/>
-      <c r="Y25" s="99"/>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="99"/>
-      <c r="AC25" s="99"/>
-      <c r="AD25" s="99"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="99"/>
-      <c r="AG25" s="99"/>
-      <c r="AH25" s="99"/>
-      <c r="AI25" s="99"/>
-      <c r="AJ25" s="99"/>
-      <c r="AK25" s="99"/>
-      <c r="AL25" s="99"/>
-      <c r="AM25" s="99"/>
-      <c r="AN25" s="99"/>
-      <c r="AO25" s="99"/>
-      <c r="AP25" s="99"/>
-      <c r="AQ25" s="99"/>
-      <c r="AR25" s="99"/>
-      <c r="AS25" s="99"/>
-      <c r="AT25" s="99"/>
-      <c r="AU25" s="99"/>
-      <c r="AV25" s="99"/>
-      <c r="AW25" s="99"/>
-      <c r="AX25" s="99"/>
-      <c r="AY25" s="99"/>
-      <c r="AZ25" s="99"/>
-      <c r="BA25" s="99"/>
-      <c r="BB25" s="99"/>
-      <c r="BC25" s="99"/>
-      <c r="BD25" s="99"/>
-      <c r="BE25" s="99"/>
-      <c r="BF25" s="99"/>
-      <c r="BG25" s="99"/>
-      <c r="BH25" s="99"/>
-      <c r="BI25" s="99"/>
-      <c r="BJ25" s="99"/>
-      <c r="BK25" s="99"/>
-      <c r="BL25" s="99"/>
-      <c r="BM25" s="99"/>
-      <c r="BN25" s="99"/>
-    </row>
-    <row r="26" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A26" s="158" t="str">
+      <c r="A25" s="158" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B26" s="165" t="s">
-        <v>201</v>
+      <c r="B25" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" s="118"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="169" t="str">
+        <f t="shared" ref="F25:F57" si="6">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="179" t="str">
+        <f t="shared" ref="I25:I57" si="7">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J25" s="199"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="101"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="101"/>
+      <c r="AA25" s="101"/>
+      <c r="AB25" s="101"/>
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="101"/>
+      <c r="AE25" s="101"/>
+      <c r="AF25" s="101"/>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="101"/>
+      <c r="AI25" s="101"/>
+      <c r="AJ25" s="101"/>
+      <c r="AK25" s="101"/>
+      <c r="AL25" s="101"/>
+      <c r="AM25" s="101"/>
+      <c r="AN25" s="101"/>
+      <c r="AO25" s="101"/>
+      <c r="AP25" s="101"/>
+      <c r="AQ25" s="101"/>
+      <c r="AR25" s="101"/>
+      <c r="AS25" s="101"/>
+      <c r="AT25" s="101"/>
+      <c r="AU25" s="101"/>
+      <c r="AV25" s="101"/>
+      <c r="AW25" s="101"/>
+      <c r="AX25" s="101"/>
+      <c r="AY25" s="101"/>
+      <c r="AZ25" s="101"/>
+      <c r="BA25" s="101"/>
+      <c r="BB25" s="101"/>
+      <c r="BC25" s="101"/>
+      <c r="BD25" s="101"/>
+      <c r="BE25" s="101"/>
+      <c r="BF25" s="101"/>
+      <c r="BG25" s="101"/>
+      <c r="BH25" s="101"/>
+      <c r="BI25" s="101"/>
+      <c r="BJ25" s="101"/>
+      <c r="BK25" s="101"/>
+      <c r="BL25" s="101"/>
+      <c r="BM25" s="101"/>
+      <c r="BN25" s="101"/>
+      <c r="BO25" s="52"/>
+      <c r="BP25" s="52"/>
+      <c r="BQ25" s="52"/>
+      <c r="BR25" s="52"/>
+      <c r="BS25" s="52"/>
+      <c r="BT25" s="52"/>
+      <c r="BU25" s="52"/>
+      <c r="BV25" s="52"/>
+      <c r="BW25" s="52"/>
+      <c r="BX25" s="52"/>
+      <c r="BY25" s="52"/>
+      <c r="BZ25" s="52"/>
+      <c r="CA25" s="52"/>
+      <c r="CB25" s="52"/>
+      <c r="CC25" s="52"/>
+      <c r="CD25" s="52"/>
+      <c r="CE25" s="52"/>
+      <c r="CF25" s="52"/>
+      <c r="CG25" s="52"/>
+      <c r="CH25" s="52"/>
+      <c r="CI25" s="52"/>
+      <c r="CJ25" s="52"/>
+      <c r="CK25" s="52"/>
+      <c r="CL25" s="52"/>
+      <c r="CM25" s="52"/>
+      <c r="CN25" s="52"/>
+      <c r="CO25" s="52"/>
+      <c r="CP25" s="52"/>
+      <c r="CQ25" s="52"/>
+      <c r="CR25" s="52"/>
+      <c r="CS25" s="52"/>
+      <c r="CT25" s="52"/>
+      <c r="CU25" s="52"/>
+      <c r="CV25" s="52"/>
+      <c r="CW25" s="52"/>
+      <c r="CX25" s="52"/>
+      <c r="CY25" s="52"/>
+      <c r="CZ25" s="52"/>
+      <c r="DA25" s="52"/>
+      <c r="DB25" s="52"/>
+      <c r="DC25" s="52"/>
+      <c r="DD25" s="52"/>
+      <c r="DE25" s="52"/>
+      <c r="DF25" s="52"/>
+      <c r="DG25" s="52"/>
+      <c r="DH25" s="52"/>
+      <c r="DI25" s="52"/>
+      <c r="DJ25" s="52"/>
+      <c r="DK25" s="52"/>
+      <c r="DL25" s="52"/>
+      <c r="DM25" s="52"/>
+      <c r="DN25" s="52"/>
+      <c r="DO25" s="52"/>
+      <c r="DP25" s="52"/>
+      <c r="DQ25" s="52"/>
+      <c r="DR25" s="52"/>
+      <c r="DS25" s="52"/>
+      <c r="DT25" s="52"/>
+      <c r="DU25" s="52"/>
+      <c r="DV25" s="52"/>
+      <c r="DW25" s="52"/>
+      <c r="DX25" s="52"/>
+      <c r="DY25" s="52"/>
+      <c r="DZ25" s="52"/>
+      <c r="EA25" s="52"/>
+      <c r="EB25" s="52"/>
+      <c r="EC25" s="52"/>
+      <c r="ED25" s="52"/>
+      <c r="EE25" s="52"/>
+      <c r="EF25" s="52"/>
+      <c r="EG25" s="52"/>
+      <c r="EH25" s="52"/>
+      <c r="EI25" s="52"/>
+      <c r="EJ25" s="52"/>
+      <c r="EK25" s="52"/>
+      <c r="EL25" s="52"/>
+      <c r="EM25" s="52"/>
+      <c r="EN25" s="52"/>
+      <c r="EO25" s="52"/>
+      <c r="EP25" s="52"/>
+      <c r="EQ25" s="52"/>
+      <c r="ER25" s="52"/>
+      <c r="ES25" s="52"/>
+      <c r="ET25" s="52"/>
+      <c r="EU25" s="52"/>
+      <c r="EV25" s="52"/>
+      <c r="EW25" s="52"/>
+      <c r="EX25" s="52"/>
+      <c r="EY25" s="52"/>
+      <c r="EZ25" s="52"/>
+      <c r="FA25" s="52"/>
+      <c r="FB25" s="52"/>
+      <c r="FC25" s="52"/>
+      <c r="FD25" s="52"/>
+      <c r="FE25" s="52"/>
+      <c r="FF25" s="52"/>
+      <c r="FG25" s="52"/>
+      <c r="FH25" s="52"/>
+      <c r="FI25" s="52"/>
+      <c r="FJ25" s="52"/>
+      <c r="FK25" s="52"/>
+      <c r="FL25" s="52"/>
+      <c r="FM25" s="52"/>
+      <c r="FN25" s="52"/>
+      <c r="FO25" s="52"/>
+      <c r="FP25" s="52"/>
+      <c r="FQ25" s="52"/>
+      <c r="FR25" s="52"/>
+      <c r="FS25" s="52"/>
+      <c r="FT25" s="52"/>
+      <c r="FU25" s="52"/>
+      <c r="FV25" s="52"/>
+      <c r="FW25" s="52"/>
+      <c r="FX25" s="52"/>
+      <c r="FY25" s="52"/>
+      <c r="FZ25" s="52"/>
+      <c r="GA25" s="52"/>
+      <c r="GB25" s="52"/>
+      <c r="GC25" s="52"/>
+      <c r="GD25" s="52"/>
+      <c r="GE25" s="52"/>
+      <c r="GF25" s="52"/>
+      <c r="GG25" s="52"/>
+      <c r="GH25" s="52"/>
+      <c r="GI25" s="52"/>
+      <c r="GJ25" s="52"/>
+      <c r="GK25" s="52"/>
+      <c r="GL25" s="52"/>
+      <c r="GM25" s="52"/>
+      <c r="GN25" s="52"/>
+      <c r="GO25" s="52"/>
+      <c r="GP25" s="52"/>
+      <c r="GQ25" s="52"/>
+      <c r="GR25" s="52"/>
+      <c r="GS25" s="52"/>
+      <c r="GT25" s="52"/>
+      <c r="GU25" s="52"/>
+      <c r="GV25" s="52"/>
+      <c r="GW25" s="52"/>
+    </row>
+    <row r="26" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A26" s="157" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.1</v>
+      </c>
+      <c r="B26" s="163" t="s">
+        <v>263</v>
       </c>
       <c r="D26" s="118"/>
-      <c r="E26" s="198"/>
-      <c r="F26" s="169" t="str">
-        <f t="shared" ref="F26:F58" si="6">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="179" t="str">
-        <f t="shared" ref="I26:I58" si="7">IF(OR(F26=0,E26=0)," - ",NETWORKDAYS(E26,F26))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J26" s="199"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="101"/>
-      <c r="AB26" s="101"/>
-      <c r="AC26" s="101"/>
-      <c r="AD26" s="101"/>
-      <c r="AE26" s="101"/>
-      <c r="AF26" s="101"/>
-      <c r="AG26" s="101"/>
-      <c r="AH26" s="101"/>
-      <c r="AI26" s="101"/>
-      <c r="AJ26" s="101"/>
-      <c r="AK26" s="101"/>
-      <c r="AL26" s="101"/>
-      <c r="AM26" s="101"/>
-      <c r="AN26" s="101"/>
-      <c r="AO26" s="101"/>
-      <c r="AP26" s="101"/>
-      <c r="AQ26" s="101"/>
-      <c r="AR26" s="101"/>
-      <c r="AS26" s="101"/>
-      <c r="AT26" s="101"/>
-      <c r="AU26" s="101"/>
-      <c r="AV26" s="101"/>
-      <c r="AW26" s="101"/>
-      <c r="AX26" s="101"/>
-      <c r="AY26" s="101"/>
-      <c r="AZ26" s="101"/>
-      <c r="BA26" s="101"/>
-      <c r="BB26" s="101"/>
-      <c r="BC26" s="101"/>
-      <c r="BD26" s="101"/>
-      <c r="BE26" s="101"/>
-      <c r="BF26" s="101"/>
-      <c r="BG26" s="101"/>
-      <c r="BH26" s="101"/>
-      <c r="BI26" s="101"/>
-      <c r="BJ26" s="101"/>
-      <c r="BK26" s="101"/>
-      <c r="BL26" s="101"/>
-      <c r="BM26" s="101"/>
-      <c r="BN26" s="101"/>
-      <c r="BO26" s="52"/>
-      <c r="BP26" s="52"/>
-      <c r="BQ26" s="52"/>
-      <c r="BR26" s="52"/>
-      <c r="BS26" s="52"/>
-      <c r="BT26" s="52"/>
-      <c r="BU26" s="52"/>
-      <c r="BV26" s="52"/>
-      <c r="BW26" s="52"/>
-      <c r="BX26" s="52"/>
-      <c r="BY26" s="52"/>
-      <c r="BZ26" s="52"/>
-      <c r="CA26" s="52"/>
-      <c r="CB26" s="52"/>
-      <c r="CC26" s="52"/>
-      <c r="CD26" s="52"/>
-      <c r="CE26" s="52"/>
-      <c r="CF26" s="52"/>
-      <c r="CG26" s="52"/>
-      <c r="CH26" s="52"/>
-      <c r="CI26" s="52"/>
-      <c r="CJ26" s="52"/>
-      <c r="CK26" s="52"/>
-      <c r="CL26" s="52"/>
-      <c r="CM26" s="52"/>
-      <c r="CN26" s="52"/>
-      <c r="CO26" s="52"/>
-      <c r="CP26" s="52"/>
-      <c r="CQ26" s="52"/>
-      <c r="CR26" s="52"/>
-      <c r="CS26" s="52"/>
-      <c r="CT26" s="52"/>
-      <c r="CU26" s="52"/>
-      <c r="CV26" s="52"/>
-      <c r="CW26" s="52"/>
-      <c r="CX26" s="52"/>
-      <c r="CY26" s="52"/>
-      <c r="CZ26" s="52"/>
-      <c r="DA26" s="52"/>
-      <c r="DB26" s="52"/>
-      <c r="DC26" s="52"/>
-      <c r="DD26" s="52"/>
-      <c r="DE26" s="52"/>
-      <c r="DF26" s="52"/>
-      <c r="DG26" s="52"/>
-      <c r="DH26" s="52"/>
-      <c r="DI26" s="52"/>
-      <c r="DJ26" s="52"/>
-      <c r="DK26" s="52"/>
-      <c r="DL26" s="52"/>
-      <c r="DM26" s="52"/>
-      <c r="DN26" s="52"/>
-      <c r="DO26" s="52"/>
-      <c r="DP26" s="52"/>
-      <c r="DQ26" s="52"/>
-      <c r="DR26" s="52"/>
-      <c r="DS26" s="52"/>
-      <c r="DT26" s="52"/>
-      <c r="DU26" s="52"/>
-      <c r="DV26" s="52"/>
-      <c r="DW26" s="52"/>
-      <c r="DX26" s="52"/>
-      <c r="DY26" s="52"/>
-      <c r="DZ26" s="52"/>
-      <c r="EA26" s="52"/>
-      <c r="EB26" s="52"/>
-      <c r="EC26" s="52"/>
-      <c r="ED26" s="52"/>
-      <c r="EE26" s="52"/>
-      <c r="EF26" s="52"/>
-      <c r="EG26" s="52"/>
-      <c r="EH26" s="52"/>
-      <c r="EI26" s="52"/>
-      <c r="EJ26" s="52"/>
-      <c r="EK26" s="52"/>
-      <c r="EL26" s="52"/>
-      <c r="EM26" s="52"/>
-      <c r="EN26" s="52"/>
-      <c r="EO26" s="52"/>
-      <c r="EP26" s="52"/>
-      <c r="EQ26" s="52"/>
-      <c r="ER26" s="52"/>
-      <c r="ES26" s="52"/>
-      <c r="ET26" s="52"/>
-      <c r="EU26" s="52"/>
-      <c r="EV26" s="52"/>
-      <c r="EW26" s="52"/>
-      <c r="EX26" s="52"/>
-      <c r="EY26" s="52"/>
-      <c r="EZ26" s="52"/>
-      <c r="FA26" s="52"/>
-      <c r="FB26" s="52"/>
-      <c r="FC26" s="52"/>
-      <c r="FD26" s="52"/>
-      <c r="FE26" s="52"/>
-      <c r="FF26" s="52"/>
-      <c r="FG26" s="52"/>
-      <c r="FH26" s="52"/>
-      <c r="FI26" s="52"/>
-      <c r="FJ26" s="52"/>
-      <c r="FK26" s="52"/>
-      <c r="FL26" s="52"/>
-      <c r="FM26" s="52"/>
-      <c r="FN26" s="52"/>
-      <c r="FO26" s="52"/>
-      <c r="FP26" s="52"/>
-      <c r="FQ26" s="52"/>
-      <c r="FR26" s="52"/>
-      <c r="FS26" s="52"/>
-      <c r="FT26" s="52"/>
-      <c r="FU26" s="52"/>
-      <c r="FV26" s="52"/>
-      <c r="FW26" s="52"/>
-      <c r="FX26" s="52"/>
-      <c r="FY26" s="52"/>
-      <c r="FZ26" s="52"/>
-      <c r="GA26" s="52"/>
-      <c r="GB26" s="52"/>
-      <c r="GC26" s="52"/>
-      <c r="GD26" s="52"/>
-      <c r="GE26" s="52"/>
-      <c r="GF26" s="52"/>
-      <c r="GG26" s="52"/>
-      <c r="GH26" s="52"/>
-      <c r="GI26" s="52"/>
-      <c r="GJ26" s="52"/>
-      <c r="GK26" s="52"/>
-      <c r="GL26" s="52"/>
-      <c r="GM26" s="52"/>
-      <c r="GN26" s="52"/>
-      <c r="GO26" s="52"/>
-      <c r="GP26" s="52"/>
-      <c r="GQ26" s="52"/>
-      <c r="GR26" s="52"/>
-      <c r="GS26" s="52"/>
-      <c r="GT26" s="52"/>
-      <c r="GU26" s="52"/>
-      <c r="GV26" s="52"/>
-      <c r="GW26" s="52"/>
+      <c r="E26" s="194" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" s="174" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="177">
+        <v>1</v>
+      </c>
+      <c r="H26" s="59"/>
+      <c r="I26" s="178">
+        <v>1</v>
+      </c>
+      <c r="J26" s="88"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="99"/>
+      <c r="AC26" s="99"/>
+      <c r="AD26" s="99"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="99"/>
+      <c r="AG26" s="99"/>
+      <c r="AH26" s="99"/>
+      <c r="AI26" s="99"/>
+      <c r="AJ26" s="99"/>
+      <c r="AK26" s="99"/>
+      <c r="AL26" s="99"/>
+      <c r="AM26" s="99"/>
+      <c r="AN26" s="99"/>
+      <c r="AO26" s="99"/>
+      <c r="AP26" s="99"/>
+      <c r="AQ26" s="99"/>
+      <c r="AR26" s="99"/>
+      <c r="AS26" s="99"/>
+      <c r="AT26" s="99"/>
+      <c r="AU26" s="99"/>
+      <c r="AV26" s="99"/>
+      <c r="AW26" s="99"/>
+      <c r="AX26" s="99"/>
+      <c r="AY26" s="99"/>
+      <c r="AZ26" s="99"/>
+      <c r="BA26" s="99"/>
+      <c r="BB26" s="99"/>
+      <c r="BC26" s="99"/>
+      <c r="BD26" s="99"/>
+      <c r="BE26" s="99"/>
+      <c r="BF26" s="99"/>
+      <c r="BG26" s="99"/>
+      <c r="BH26" s="99"/>
+      <c r="BI26" s="99"/>
+      <c r="BJ26" s="99"/>
+      <c r="BK26" s="99"/>
+      <c r="BL26" s="99"/>
+      <c r="BM26" s="99"/>
+      <c r="BN26" s="99"/>
     </row>
     <row r="27" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A27" s="157" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="B27" s="163" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="D27" s="118"/>
       <c r="E27" s="194" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F27" s="174" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G27" s="177">
-        <v>1</v>
-      </c>
-      <c r="H27" s="59">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H27" s="59"/>
       <c r="I27" s="178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27" s="88"/>
       <c r="K27" s="99"/>
@@ -7194,29 +7191,26 @@
       <c r="BM27" s="99"/>
       <c r="BN27" s="99"/>
     </row>
-    <row r="28" spans="1:205" s="57" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A28" s="157" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
-      </c>
-      <c r="B28" s="163" t="s">
-        <v>202</v>
+    <row r="28" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A28" s="157" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="164" t="s">
+        <v>184</v>
       </c>
       <c r="D28" s="118"/>
       <c r="E28" s="194" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F28" s="174" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="G28" s="177">
-        <v>4</v>
-      </c>
-      <c r="H28" s="59">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H28" s="59"/>
       <c r="I28" s="178">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28" s="88"/>
       <c r="K28" s="99"/>
@@ -7276,323 +7270,317 @@
       <c r="BM28" s="99"/>
       <c r="BN28" s="99"/>
     </row>
-    <row r="29" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:205" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A29" s="157" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B29" s="164" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="118"/>
+        <v>185</v>
+      </c>
+      <c r="D29" s="53"/>
       <c r="E29" s="194" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F29" s="174" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G29" s="177">
         <v>1</v>
       </c>
-      <c r="H29" s="59">
-        <v>0</v>
-      </c>
+      <c r="H29" s="59"/>
       <c r="I29" s="178">
         <v>1</v>
       </c>
-      <c r="J29" s="88"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="99"/>
-      <c r="U29" s="99"/>
-      <c r="V29" s="99"/>
-      <c r="W29" s="99"/>
-      <c r="X29" s="99"/>
-      <c r="Y29" s="99"/>
-      <c r="Z29" s="99"/>
-      <c r="AA29" s="99"/>
-      <c r="AB29" s="99"/>
-      <c r="AC29" s="99"/>
-      <c r="AD29" s="99"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="99"/>
-      <c r="AH29" s="99"/>
-      <c r="AI29" s="99"/>
-      <c r="AJ29" s="99"/>
-      <c r="AK29" s="99"/>
-      <c r="AL29" s="99"/>
-      <c r="AM29" s="99"/>
-      <c r="AN29" s="99"/>
-      <c r="AO29" s="99"/>
-      <c r="AP29" s="99"/>
-      <c r="AQ29" s="99"/>
-      <c r="AR29" s="99"/>
-      <c r="AS29" s="99"/>
-      <c r="AT29" s="99"/>
-      <c r="AU29" s="99"/>
-      <c r="AV29" s="99"/>
-      <c r="AW29" s="99"/>
-      <c r="AX29" s="99"/>
-      <c r="AY29" s="99"/>
-      <c r="AZ29" s="99"/>
-      <c r="BA29" s="99"/>
-      <c r="BB29" s="99"/>
-      <c r="BC29" s="99"/>
-      <c r="BD29" s="99"/>
-      <c r="BE29" s="99"/>
-      <c r="BF29" s="99"/>
-      <c r="BG29" s="99"/>
-      <c r="BH29" s="99"/>
-      <c r="BI29" s="99"/>
-      <c r="BJ29" s="99"/>
-      <c r="BK29" s="99"/>
-      <c r="BL29" s="99"/>
-      <c r="BM29" s="99"/>
-      <c r="BN29" s="99"/>
-    </row>
-    <row r="30" spans="1:205" s="52" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="J29" s="200"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="201"/>
+      <c r="M29" s="201"/>
+      <c r="N29" s="201"/>
+      <c r="O29" s="201"/>
+      <c r="P29" s="201"/>
+      <c r="Q29" s="201"/>
+      <c r="R29" s="201"/>
+      <c r="S29" s="201"/>
+      <c r="T29" s="201"/>
+      <c r="U29" s="201"/>
+      <c r="V29" s="201"/>
+      <c r="W29" s="201"/>
+      <c r="X29" s="201"/>
+      <c r="Y29" s="201"/>
+      <c r="Z29" s="201"/>
+      <c r="AA29" s="201"/>
+      <c r="AB29" s="201"/>
+      <c r="AC29" s="201"/>
+      <c r="AD29" s="201"/>
+      <c r="AE29" s="201"/>
+      <c r="AF29" s="201"/>
+      <c r="AG29" s="201"/>
+      <c r="AH29" s="201"/>
+      <c r="AI29" s="201"/>
+      <c r="AJ29" s="201"/>
+      <c r="AK29" s="201"/>
+      <c r="AL29" s="201"/>
+      <c r="AM29" s="201"/>
+      <c r="AN29" s="201"/>
+      <c r="AO29" s="201"/>
+      <c r="AP29" s="201"/>
+      <c r="AQ29" s="201"/>
+      <c r="AR29" s="201"/>
+      <c r="AS29" s="201"/>
+      <c r="AT29" s="201"/>
+      <c r="AU29" s="201"/>
+      <c r="AV29" s="201"/>
+      <c r="AW29" s="201"/>
+      <c r="AX29" s="201"/>
+      <c r="AY29" s="201"/>
+      <c r="AZ29" s="201"/>
+      <c r="BA29" s="201"/>
+      <c r="BB29" s="201"/>
+      <c r="BC29" s="201"/>
+      <c r="BD29" s="201"/>
+      <c r="BE29" s="201"/>
+      <c r="BF29" s="201"/>
+      <c r="BG29" s="201"/>
+      <c r="BH29" s="201"/>
+      <c r="BI29" s="201"/>
+      <c r="BJ29" s="201"/>
+      <c r="BK29" s="201"/>
+      <c r="BL29" s="201"/>
+      <c r="BM29" s="201"/>
+      <c r="BN29" s="201"/>
+      <c r="BO29" s="202"/>
+      <c r="BP29" s="202"/>
+      <c r="BQ29" s="202"/>
+      <c r="BR29" s="202"/>
+      <c r="BS29" s="202"/>
+      <c r="BT29" s="202"/>
+      <c r="BU29" s="202"/>
+      <c r="BV29" s="202"/>
+      <c r="BW29" s="202"/>
+      <c r="BX29" s="202"/>
+      <c r="BY29" s="202"/>
+      <c r="BZ29" s="202"/>
+      <c r="CA29" s="202"/>
+      <c r="CB29" s="202"/>
+      <c r="CC29" s="202"/>
+      <c r="CD29" s="202"/>
+      <c r="CE29" s="202"/>
+      <c r="CF29" s="202"/>
+      <c r="CG29" s="202"/>
+      <c r="CH29" s="202"/>
+      <c r="CI29" s="202"/>
+      <c r="CJ29" s="202"/>
+      <c r="CK29" s="202"/>
+      <c r="CL29" s="202"/>
+      <c r="CM29" s="202"/>
+      <c r="CN29" s="202"/>
+      <c r="CO29" s="202"/>
+      <c r="CP29" s="202"/>
+      <c r="CQ29" s="202"/>
+      <c r="CR29" s="202"/>
+      <c r="CS29" s="202"/>
+      <c r="CT29" s="202"/>
+      <c r="CU29" s="202"/>
+      <c r="CV29" s="202"/>
+      <c r="CW29" s="202"/>
+      <c r="CX29" s="202"/>
+      <c r="CY29" s="202"/>
+      <c r="CZ29" s="202"/>
+      <c r="DA29" s="202"/>
+      <c r="DB29" s="202"/>
+      <c r="DC29" s="202"/>
+      <c r="DD29" s="202"/>
+      <c r="DE29" s="202"/>
+      <c r="DF29" s="202"/>
+      <c r="DG29" s="202"/>
+      <c r="DH29" s="202"/>
+      <c r="DI29" s="202"/>
+      <c r="DJ29" s="202"/>
+      <c r="DK29" s="202"/>
+      <c r="DL29" s="202"/>
+      <c r="DM29" s="202"/>
+      <c r="DN29" s="202"/>
+      <c r="DO29" s="202"/>
+      <c r="DP29" s="202"/>
+      <c r="DQ29" s="202"/>
+      <c r="DR29" s="202"/>
+      <c r="DS29" s="202"/>
+      <c r="DT29" s="202"/>
+      <c r="DU29" s="202"/>
+      <c r="DV29" s="202"/>
+      <c r="DW29" s="202"/>
+      <c r="DX29" s="202"/>
+      <c r="DY29" s="202"/>
+      <c r="DZ29" s="202"/>
+      <c r="EA29" s="202"/>
+      <c r="EB29" s="202"/>
+      <c r="EC29" s="202"/>
+      <c r="ED29" s="202"/>
+      <c r="EE29" s="202"/>
+      <c r="EF29" s="202"/>
+      <c r="EG29" s="202"/>
+      <c r="EH29" s="202"/>
+      <c r="EI29" s="202"/>
+      <c r="EJ29" s="202"/>
+      <c r="EK29" s="202"/>
+      <c r="EL29" s="202"/>
+      <c r="EM29" s="202"/>
+      <c r="EN29" s="202"/>
+      <c r="EO29" s="202"/>
+      <c r="EP29" s="202"/>
+      <c r="EQ29" s="202"/>
+      <c r="ER29" s="202"/>
+      <c r="ES29" s="202"/>
+      <c r="ET29" s="202"/>
+      <c r="EU29" s="202"/>
+      <c r="EV29" s="202"/>
+      <c r="EW29" s="202"/>
+      <c r="EX29" s="202"/>
+      <c r="EY29" s="202"/>
+      <c r="EZ29" s="202"/>
+      <c r="FA29" s="202"/>
+      <c r="FB29" s="202"/>
+      <c r="FC29" s="202"/>
+      <c r="FD29" s="202"/>
+      <c r="FE29" s="202"/>
+      <c r="FF29" s="202"/>
+      <c r="FG29" s="202"/>
+      <c r="FH29" s="202"/>
+      <c r="FI29" s="202"/>
+      <c r="FJ29" s="202"/>
+      <c r="FK29" s="202"/>
+      <c r="FL29" s="202"/>
+      <c r="FM29" s="202"/>
+      <c r="FN29" s="202"/>
+      <c r="FO29" s="202"/>
+      <c r="FP29" s="202"/>
+      <c r="FQ29" s="202"/>
+      <c r="FR29" s="202"/>
+      <c r="FS29" s="202"/>
+      <c r="FT29" s="202"/>
+      <c r="FU29" s="202"/>
+      <c r="FV29" s="202"/>
+      <c r="FW29" s="202"/>
+      <c r="FX29" s="202"/>
+      <c r="FY29" s="202"/>
+      <c r="FZ29" s="202"/>
+      <c r="GA29" s="202"/>
+      <c r="GB29" s="202"/>
+      <c r="GC29" s="202"/>
+      <c r="GD29" s="202"/>
+      <c r="GE29" s="202"/>
+      <c r="GF29" s="202"/>
+      <c r="GG29" s="202"/>
+      <c r="GH29" s="202"/>
+      <c r="GI29" s="202"/>
+      <c r="GJ29" s="202"/>
+      <c r="GK29" s="202"/>
+      <c r="GL29" s="202"/>
+      <c r="GM29" s="202"/>
+      <c r="GN29" s="202"/>
+      <c r="GO29" s="202"/>
+      <c r="GP29" s="202"/>
+      <c r="GQ29" s="202"/>
+      <c r="GR29" s="202"/>
+      <c r="GS29" s="202"/>
+    </row>
+    <row r="30" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A30" s="157" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B30" s="164" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="53"/>
+        <v>186</v>
+      </c>
+      <c r="D30" s="118"/>
       <c r="E30" s="194" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F30" s="174" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G30" s="177">
         <v>1</v>
       </c>
-      <c r="H30" s="59">
-        <v>0</v>
-      </c>
+      <c r="H30" s="59"/>
       <c r="I30" s="178">
         <v>1</v>
       </c>
-      <c r="J30" s="200"/>
-      <c r="K30" s="201"/>
-      <c r="L30" s="201"/>
-      <c r="M30" s="201"/>
-      <c r="N30" s="201"/>
-      <c r="O30" s="201"/>
-      <c r="P30" s="201"/>
-      <c r="Q30" s="201"/>
-      <c r="R30" s="201"/>
-      <c r="S30" s="201"/>
-      <c r="T30" s="201"/>
-      <c r="U30" s="201"/>
-      <c r="V30" s="201"/>
-      <c r="W30" s="201"/>
-      <c r="X30" s="201"/>
-      <c r="Y30" s="201"/>
-      <c r="Z30" s="201"/>
-      <c r="AA30" s="201"/>
-      <c r="AB30" s="201"/>
-      <c r="AC30" s="201"/>
-      <c r="AD30" s="201"/>
-      <c r="AE30" s="201"/>
-      <c r="AF30" s="201"/>
-      <c r="AG30" s="201"/>
-      <c r="AH30" s="201"/>
-      <c r="AI30" s="201"/>
-      <c r="AJ30" s="201"/>
-      <c r="AK30" s="201"/>
-      <c r="AL30" s="201"/>
-      <c r="AM30" s="201"/>
-      <c r="AN30" s="201"/>
-      <c r="AO30" s="201"/>
-      <c r="AP30" s="201"/>
-      <c r="AQ30" s="201"/>
-      <c r="AR30" s="201"/>
-      <c r="AS30" s="201"/>
-      <c r="AT30" s="201"/>
-      <c r="AU30" s="201"/>
-      <c r="AV30" s="201"/>
-      <c r="AW30" s="201"/>
-      <c r="AX30" s="201"/>
-      <c r="AY30" s="201"/>
-      <c r="AZ30" s="201"/>
-      <c r="BA30" s="201"/>
-      <c r="BB30" s="201"/>
-      <c r="BC30" s="201"/>
-      <c r="BD30" s="201"/>
-      <c r="BE30" s="201"/>
-      <c r="BF30" s="201"/>
-      <c r="BG30" s="201"/>
-      <c r="BH30" s="201"/>
-      <c r="BI30" s="201"/>
-      <c r="BJ30" s="201"/>
-      <c r="BK30" s="201"/>
-      <c r="BL30" s="201"/>
-      <c r="BM30" s="201"/>
-      <c r="BN30" s="201"/>
-      <c r="BO30" s="202"/>
-      <c r="BP30" s="202"/>
-      <c r="BQ30" s="202"/>
-      <c r="BR30" s="202"/>
-      <c r="BS30" s="202"/>
-      <c r="BT30" s="202"/>
-      <c r="BU30" s="202"/>
-      <c r="BV30" s="202"/>
-      <c r="BW30" s="202"/>
-      <c r="BX30" s="202"/>
-      <c r="BY30" s="202"/>
-      <c r="BZ30" s="202"/>
-      <c r="CA30" s="202"/>
-      <c r="CB30" s="202"/>
-      <c r="CC30" s="202"/>
-      <c r="CD30" s="202"/>
-      <c r="CE30" s="202"/>
-      <c r="CF30" s="202"/>
-      <c r="CG30" s="202"/>
-      <c r="CH30" s="202"/>
-      <c r="CI30" s="202"/>
-      <c r="CJ30" s="202"/>
-      <c r="CK30" s="202"/>
-      <c r="CL30" s="202"/>
-      <c r="CM30" s="202"/>
-      <c r="CN30" s="202"/>
-      <c r="CO30" s="202"/>
-      <c r="CP30" s="202"/>
-      <c r="CQ30" s="202"/>
-      <c r="CR30" s="202"/>
-      <c r="CS30" s="202"/>
-      <c r="CT30" s="202"/>
-      <c r="CU30" s="202"/>
-      <c r="CV30" s="202"/>
-      <c r="CW30" s="202"/>
-      <c r="CX30" s="202"/>
-      <c r="CY30" s="202"/>
-      <c r="CZ30" s="202"/>
-      <c r="DA30" s="202"/>
-      <c r="DB30" s="202"/>
-      <c r="DC30" s="202"/>
-      <c r="DD30" s="202"/>
-      <c r="DE30" s="202"/>
-      <c r="DF30" s="202"/>
-      <c r="DG30" s="202"/>
-      <c r="DH30" s="202"/>
-      <c r="DI30" s="202"/>
-      <c r="DJ30" s="202"/>
-      <c r="DK30" s="202"/>
-      <c r="DL30" s="202"/>
-      <c r="DM30" s="202"/>
-      <c r="DN30" s="202"/>
-      <c r="DO30" s="202"/>
-      <c r="DP30" s="202"/>
-      <c r="DQ30" s="202"/>
-      <c r="DR30" s="202"/>
-      <c r="DS30" s="202"/>
-      <c r="DT30" s="202"/>
-      <c r="DU30" s="202"/>
-      <c r="DV30" s="202"/>
-      <c r="DW30" s="202"/>
-      <c r="DX30" s="202"/>
-      <c r="DY30" s="202"/>
-      <c r="DZ30" s="202"/>
-      <c r="EA30" s="202"/>
-      <c r="EB30" s="202"/>
-      <c r="EC30" s="202"/>
-      <c r="ED30" s="202"/>
-      <c r="EE30" s="202"/>
-      <c r="EF30" s="202"/>
-      <c r="EG30" s="202"/>
-      <c r="EH30" s="202"/>
-      <c r="EI30" s="202"/>
-      <c r="EJ30" s="202"/>
-      <c r="EK30" s="202"/>
-      <c r="EL30" s="202"/>
-      <c r="EM30" s="202"/>
-      <c r="EN30" s="202"/>
-      <c r="EO30" s="202"/>
-      <c r="EP30" s="202"/>
-      <c r="EQ30" s="202"/>
-      <c r="ER30" s="202"/>
-      <c r="ES30" s="202"/>
-      <c r="ET30" s="202"/>
-      <c r="EU30" s="202"/>
-      <c r="EV30" s="202"/>
-      <c r="EW30" s="202"/>
-      <c r="EX30" s="202"/>
-      <c r="EY30" s="202"/>
-      <c r="EZ30" s="202"/>
-      <c r="FA30" s="202"/>
-      <c r="FB30" s="202"/>
-      <c r="FC30" s="202"/>
-      <c r="FD30" s="202"/>
-      <c r="FE30" s="202"/>
-      <c r="FF30" s="202"/>
-      <c r="FG30" s="202"/>
-      <c r="FH30" s="202"/>
-      <c r="FI30" s="202"/>
-      <c r="FJ30" s="202"/>
-      <c r="FK30" s="202"/>
-      <c r="FL30" s="202"/>
-      <c r="FM30" s="202"/>
-      <c r="FN30" s="202"/>
-      <c r="FO30" s="202"/>
-      <c r="FP30" s="202"/>
-      <c r="FQ30" s="202"/>
-      <c r="FR30" s="202"/>
-      <c r="FS30" s="202"/>
-      <c r="FT30" s="202"/>
-      <c r="FU30" s="202"/>
-      <c r="FV30" s="202"/>
-      <c r="FW30" s="202"/>
-      <c r="FX30" s="202"/>
-      <c r="FY30" s="202"/>
-      <c r="FZ30" s="202"/>
-      <c r="GA30" s="202"/>
-      <c r="GB30" s="202"/>
-      <c r="GC30" s="202"/>
-      <c r="GD30" s="202"/>
-      <c r="GE30" s="202"/>
-      <c r="GF30" s="202"/>
-      <c r="GG30" s="202"/>
-      <c r="GH30" s="202"/>
-      <c r="GI30" s="202"/>
-      <c r="GJ30" s="202"/>
-      <c r="GK30" s="202"/>
-      <c r="GL30" s="202"/>
-      <c r="GM30" s="202"/>
-      <c r="GN30" s="202"/>
-      <c r="GO30" s="202"/>
-      <c r="GP30" s="202"/>
-      <c r="GQ30" s="202"/>
-      <c r="GR30" s="202"/>
-      <c r="GS30" s="202"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="99"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="99"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="99"/>
+      <c r="AB30" s="99"/>
+      <c r="AC30" s="99"/>
+      <c r="AD30" s="99"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="99"/>
+      <c r="AG30" s="99"/>
+      <c r="AH30" s="99"/>
+      <c r="AI30" s="99"/>
+      <c r="AJ30" s="99"/>
+      <c r="AK30" s="99"/>
+      <c r="AL30" s="99"/>
+      <c r="AM30" s="99"/>
+      <c r="AN30" s="99"/>
+      <c r="AO30" s="99"/>
+      <c r="AP30" s="99"/>
+      <c r="AQ30" s="99"/>
+      <c r="AR30" s="99"/>
+      <c r="AS30" s="99"/>
+      <c r="AT30" s="99"/>
+      <c r="AU30" s="99"/>
+      <c r="AV30" s="99"/>
+      <c r="AW30" s="99"/>
+      <c r="AX30" s="99"/>
+      <c r="AY30" s="99"/>
+      <c r="AZ30" s="99"/>
+      <c r="BA30" s="99"/>
+      <c r="BB30" s="99"/>
+      <c r="BC30" s="99"/>
+      <c r="BD30" s="99"/>
+      <c r="BE30" s="99"/>
+      <c r="BF30" s="99"/>
+      <c r="BG30" s="99"/>
+      <c r="BH30" s="99"/>
+      <c r="BI30" s="99"/>
+      <c r="BJ30" s="99"/>
+      <c r="BK30" s="99"/>
+      <c r="BL30" s="99"/>
+      <c r="BM30" s="99"/>
+      <c r="BN30" s="99"/>
     </row>
     <row r="31" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A31" s="157" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B31" s="164" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D31" s="118"/>
       <c r="E31" s="194" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F31" s="174" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G31" s="177">
         <v>1</v>
       </c>
-      <c r="H31" s="59">
-        <v>0</v>
-      </c>
+      <c r="H31" s="59"/>
       <c r="I31" s="178">
         <v>1</v>
       </c>
@@ -7656,24 +7644,22 @@
     </row>
     <row r="32" spans="1:205" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A32" s="157" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B32" s="164" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D32" s="118"/>
       <c r="E32" s="194" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F32" s="174" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G32" s="177">
         <v>1</v>
       </c>
-      <c r="H32" s="59">
-        <v>0</v>
-      </c>
+      <c r="H32" s="59"/>
       <c r="I32" s="178">
         <v>1</v>
       </c>
@@ -7737,24 +7723,22 @@
     </row>
     <row r="33" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A33" s="157" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B33" s="164" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D33" s="118"/>
       <c r="E33" s="194" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="F33" s="174" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="G33" s="177">
         <v>1</v>
       </c>
-      <c r="H33" s="59">
-        <v>0</v>
-      </c>
+      <c r="H33" s="59"/>
       <c r="I33" s="178">
         <v>1</v>
       </c>
@@ -7818,24 +7802,22 @@
     </row>
     <row r="34" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A34" s="157" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B34" s="164" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D34" s="118"/>
       <c r="E34" s="194" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F34" s="174" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="G34" s="177">
         <v>1</v>
       </c>
-      <c r="H34" s="59">
-        <v>0</v>
-      </c>
+      <c r="H34" s="59"/>
       <c r="I34" s="178">
         <v>1</v>
       </c>
@@ -7897,30 +7879,29 @@
       <c r="BM34" s="99"/>
       <c r="BN34" s="99"/>
     </row>
-    <row r="35" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A35" s="157" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B35" s="164" t="s">
-        <v>194</v>
-      </c>
-      <c r="D35" s="118"/>
+        <v>191</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="194" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F35" s="174" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G35" s="177">
         <v>1</v>
       </c>
-      <c r="H35" s="59">
-        <v>0</v>
-      </c>
+      <c r="H35" s="59"/>
       <c r="I35" s="178">
         <v>1</v>
       </c>
-      <c r="J35" s="88"/>
+      <c r="J35" s="90"/>
       <c r="K35" s="99"/>
       <c r="L35" s="99"/>
       <c r="M35" s="99"/>
@@ -7979,28 +7960,26 @@
       <c r="BN35" s="99"/>
     </row>
     <row r="36" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A36" s="157" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="164" t="s">
-        <v>195</v>
+      <c r="A36" s="157">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B36" s="163" t="s">
+        <v>262</v>
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="61"/>
-      <c r="E36" s="194" t="s">
-        <v>226</v>
-      </c>
-      <c r="F36" s="174" t="s">
-        <v>226</v>
-      </c>
-      <c r="G36" s="177">
-        <v>1</v>
-      </c>
-      <c r="H36" s="59">
-        <v>0</v>
-      </c>
-      <c r="I36" s="178">
-        <v>1</v>
+      <c r="E36" s="170" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="175" t="s">
+        <v>214</v>
+      </c>
+      <c r="G36" s="180">
+        <v>2</v>
+      </c>
+      <c r="H36" s="181"/>
+      <c r="I36" s="182">
+        <v>2</v>
       </c>
       <c r="J36" s="90"/>
       <c r="K36" s="99"/>
@@ -8061,28 +8040,26 @@
       <c r="BN36" s="99"/>
     </row>
     <row r="37" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A37" s="157">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B37" s="163" t="s">
-        <v>204</v>
+      <c r="A37" s="157" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="164" t="s">
+        <v>184</v>
       </c>
       <c r="C37" s="60"/>
       <c r="D37" s="61"/>
       <c r="E37" s="170" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F37" s="175" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="G37" s="180">
-        <v>2</v>
-      </c>
-      <c r="H37" s="181">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H37" s="181"/>
       <c r="I37" s="182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="90"/>
       <c r="K37" s="99"/>
@@ -8144,25 +8121,23 @@
     </row>
     <row r="38" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A38" s="157" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B38" s="164" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C38" s="60"/>
       <c r="D38" s="61"/>
       <c r="E38" s="170" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="F38" s="175" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G38" s="180">
         <v>1</v>
       </c>
-      <c r="H38" s="181">
-        <v>0</v>
-      </c>
+      <c r="H38" s="181"/>
       <c r="I38" s="182">
         <v>1</v>
       </c>
@@ -8226,25 +8201,23 @@
     </row>
     <row r="39" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A39" s="157" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B39" s="164" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C39" s="60"/>
       <c r="D39" s="61"/>
       <c r="E39" s="170" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F39" s="175" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G39" s="180">
         <v>1</v>
       </c>
-      <c r="H39" s="181">
-        <v>0</v>
-      </c>
+      <c r="H39" s="181"/>
       <c r="I39" s="182">
         <v>1</v>
       </c>
@@ -8308,25 +8281,23 @@
     </row>
     <row r="40" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A40" s="157" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B40" s="164" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C40" s="60"/>
       <c r="D40" s="61"/>
       <c r="E40" s="170" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F40" s="175" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G40" s="180">
         <v>1</v>
       </c>
-      <c r="H40" s="181">
-        <v>0</v>
-      </c>
+      <c r="H40" s="181"/>
       <c r="I40" s="182">
         <v>1</v>
       </c>
@@ -8390,25 +8361,23 @@
     </row>
     <row r="41" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A41" s="157" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B41" s="164" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="61"/>
       <c r="E41" s="170" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F41" s="175" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G41" s="180">
         <v>1</v>
       </c>
-      <c r="H41" s="181">
-        <v>0</v>
-      </c>
+      <c r="H41" s="181"/>
       <c r="I41" s="182">
         <v>1</v>
       </c>
@@ -8472,25 +8441,23 @@
     </row>
     <row r="42" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A42" s="157" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B42" s="164" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C42" s="60"/>
       <c r="D42" s="61"/>
       <c r="E42" s="170" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F42" s="175" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="G42" s="180">
         <v>1</v>
       </c>
-      <c r="H42" s="181">
-        <v>0</v>
-      </c>
+      <c r="H42" s="181"/>
       <c r="I42" s="182">
         <v>1</v>
       </c>
@@ -8554,25 +8521,23 @@
     </row>
     <row r="43" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A43" s="157" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B43" s="164" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C43" s="60"/>
       <c r="D43" s="61"/>
       <c r="E43" s="170" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F43" s="175" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="G43" s="180">
         <v>1</v>
       </c>
-      <c r="H43" s="181">
-        <v>0</v>
-      </c>
+      <c r="H43" s="181"/>
       <c r="I43" s="182">
         <v>1</v>
       </c>
@@ -8636,25 +8601,23 @@
     </row>
     <row r="44" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A44" s="157" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B44" s="164" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
       <c r="E44" s="170" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F44" s="175" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G44" s="180">
         <v>1</v>
       </c>
-      <c r="H44" s="181">
-        <v>0</v>
-      </c>
+      <c r="H44" s="181"/>
       <c r="I44" s="182">
         <v>1</v>
       </c>
@@ -8717,26 +8680,24 @@
       <c r="BN44" s="99"/>
     </row>
     <row r="45" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A45" s="157" t="s">
-        <v>165</v>
-      </c>
-      <c r="B45" s="164" t="s">
-        <v>195</v>
+      <c r="A45" s="157">
+        <v>2.4</v>
+      </c>
+      <c r="B45" s="166" t="s">
+        <v>194</v>
       </c>
       <c r="C45" s="60"/>
       <c r="D45" s="61"/>
       <c r="E45" s="170" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="F45" s="175" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="G45" s="180">
         <v>1</v>
       </c>
-      <c r="H45" s="181">
-        <v>0</v>
-      </c>
+      <c r="H45" s="181"/>
       <c r="I45" s="182">
         <v>1</v>
       </c>
@@ -8800,25 +8761,23 @@
     </row>
     <row r="46" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A46" s="157">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="B46" s="166" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="C46" s="60"/>
       <c r="D46" s="61"/>
       <c r="E46" s="170" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F46" s="175" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="G46" s="180">
         <v>1</v>
       </c>
-      <c r="H46" s="181">
-        <v>0</v>
-      </c>
+      <c r="H46" s="181"/>
       <c r="I46" s="182">
         <v>1</v>
       </c>
@@ -8882,27 +8841,25 @@
     </row>
     <row r="47" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A47" s="157">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="B47" s="166" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C47" s="60"/>
       <c r="D47" s="61"/>
       <c r="E47" s="170" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F47" s="175" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="G47" s="180">
-        <v>1</v>
-      </c>
-      <c r="H47" s="181">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H47" s="181"/>
       <c r="I47" s="182">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J47" s="90"/>
       <c r="K47" s="99"/>
@@ -8963,28 +8920,26 @@
       <c r="BN47" s="99"/>
     </row>
     <row r="48" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A48" s="157">
-        <v>2.6</v>
-      </c>
-      <c r="B48" s="166" t="s">
-        <v>207</v>
+      <c r="A48" s="157" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" s="164" t="s">
+        <v>184</v>
       </c>
       <c r="C48" s="60"/>
       <c r="D48" s="61"/>
       <c r="E48" s="170" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="F48" s="175" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="G48" s="180">
-        <v>4</v>
-      </c>
-      <c r="H48" s="181">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H48" s="181"/>
       <c r="I48" s="182">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J48" s="90"/>
       <c r="K48" s="99"/>
@@ -9046,25 +9001,23 @@
     </row>
     <row r="49" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A49" s="157" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B49" s="164" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C49" s="60"/>
       <c r="D49" s="61"/>
       <c r="E49" s="170" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="F49" s="175" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="G49" s="180">
         <v>1</v>
       </c>
-      <c r="H49" s="181">
-        <v>0</v>
-      </c>
+      <c r="H49" s="181"/>
       <c r="I49" s="182">
         <v>1</v>
       </c>
@@ -9128,25 +9081,23 @@
     </row>
     <row r="50" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A50" s="157" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B50" s="164" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C50" s="60"/>
       <c r="D50" s="61"/>
       <c r="E50" s="170" t="s">
-        <v>234</v>
-      </c>
-      <c r="F50" s="175" t="s">
-        <v>234</v>
+        <v>219</v>
+      </c>
+      <c r="F50" s="197" t="s">
+        <v>220</v>
       </c>
       <c r="G50" s="180">
         <v>1</v>
       </c>
-      <c r="H50" s="181">
-        <v>0</v>
-      </c>
+      <c r="H50" s="181"/>
       <c r="I50" s="182">
         <v>1</v>
       </c>
@@ -9210,25 +9161,23 @@
     </row>
     <row r="51" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A51" s="157" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B51" s="164" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C51" s="60"/>
       <c r="D51" s="61"/>
       <c r="E51" s="170" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="F51" s="197" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G51" s="180">
         <v>1</v>
       </c>
-      <c r="H51" s="181">
-        <v>0</v>
-      </c>
+      <c r="H51" s="181"/>
       <c r="I51" s="182">
         <v>1</v>
       </c>
@@ -9292,25 +9241,23 @@
     </row>
     <row r="52" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A52" s="157" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B52" s="164" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C52" s="60"/>
       <c r="D52" s="61"/>
       <c r="E52" s="170" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F52" s="197" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="G52" s="180">
         <v>1</v>
       </c>
-      <c r="H52" s="181">
-        <v>0</v>
-      </c>
+      <c r="H52" s="181"/>
       <c r="I52" s="182">
         <v>1</v>
       </c>
@@ -9374,25 +9321,23 @@
     </row>
     <row r="53" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A53" s="157" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B53" s="164" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C53" s="60"/>
       <c r="D53" s="61"/>
       <c r="E53" s="170" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F53" s="197" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G53" s="180">
         <v>1</v>
       </c>
-      <c r="H53" s="181">
-        <v>0</v>
-      </c>
+      <c r="H53" s="181"/>
       <c r="I53" s="182">
         <v>1</v>
       </c>
@@ -9456,25 +9401,23 @@
     </row>
     <row r="54" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A54" s="157" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B54" s="164" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C54" s="60"/>
       <c r="D54" s="61"/>
       <c r="E54" s="170" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F54" s="197" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="G54" s="180">
         <v>1</v>
       </c>
-      <c r="H54" s="181">
-        <v>0</v>
-      </c>
+      <c r="H54" s="181"/>
       <c r="I54" s="182">
         <v>1</v>
       </c>
@@ -9538,25 +9481,23 @@
     </row>
     <row r="55" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A55" s="157" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B55" s="164" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C55" s="60"/>
       <c r="D55" s="61"/>
       <c r="E55" s="170" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F55" s="197" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G55" s="180">
         <v>1</v>
       </c>
-      <c r="H55" s="181">
-        <v>0</v>
-      </c>
+      <c r="H55" s="181"/>
       <c r="I55" s="182">
         <v>1</v>
       </c>
@@ -9619,28 +9560,26 @@
       <c r="BN55" s="99"/>
     </row>
     <row r="56" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A56" s="157" t="s">
-        <v>173</v>
-      </c>
-      <c r="B56" s="164" t="s">
-        <v>195</v>
+      <c r="A56" s="157">
+        <v>2.7</v>
+      </c>
+      <c r="B56" s="163" t="s">
+        <v>196</v>
       </c>
       <c r="C56" s="60"/>
       <c r="D56" s="61"/>
       <c r="E56" s="170" t="s">
-        <v>238</v>
-      </c>
-      <c r="F56" s="197" t="s">
-        <v>238</v>
+        <v>246</v>
+      </c>
+      <c r="F56" s="175" t="s">
+        <v>236</v>
       </c>
       <c r="G56" s="180">
-        <v>1</v>
-      </c>
-      <c r="H56" s="181">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" s="181"/>
       <c r="I56" s="182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" s="90"/>
       <c r="K56" s="99"/>
@@ -9701,327 +9640,323 @@
       <c r="BN56" s="99"/>
     </row>
     <row r="57" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A57" s="157">
-        <v>2.7</v>
-      </c>
-      <c r="B57" s="163" t="s">
-        <v>208</v>
+      <c r="A57" s="158" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B57" s="165" t="s">
+        <v>266</v>
       </c>
       <c r="C57" s="60"/>
       <c r="D57" s="61"/>
-      <c r="E57" s="170" t="s">
-        <v>271</v>
-      </c>
-      <c r="F57" s="175" t="s">
-        <v>256</v>
-      </c>
-      <c r="G57" s="180">
-        <v>2</v>
-      </c>
-      <c r="H57" s="181">
-        <v>0</v>
-      </c>
-      <c r="I57" s="182">
-        <v>2</v>
-      </c>
-      <c r="J57" s="90"/>
-      <c r="K57" s="99"/>
-      <c r="L57" s="99"/>
-      <c r="M57" s="99"/>
-      <c r="N57" s="99"/>
-      <c r="O57" s="99"/>
-      <c r="P57" s="99"/>
-      <c r="Q57" s="99"/>
-      <c r="R57" s="99"/>
-      <c r="S57" s="99"/>
-      <c r="T57" s="99"/>
-      <c r="U57" s="99"/>
-      <c r="V57" s="99"/>
-      <c r="W57" s="99"/>
-      <c r="X57" s="99"/>
-      <c r="Y57" s="99"/>
-      <c r="Z57" s="99"/>
-      <c r="AA57" s="99"/>
-      <c r="AB57" s="99"/>
-      <c r="AC57" s="99"/>
-      <c r="AD57" s="99"/>
-      <c r="AE57" s="99"/>
-      <c r="AF57" s="99"/>
-      <c r="AG57" s="99"/>
-      <c r="AH57" s="99"/>
-      <c r="AI57" s="99"/>
-      <c r="AJ57" s="99"/>
-      <c r="AK57" s="99"/>
-      <c r="AL57" s="99"/>
-      <c r="AM57" s="99"/>
-      <c r="AN57" s="99"/>
-      <c r="AO57" s="99"/>
-      <c r="AP57" s="99"/>
-      <c r="AQ57" s="99"/>
-      <c r="AR57" s="99"/>
-      <c r="AS57" s="99"/>
-      <c r="AT57" s="99"/>
-      <c r="AU57" s="99"/>
-      <c r="AV57" s="99"/>
-      <c r="AW57" s="99"/>
-      <c r="AX57" s="99"/>
-      <c r="AY57" s="99"/>
-      <c r="AZ57" s="99"/>
-      <c r="BA57" s="99"/>
-      <c r="BB57" s="99"/>
-      <c r="BC57" s="99"/>
-      <c r="BD57" s="99"/>
-      <c r="BE57" s="99"/>
-      <c r="BF57" s="99"/>
-      <c r="BG57" s="99"/>
-      <c r="BH57" s="99"/>
-      <c r="BI57" s="99"/>
-      <c r="BJ57" s="99"/>
-      <c r="BK57" s="99"/>
-      <c r="BL57" s="99"/>
-      <c r="BM57" s="99"/>
-      <c r="BN57" s="99"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="169" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G57" s="54"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="179" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J57" s="89"/>
+      <c r="K57" s="101"/>
+      <c r="L57" s="101"/>
+      <c r="M57" s="101"/>
+      <c r="N57" s="101"/>
+      <c r="O57" s="101"/>
+      <c r="P57" s="101"/>
+      <c r="Q57" s="101"/>
+      <c r="R57" s="101"/>
+      <c r="S57" s="101"/>
+      <c r="T57" s="101"/>
+      <c r="U57" s="101"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
+      <c r="X57" s="101"/>
+      <c r="Y57" s="101"/>
+      <c r="Z57" s="101"/>
+      <c r="AA57" s="101"/>
+      <c r="AB57" s="101"/>
+      <c r="AC57" s="101"/>
+      <c r="AD57" s="101"/>
+      <c r="AE57" s="101"/>
+      <c r="AF57" s="101"/>
+      <c r="AG57" s="101"/>
+      <c r="AH57" s="101"/>
+      <c r="AI57" s="101"/>
+      <c r="AJ57" s="101"/>
+      <c r="AK57" s="101"/>
+      <c r="AL57" s="101"/>
+      <c r="AM57" s="101"/>
+      <c r="AN57" s="101"/>
+      <c r="AO57" s="101"/>
+      <c r="AP57" s="101"/>
+      <c r="AQ57" s="101"/>
+      <c r="AR57" s="101"/>
+      <c r="AS57" s="101"/>
+      <c r="AT57" s="101"/>
+      <c r="AU57" s="101"/>
+      <c r="AV57" s="101"/>
+      <c r="AW57" s="101"/>
+      <c r="AX57" s="101"/>
+      <c r="AY57" s="101"/>
+      <c r="AZ57" s="101"/>
+      <c r="BA57" s="101"/>
+      <c r="BB57" s="101"/>
+      <c r="BC57" s="101"/>
+      <c r="BD57" s="101"/>
+      <c r="BE57" s="101"/>
+      <c r="BF57" s="101"/>
+      <c r="BG57" s="101"/>
+      <c r="BH57" s="101"/>
+      <c r="BI57" s="101"/>
+      <c r="BJ57" s="101"/>
+      <c r="BK57" s="101"/>
+      <c r="BL57" s="101"/>
+      <c r="BM57" s="101"/>
+      <c r="BN57" s="101"/>
+      <c r="BO57" s="203"/>
+      <c r="BP57" s="203"/>
+      <c r="BQ57" s="203"/>
+      <c r="BR57" s="203"/>
+      <c r="BS57" s="203"/>
+      <c r="BT57" s="203"/>
+      <c r="BU57" s="203"/>
+      <c r="BV57" s="203"/>
+      <c r="BW57" s="203"/>
+      <c r="BX57" s="203"/>
+      <c r="BY57" s="203"/>
+      <c r="BZ57" s="203"/>
+      <c r="CA57" s="203"/>
+      <c r="CB57" s="203"/>
+      <c r="CC57" s="203"/>
+      <c r="CD57" s="203"/>
+      <c r="CE57" s="203"/>
+      <c r="CF57" s="203"/>
+      <c r="CG57" s="203"/>
+      <c r="CH57" s="203"/>
+      <c r="CI57" s="203"/>
+      <c r="CJ57" s="203"/>
+      <c r="CK57" s="203"/>
+      <c r="CL57" s="203"/>
+      <c r="CM57" s="203"/>
+      <c r="CN57" s="203"/>
+      <c r="CO57" s="203"/>
+      <c r="CP57" s="203"/>
+      <c r="CQ57" s="203"/>
+      <c r="CR57" s="203"/>
+      <c r="CS57" s="203"/>
+      <c r="CT57" s="203"/>
+      <c r="CU57" s="203"/>
+      <c r="CV57" s="203"/>
+      <c r="CW57" s="203"/>
+      <c r="CX57" s="203"/>
+      <c r="CY57" s="203"/>
+      <c r="CZ57" s="203"/>
+      <c r="DA57" s="203"/>
+      <c r="DB57" s="203"/>
+      <c r="DC57" s="203"/>
+      <c r="DD57" s="203"/>
+      <c r="DE57" s="203"/>
+      <c r="DF57" s="203"/>
+      <c r="DG57" s="203"/>
+      <c r="DH57" s="203"/>
+      <c r="DI57" s="203"/>
+      <c r="DJ57" s="203"/>
+      <c r="DK57" s="203"/>
+      <c r="DL57" s="203"/>
+      <c r="DM57" s="203"/>
+      <c r="DN57" s="203"/>
+      <c r="DO57" s="203"/>
+      <c r="DP57" s="203"/>
+      <c r="DQ57" s="203"/>
+      <c r="DR57" s="203"/>
+      <c r="DS57" s="203"/>
+      <c r="DT57" s="203"/>
+      <c r="DU57" s="203"/>
+      <c r="DV57" s="203"/>
+      <c r="DW57" s="203"/>
+      <c r="DX57" s="203"/>
+      <c r="DY57" s="203"/>
+      <c r="DZ57" s="203"/>
+      <c r="EA57" s="203"/>
+      <c r="EB57" s="203"/>
+      <c r="EC57" s="203"/>
+      <c r="ED57" s="203"/>
+      <c r="EE57" s="203"/>
+      <c r="EF57" s="203"/>
+      <c r="EG57" s="203"/>
+      <c r="EH57" s="203"/>
+      <c r="EI57" s="203"/>
+      <c r="EJ57" s="203"/>
+      <c r="EK57" s="203"/>
+      <c r="EL57" s="203"/>
+      <c r="EM57" s="203"/>
+      <c r="EN57" s="203"/>
+      <c r="EO57" s="203"/>
+      <c r="EP57" s="203"/>
+      <c r="EQ57" s="203"/>
+      <c r="ER57" s="203"/>
+      <c r="ES57" s="203"/>
+      <c r="ET57" s="203"/>
+      <c r="EU57" s="203"/>
+      <c r="EV57" s="203"/>
+      <c r="EW57" s="203"/>
+      <c r="EX57" s="203"/>
+      <c r="EY57" s="203"/>
+      <c r="EZ57" s="203"/>
+      <c r="FA57" s="203"/>
+      <c r="FB57" s="203"/>
+      <c r="FC57" s="203"/>
+      <c r="FD57" s="203"/>
+      <c r="FE57" s="203"/>
+      <c r="FF57" s="203"/>
+      <c r="FG57" s="203"/>
+      <c r="FH57" s="203"/>
+      <c r="FI57" s="203"/>
+      <c r="FJ57" s="203"/>
+      <c r="FK57" s="203"/>
+      <c r="FL57" s="203"/>
+      <c r="FM57" s="203"/>
+      <c r="FN57" s="203"/>
+      <c r="FO57" s="203"/>
+      <c r="FP57" s="203"/>
+      <c r="FQ57" s="203"/>
+      <c r="FR57" s="203"/>
+      <c r="FS57" s="203"/>
+      <c r="FT57" s="203"/>
+      <c r="FU57" s="203"/>
+      <c r="FV57" s="203"/>
+      <c r="FW57" s="203"/>
+      <c r="FX57" s="203"/>
+      <c r="FY57" s="203"/>
+      <c r="FZ57" s="203"/>
+      <c r="GA57" s="203"/>
+      <c r="GB57" s="203"/>
+      <c r="GC57" s="203"/>
+      <c r="GD57" s="203"/>
+      <c r="GE57" s="203"/>
+      <c r="GF57" s="203"/>
+      <c r="GG57" s="203"/>
+      <c r="GH57" s="203"/>
+      <c r="GI57" s="203"/>
+      <c r="GJ57" s="203"/>
+      <c r="GK57" s="203"/>
+      <c r="GL57" s="203"/>
+      <c r="GM57" s="203"/>
+      <c r="GN57" s="203"/>
+      <c r="GO57" s="203"/>
+      <c r="GP57" s="203"/>
+      <c r="GQ57" s="203"/>
+      <c r="GR57" s="203"/>
+      <c r="GS57" s="203"/>
+      <c r="GT57" s="203"/>
+      <c r="GU57" s="203"/>
     </row>
     <row r="58" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A58" s="158" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B58" s="165" t="s">
-        <v>209</v>
+      <c r="A58" s="191" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
+      </c>
+      <c r="B58" s="163" t="s">
+        <v>197</v>
       </c>
       <c r="C58" s="60"/>
       <c r="D58" s="61"/>
-      <c r="E58" s="169"/>
-      <c r="F58" s="169" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G58" s="54"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="179" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J58" s="89"/>
-      <c r="K58" s="101"/>
-      <c r="L58" s="101"/>
-      <c r="M58" s="101"/>
-      <c r="N58" s="101"/>
-      <c r="O58" s="101"/>
-      <c r="P58" s="101"/>
-      <c r="Q58" s="101"/>
-      <c r="R58" s="101"/>
-      <c r="S58" s="101"/>
-      <c r="T58" s="101"/>
-      <c r="U58" s="101"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
-      <c r="X58" s="101"/>
-      <c r="Y58" s="101"/>
-      <c r="Z58" s="101"/>
-      <c r="AA58" s="101"/>
-      <c r="AB58" s="101"/>
-      <c r="AC58" s="101"/>
-      <c r="AD58" s="101"/>
-      <c r="AE58" s="101"/>
-      <c r="AF58" s="101"/>
-      <c r="AG58" s="101"/>
-      <c r="AH58" s="101"/>
-      <c r="AI58" s="101"/>
-      <c r="AJ58" s="101"/>
-      <c r="AK58" s="101"/>
-      <c r="AL58" s="101"/>
-      <c r="AM58" s="101"/>
-      <c r="AN58" s="101"/>
-      <c r="AO58" s="101"/>
-      <c r="AP58" s="101"/>
-      <c r="AQ58" s="101"/>
-      <c r="AR58" s="101"/>
-      <c r="AS58" s="101"/>
-      <c r="AT58" s="101"/>
-      <c r="AU58" s="101"/>
-      <c r="AV58" s="101"/>
-      <c r="AW58" s="101"/>
-      <c r="AX58" s="101"/>
-      <c r="AY58" s="101"/>
-      <c r="AZ58" s="101"/>
-      <c r="BA58" s="101"/>
-      <c r="BB58" s="101"/>
-      <c r="BC58" s="101"/>
-      <c r="BD58" s="101"/>
-      <c r="BE58" s="101"/>
-      <c r="BF58" s="101"/>
-      <c r="BG58" s="101"/>
-      <c r="BH58" s="101"/>
-      <c r="BI58" s="101"/>
-      <c r="BJ58" s="101"/>
-      <c r="BK58" s="101"/>
-      <c r="BL58" s="101"/>
-      <c r="BM58" s="101"/>
-      <c r="BN58" s="101"/>
-      <c r="BO58" s="203"/>
-      <c r="BP58" s="203"/>
-      <c r="BQ58" s="203"/>
-      <c r="BR58" s="203"/>
-      <c r="BS58" s="203"/>
-      <c r="BT58" s="203"/>
-      <c r="BU58" s="203"/>
-      <c r="BV58" s="203"/>
-      <c r="BW58" s="203"/>
-      <c r="BX58" s="203"/>
-      <c r="BY58" s="203"/>
-      <c r="BZ58" s="203"/>
-      <c r="CA58" s="203"/>
-      <c r="CB58" s="203"/>
-      <c r="CC58" s="203"/>
-      <c r="CD58" s="203"/>
-      <c r="CE58" s="203"/>
-      <c r="CF58" s="203"/>
-      <c r="CG58" s="203"/>
-      <c r="CH58" s="203"/>
-      <c r="CI58" s="203"/>
-      <c r="CJ58" s="203"/>
-      <c r="CK58" s="203"/>
-      <c r="CL58" s="203"/>
-      <c r="CM58" s="203"/>
-      <c r="CN58" s="203"/>
-      <c r="CO58" s="203"/>
-      <c r="CP58" s="203"/>
-      <c r="CQ58" s="203"/>
-      <c r="CR58" s="203"/>
-      <c r="CS58" s="203"/>
-      <c r="CT58" s="203"/>
-      <c r="CU58" s="203"/>
-      <c r="CV58" s="203"/>
-      <c r="CW58" s="203"/>
-      <c r="CX58" s="203"/>
-      <c r="CY58" s="203"/>
-      <c r="CZ58" s="203"/>
-      <c r="DA58" s="203"/>
-      <c r="DB58" s="203"/>
-      <c r="DC58" s="203"/>
-      <c r="DD58" s="203"/>
-      <c r="DE58" s="203"/>
-      <c r="DF58" s="203"/>
-      <c r="DG58" s="203"/>
-      <c r="DH58" s="203"/>
-      <c r="DI58" s="203"/>
-      <c r="DJ58" s="203"/>
-      <c r="DK58" s="203"/>
-      <c r="DL58" s="203"/>
-      <c r="DM58" s="203"/>
-      <c r="DN58" s="203"/>
-      <c r="DO58" s="203"/>
-      <c r="DP58" s="203"/>
-      <c r="DQ58" s="203"/>
-      <c r="DR58" s="203"/>
-      <c r="DS58" s="203"/>
-      <c r="DT58" s="203"/>
-      <c r="DU58" s="203"/>
-      <c r="DV58" s="203"/>
-      <c r="DW58" s="203"/>
-      <c r="DX58" s="203"/>
-      <c r="DY58" s="203"/>
-      <c r="DZ58" s="203"/>
-      <c r="EA58" s="203"/>
-      <c r="EB58" s="203"/>
-      <c r="EC58" s="203"/>
-      <c r="ED58" s="203"/>
-      <c r="EE58" s="203"/>
-      <c r="EF58" s="203"/>
-      <c r="EG58" s="203"/>
-      <c r="EH58" s="203"/>
-      <c r="EI58" s="203"/>
-      <c r="EJ58" s="203"/>
-      <c r="EK58" s="203"/>
-      <c r="EL58" s="203"/>
-      <c r="EM58" s="203"/>
-      <c r="EN58" s="203"/>
-      <c r="EO58" s="203"/>
-      <c r="EP58" s="203"/>
-      <c r="EQ58" s="203"/>
-      <c r="ER58" s="203"/>
-      <c r="ES58" s="203"/>
-      <c r="ET58" s="203"/>
-      <c r="EU58" s="203"/>
-      <c r="EV58" s="203"/>
-      <c r="EW58" s="203"/>
-      <c r="EX58" s="203"/>
-      <c r="EY58" s="203"/>
-      <c r="EZ58" s="203"/>
-      <c r="FA58" s="203"/>
-      <c r="FB58" s="203"/>
-      <c r="FC58" s="203"/>
-      <c r="FD58" s="203"/>
-      <c r="FE58" s="203"/>
-      <c r="FF58" s="203"/>
-      <c r="FG58" s="203"/>
-      <c r="FH58" s="203"/>
-      <c r="FI58" s="203"/>
-      <c r="FJ58" s="203"/>
-      <c r="FK58" s="203"/>
-      <c r="FL58" s="203"/>
-      <c r="FM58" s="203"/>
-      <c r="FN58" s="203"/>
-      <c r="FO58" s="203"/>
-      <c r="FP58" s="203"/>
-      <c r="FQ58" s="203"/>
-      <c r="FR58" s="203"/>
-      <c r="FS58" s="203"/>
-      <c r="FT58" s="203"/>
-      <c r="FU58" s="203"/>
-      <c r="FV58" s="203"/>
-      <c r="FW58" s="203"/>
-      <c r="FX58" s="203"/>
-      <c r="FY58" s="203"/>
-      <c r="FZ58" s="203"/>
-      <c r="GA58" s="203"/>
-      <c r="GB58" s="203"/>
-      <c r="GC58" s="203"/>
-      <c r="GD58" s="203"/>
-      <c r="GE58" s="203"/>
-      <c r="GF58" s="203"/>
-      <c r="GG58" s="203"/>
-      <c r="GH58" s="203"/>
-      <c r="GI58" s="203"/>
-      <c r="GJ58" s="203"/>
-      <c r="GK58" s="203"/>
-      <c r="GL58" s="203"/>
-      <c r="GM58" s="203"/>
-      <c r="GN58" s="203"/>
-      <c r="GO58" s="203"/>
-      <c r="GP58" s="203"/>
-      <c r="GQ58" s="203"/>
-      <c r="GR58" s="203"/>
-      <c r="GS58" s="203"/>
-      <c r="GT58" s="203"/>
-      <c r="GU58" s="203"/>
+      <c r="E58" s="194" t="s">
+        <v>224</v>
+      </c>
+      <c r="F58" s="174" t="s">
+        <v>272</v>
+      </c>
+      <c r="G58" s="177">
+        <v>21</v>
+      </c>
+      <c r="H58" s="59"/>
+      <c r="I58" s="178">
+        <v>21</v>
+      </c>
+      <c r="J58" s="90"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="99"/>
+      <c r="N58" s="99"/>
+      <c r="O58" s="99"/>
+      <c r="P58" s="99"/>
+      <c r="Q58" s="99"/>
+      <c r="R58" s="99"/>
+      <c r="S58" s="99"/>
+      <c r="T58" s="99"/>
+      <c r="U58" s="99"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
+      <c r="X58" s="99"/>
+      <c r="Y58" s="99"/>
+      <c r="Z58" s="99"/>
+      <c r="AA58" s="99"/>
+      <c r="AB58" s="99"/>
+      <c r="AC58" s="99"/>
+      <c r="AD58" s="99"/>
+      <c r="AE58" s="99"/>
+      <c r="AF58" s="99"/>
+      <c r="AG58" s="99"/>
+      <c r="AH58" s="99"/>
+      <c r="AI58" s="99"/>
+      <c r="AJ58" s="99"/>
+      <c r="AK58" s="99"/>
+      <c r="AL58" s="99"/>
+      <c r="AM58" s="99"/>
+      <c r="AN58" s="99"/>
+      <c r="AO58" s="99"/>
+      <c r="AP58" s="99"/>
+      <c r="AQ58" s="99"/>
+      <c r="AR58" s="99"/>
+      <c r="AS58" s="99"/>
+      <c r="AT58" s="99"/>
+      <c r="AU58" s="99"/>
+      <c r="AV58" s="99"/>
+      <c r="AW58" s="99"/>
+      <c r="AX58" s="99"/>
+      <c r="AY58" s="99"/>
+      <c r="AZ58" s="99"/>
+      <c r="BA58" s="99"/>
+      <c r="BB58" s="99"/>
+      <c r="BC58" s="99"/>
+      <c r="BD58" s="99"/>
+      <c r="BE58" s="99"/>
+      <c r="BF58" s="99"/>
+      <c r="BG58" s="99"/>
+      <c r="BH58" s="99"/>
+      <c r="BI58" s="99"/>
+      <c r="BJ58" s="99"/>
+      <c r="BK58" s="99"/>
+      <c r="BL58" s="99"/>
+      <c r="BM58" s="99"/>
+      <c r="BN58" s="99"/>
     </row>
     <row r="59" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A59" s="191" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B59" s="163" t="s">
-        <v>210</v>
+      <c r="A59" s="157" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="167" t="s">
+        <v>198</v>
       </c>
       <c r="C59" s="60"/>
       <c r="D59" s="61"/>
       <c r="E59" s="194" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="F59" s="174" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="G59" s="177">
-        <v>13</v>
-      </c>
-      <c r="H59" s="59">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H59" s="59"/>
       <c r="I59" s="178">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J59" s="90"/>
       <c r="K59" s="99"/>
@@ -10083,25 +10018,23 @@
     </row>
     <row r="60" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A60" s="157" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B60" s="167" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C60" s="60"/>
       <c r="D60" s="61"/>
       <c r="E60" s="194" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="F60" s="174" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G60" s="177">
         <v>1</v>
       </c>
-      <c r="H60" s="59">
-        <v>0</v>
-      </c>
+      <c r="H60" s="59"/>
       <c r="I60" s="178">
         <v>1</v>
       </c>
@@ -10165,27 +10098,25 @@
     </row>
     <row r="61" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A61" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" s="167" t="s">
-        <v>212</v>
+        <v>173</v>
+      </c>
+      <c r="B61" s="164" t="s">
+        <v>184</v>
       </c>
       <c r="C61" s="60"/>
       <c r="D61" s="61"/>
       <c r="E61" s="194" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F61" s="174" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G61" s="177">
-        <v>1</v>
-      </c>
-      <c r="H61" s="59">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H61" s="59"/>
       <c r="I61" s="178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J61" s="90"/>
       <c r="K61" s="99"/>
@@ -10247,27 +10178,25 @@
     </row>
     <row r="62" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A62" s="157" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B62" s="164" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C62" s="60"/>
       <c r="D62" s="61"/>
-      <c r="E62" s="194" t="s">
-        <v>272</v>
-      </c>
-      <c r="F62" s="174" t="s">
-        <v>258</v>
-      </c>
-      <c r="G62" s="177">
-        <v>2</v>
-      </c>
-      <c r="H62" s="59">
-        <v>0</v>
-      </c>
-      <c r="I62" s="178">
-        <v>2</v>
+      <c r="E62" s="195" t="s">
+        <v>238</v>
+      </c>
+      <c r="F62" s="171" t="s">
+        <v>225</v>
+      </c>
+      <c r="G62" s="183">
+        <v>3</v>
+      </c>
+      <c r="H62" s="184"/>
+      <c r="I62" s="185">
+        <v>3</v>
       </c>
       <c r="J62" s="90"/>
       <c r="K62" s="99"/>
@@ -10329,27 +10258,25 @@
     </row>
     <row r="63" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A63" s="157" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B63" s="164" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C63" s="60"/>
       <c r="D63" s="61"/>
       <c r="E63" s="195" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F63" s="171" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="G63" s="183">
-        <v>2</v>
-      </c>
-      <c r="H63" s="184">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H63" s="184"/>
       <c r="I63" s="185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J63" s="90"/>
       <c r="K63" s="99"/>
@@ -10411,27 +10338,25 @@
     </row>
     <row r="64" spans="1:203" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A64" s="157" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B64" s="164" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C64" s="60"/>
       <c r="D64" s="61"/>
       <c r="E64" s="195" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F64" s="171" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G64" s="183">
-        <v>1</v>
-      </c>
-      <c r="H64" s="184">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" s="184"/>
       <c r="I64" s="185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" s="90"/>
       <c r="K64" s="99"/>
@@ -10493,27 +10418,25 @@
     </row>
     <row r="65" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A65" s="157" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B65" s="164" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C65" s="60"/>
       <c r="D65" s="61"/>
       <c r="E65" s="195" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F65" s="171" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G65" s="183">
-        <v>1</v>
-      </c>
-      <c r="H65" s="184">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" s="184"/>
       <c r="I65" s="185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" s="90"/>
       <c r="K65" s="99"/>
@@ -10575,25 +10498,23 @@
     </row>
     <row r="66" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A66" s="157" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B66" s="164" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C66" s="60"/>
       <c r="D66" s="61"/>
       <c r="E66" s="195" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F66" s="171" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="G66" s="183">
         <v>2</v>
       </c>
-      <c r="H66" s="184">
-        <v>0</v>
-      </c>
+      <c r="H66" s="184"/>
       <c r="I66" s="185">
         <v>2</v>
       </c>
@@ -10657,27 +10578,25 @@
     </row>
     <row r="67" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A67" s="157" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B67" s="164" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C67" s="60"/>
       <c r="D67" s="61"/>
       <c r="E67" s="195" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F67" s="171" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G67" s="183">
-        <v>1</v>
-      </c>
-      <c r="H67" s="184">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H67" s="184"/>
       <c r="I67" s="185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" s="90"/>
       <c r="K67" s="99"/>
@@ -10739,25 +10658,23 @@
     </row>
     <row r="68" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A68" s="157" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B68" s="164" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C68" s="60"/>
       <c r="D68" s="61"/>
       <c r="E68" s="195" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="F68" s="171" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G68" s="183">
         <v>2</v>
       </c>
-      <c r="H68" s="184">
-        <v>0</v>
-      </c>
+      <c r="H68" s="184"/>
       <c r="I68" s="185">
         <v>2</v>
       </c>
@@ -10820,26 +10737,24 @@
       <c r="BN68" s="99"/>
     </row>
     <row r="69" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A69" s="157" t="s">
-        <v>183</v>
-      </c>
-      <c r="B69" s="164" t="s">
-        <v>195</v>
+      <c r="A69" s="191">
+        <v>3.2</v>
+      </c>
+      <c r="B69" s="166" t="s">
+        <v>200</v>
       </c>
       <c r="C69" s="60"/>
       <c r="D69" s="61"/>
       <c r="E69" s="195" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="F69" s="171" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="G69" s="183">
         <v>1</v>
       </c>
-      <c r="H69" s="184">
-        <v>0</v>
-      </c>
+      <c r="H69" s="184"/>
       <c r="I69" s="185">
         <v>1</v>
       </c>
@@ -10902,320 +10817,316 @@
       <c r="BN69" s="99"/>
     </row>
     <row r="70" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A70" s="191">
-        <v>3.2</v>
-      </c>
-      <c r="B70" s="166" t="s">
-        <v>213</v>
+      <c r="A70" s="159">
+        <v>4</v>
+      </c>
+      <c r="B70" s="168" t="s">
+        <v>138</v>
       </c>
       <c r="C70" s="60"/>
       <c r="D70" s="61"/>
-      <c r="E70" s="195" t="s">
-        <v>276</v>
-      </c>
-      <c r="F70" s="171" t="s">
-        <v>262</v>
-      </c>
-      <c r="G70" s="183">
-        <v>3</v>
-      </c>
-      <c r="H70" s="184">
-        <v>0</v>
-      </c>
-      <c r="I70" s="185">
-        <v>3</v>
-      </c>
-      <c r="J70" s="90"/>
-      <c r="K70" s="99"/>
-      <c r="L70" s="99"/>
-      <c r="M70" s="99"/>
-      <c r="N70" s="99"/>
-      <c r="O70" s="99"/>
-      <c r="P70" s="99"/>
-      <c r="Q70" s="99"/>
-      <c r="R70" s="99"/>
-      <c r="S70" s="99"/>
-      <c r="T70" s="99"/>
-      <c r="U70" s="99"/>
-      <c r="V70" s="99"/>
-      <c r="W70" s="99"/>
-      <c r="X70" s="99"/>
-      <c r="Y70" s="99"/>
-      <c r="Z70" s="99"/>
-      <c r="AA70" s="99"/>
-      <c r="AB70" s="99"/>
-      <c r="AC70" s="99"/>
-      <c r="AD70" s="99"/>
-      <c r="AE70" s="99"/>
-      <c r="AF70" s="99"/>
-      <c r="AG70" s="99"/>
-      <c r="AH70" s="99"/>
-      <c r="AI70" s="99"/>
-      <c r="AJ70" s="99"/>
-      <c r="AK70" s="99"/>
-      <c r="AL70" s="99"/>
-      <c r="AM70" s="99"/>
-      <c r="AN70" s="99"/>
-      <c r="AO70" s="99"/>
-      <c r="AP70" s="99"/>
-      <c r="AQ70" s="99"/>
-      <c r="AR70" s="99"/>
-      <c r="AS70" s="99"/>
-      <c r="AT70" s="99"/>
-      <c r="AU70" s="99"/>
-      <c r="AV70" s="99"/>
-      <c r="AW70" s="99"/>
-      <c r="AX70" s="99"/>
-      <c r="AY70" s="99"/>
-      <c r="AZ70" s="99"/>
-      <c r="BA70" s="99"/>
-      <c r="BB70" s="99"/>
-      <c r="BC70" s="99"/>
-      <c r="BD70" s="99"/>
-      <c r="BE70" s="99"/>
-      <c r="BF70" s="99"/>
-      <c r="BG70" s="99"/>
-      <c r="BH70" s="99"/>
-      <c r="BI70" s="99"/>
-      <c r="BJ70" s="99"/>
-      <c r="BK70" s="99"/>
-      <c r="BL70" s="99"/>
-      <c r="BM70" s="99"/>
-      <c r="BN70" s="99"/>
+      <c r="E70" s="172"/>
+      <c r="F70" s="172"/>
+      <c r="G70" s="176"/>
+      <c r="H70" s="186"/>
+      <c r="I70" s="187"/>
+      <c r="J70" s="89"/>
+      <c r="K70" s="101"/>
+      <c r="L70" s="101"/>
+      <c r="M70" s="101"/>
+      <c r="N70" s="101"/>
+      <c r="O70" s="101"/>
+      <c r="P70" s="101"/>
+      <c r="Q70" s="101"/>
+      <c r="R70" s="101"/>
+      <c r="S70" s="101"/>
+      <c r="T70" s="101"/>
+      <c r="U70" s="101"/>
+      <c r="V70" s="101"/>
+      <c r="W70" s="101"/>
+      <c r="X70" s="101"/>
+      <c r="Y70" s="101"/>
+      <c r="Z70" s="101"/>
+      <c r="AA70" s="101"/>
+      <c r="AB70" s="101"/>
+      <c r="AC70" s="101"/>
+      <c r="AD70" s="101"/>
+      <c r="AE70" s="101"/>
+      <c r="AF70" s="101"/>
+      <c r="AG70" s="101"/>
+      <c r="AH70" s="101"/>
+      <c r="AI70" s="101"/>
+      <c r="AJ70" s="101"/>
+      <c r="AK70" s="101"/>
+      <c r="AL70" s="101"/>
+      <c r="AM70" s="101"/>
+      <c r="AN70" s="101"/>
+      <c r="AO70" s="101"/>
+      <c r="AP70" s="101"/>
+      <c r="AQ70" s="101"/>
+      <c r="AR70" s="101"/>
+      <c r="AS70" s="101"/>
+      <c r="AT70" s="101"/>
+      <c r="AU70" s="101"/>
+      <c r="AV70" s="101"/>
+      <c r="AW70" s="101"/>
+      <c r="AX70" s="101"/>
+      <c r="AY70" s="101"/>
+      <c r="AZ70" s="101"/>
+      <c r="BA70" s="101"/>
+      <c r="BB70" s="101"/>
+      <c r="BC70" s="101"/>
+      <c r="BD70" s="101"/>
+      <c r="BE70" s="101"/>
+      <c r="BF70" s="101"/>
+      <c r="BG70" s="101"/>
+      <c r="BH70" s="101"/>
+      <c r="BI70" s="101"/>
+      <c r="BJ70" s="101"/>
+      <c r="BK70" s="101"/>
+      <c r="BL70" s="101"/>
+      <c r="BM70" s="101"/>
+      <c r="BN70" s="101"/>
+      <c r="BO70" s="203"/>
+      <c r="BP70" s="203"/>
+      <c r="BQ70" s="203"/>
+      <c r="BR70" s="203"/>
+      <c r="BS70" s="203"/>
+      <c r="BT70" s="203"/>
+      <c r="BU70" s="203"/>
+      <c r="BV70" s="203"/>
+      <c r="BW70" s="203"/>
+      <c r="BX70" s="203"/>
+      <c r="BY70" s="203"/>
+      <c r="BZ70" s="203"/>
+      <c r="CA70" s="203"/>
+      <c r="CB70" s="203"/>
+      <c r="CC70" s="203"/>
+      <c r="CD70" s="203"/>
+      <c r="CE70" s="203"/>
+      <c r="CF70" s="203"/>
+      <c r="CG70" s="203"/>
+      <c r="CH70" s="203"/>
+      <c r="CI70" s="203"/>
+      <c r="CJ70" s="203"/>
+      <c r="CK70" s="203"/>
+      <c r="CL70" s="203"/>
+      <c r="CM70" s="203"/>
+      <c r="CN70" s="203"/>
+      <c r="CO70" s="203"/>
+      <c r="CP70" s="203"/>
+      <c r="CQ70" s="203"/>
+      <c r="CR70" s="203"/>
+      <c r="CS70" s="203"/>
+      <c r="CT70" s="203"/>
+      <c r="CU70" s="203"/>
+      <c r="CV70" s="203"/>
+      <c r="CW70" s="203"/>
+      <c r="CX70" s="203"/>
+      <c r="CY70" s="203"/>
+      <c r="CZ70" s="203"/>
+      <c r="DA70" s="203"/>
+      <c r="DB70" s="203"/>
+      <c r="DC70" s="203"/>
+      <c r="DD70" s="203"/>
+      <c r="DE70" s="203"/>
+      <c r="DF70" s="203"/>
+      <c r="DG70" s="203"/>
+      <c r="DH70" s="203"/>
+      <c r="DI70" s="203"/>
+      <c r="DJ70" s="203"/>
+      <c r="DK70" s="203"/>
+      <c r="DL70" s="203"/>
+      <c r="DM70" s="203"/>
+      <c r="DN70" s="203"/>
+      <c r="DO70" s="203"/>
+      <c r="DP70" s="203"/>
+      <c r="DQ70" s="203"/>
+      <c r="DR70" s="203"/>
+      <c r="DS70" s="203"/>
+      <c r="DT70" s="203"/>
+      <c r="DU70" s="203"/>
+      <c r="DV70" s="203"/>
+      <c r="DW70" s="203"/>
+      <c r="DX70" s="203"/>
+      <c r="DY70" s="203"/>
+      <c r="DZ70" s="203"/>
+      <c r="EA70" s="203"/>
+      <c r="EB70" s="203"/>
+      <c r="EC70" s="203"/>
+      <c r="ED70" s="203"/>
+      <c r="EE70" s="203"/>
+      <c r="EF70" s="203"/>
+      <c r="EG70" s="203"/>
+      <c r="EH70" s="203"/>
+      <c r="EI70" s="203"/>
+      <c r="EJ70" s="203"/>
+      <c r="EK70" s="203"/>
+      <c r="EL70" s="203"/>
+      <c r="EM70" s="203"/>
+      <c r="EN70" s="203"/>
+      <c r="EO70" s="203"/>
+      <c r="EP70" s="203"/>
+      <c r="EQ70" s="203"/>
+      <c r="ER70" s="203"/>
+      <c r="ES70" s="203"/>
+      <c r="ET70" s="203"/>
+      <c r="EU70" s="203"/>
+      <c r="EV70" s="203"/>
+      <c r="EW70" s="203"/>
+      <c r="EX70" s="203"/>
+      <c r="EY70" s="203"/>
+      <c r="EZ70" s="203"/>
+      <c r="FA70" s="203"/>
+      <c r="FB70" s="203"/>
+      <c r="FC70" s="203"/>
+      <c r="FD70" s="203"/>
+      <c r="FE70" s="203"/>
+      <c r="FF70" s="203"/>
+      <c r="FG70" s="203"/>
+      <c r="FH70" s="203"/>
+      <c r="FI70" s="203"/>
+      <c r="FJ70" s="203"/>
+      <c r="FK70" s="203"/>
+      <c r="FL70" s="203"/>
+      <c r="FM70" s="203"/>
+      <c r="FN70" s="203"/>
+      <c r="FO70" s="203"/>
+      <c r="FP70" s="203"/>
+      <c r="FQ70" s="203"/>
+      <c r="FR70" s="203"/>
+      <c r="FS70" s="203"/>
+      <c r="FT70" s="203"/>
+      <c r="FU70" s="203"/>
+      <c r="FV70" s="203"/>
+      <c r="FW70" s="203"/>
+      <c r="FX70" s="203"/>
+      <c r="FY70" s="203"/>
+      <c r="FZ70" s="203"/>
+      <c r="GA70" s="203"/>
+      <c r="GB70" s="203"/>
+      <c r="GC70" s="203"/>
+      <c r="GD70" s="203"/>
+      <c r="GE70" s="203"/>
+      <c r="GF70" s="203"/>
+      <c r="GG70" s="203"/>
+      <c r="GH70" s="203"/>
+      <c r="GI70" s="203"/>
+      <c r="GJ70" s="203"/>
+      <c r="GK70" s="203"/>
+      <c r="GL70" s="203"/>
+      <c r="GM70" s="203"/>
+      <c r="GN70" s="203"/>
+      <c r="GO70" s="203"/>
+      <c r="GP70" s="203"/>
+      <c r="GQ70" s="203"/>
+      <c r="GR70" s="203"/>
+      <c r="GS70" s="203"/>
+      <c r="GT70" s="203"/>
+      <c r="GU70" s="203"/>
+      <c r="GV70" s="203"/>
     </row>
     <row r="71" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A71" s="159">
-        <v>4</v>
-      </c>
-      <c r="B71" s="168" t="s">
-        <v>141</v>
+      <c r="A71" s="160">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B71" s="190" t="s">
+        <v>201</v>
       </c>
       <c r="C71" s="60"/>
       <c r="D71" s="61"/>
-      <c r="E71" s="172"/>
-      <c r="F71" s="172"/>
-      <c r="G71" s="176"/>
-      <c r="H71" s="186"/>
-      <c r="I71" s="187"/>
-      <c r="J71" s="89"/>
-      <c r="K71" s="101"/>
-      <c r="L71" s="101"/>
-      <c r="M71" s="101"/>
-      <c r="N71" s="101"/>
-      <c r="O71" s="101"/>
-      <c r="P71" s="101"/>
-      <c r="Q71" s="101"/>
-      <c r="R71" s="101"/>
-      <c r="S71" s="101"/>
-      <c r="T71" s="101"/>
-      <c r="U71" s="101"/>
-      <c r="V71" s="101"/>
-      <c r="W71" s="101"/>
-      <c r="X71" s="101"/>
-      <c r="Y71" s="101"/>
-      <c r="Z71" s="101"/>
-      <c r="AA71" s="101"/>
-      <c r="AB71" s="101"/>
-      <c r="AC71" s="101"/>
-      <c r="AD71" s="101"/>
-      <c r="AE71" s="101"/>
-      <c r="AF71" s="101"/>
-      <c r="AG71" s="101"/>
-      <c r="AH71" s="101"/>
-      <c r="AI71" s="101"/>
-      <c r="AJ71" s="101"/>
-      <c r="AK71" s="101"/>
-      <c r="AL71" s="101"/>
-      <c r="AM71" s="101"/>
-      <c r="AN71" s="101"/>
-      <c r="AO71" s="101"/>
-      <c r="AP71" s="101"/>
-      <c r="AQ71" s="101"/>
-      <c r="AR71" s="101"/>
-      <c r="AS71" s="101"/>
-      <c r="AT71" s="101"/>
-      <c r="AU71" s="101"/>
-      <c r="AV71" s="101"/>
-      <c r="AW71" s="101"/>
-      <c r="AX71" s="101"/>
-      <c r="AY71" s="101"/>
-      <c r="AZ71" s="101"/>
-      <c r="BA71" s="101"/>
-      <c r="BB71" s="101"/>
-      <c r="BC71" s="101"/>
-      <c r="BD71" s="101"/>
-      <c r="BE71" s="101"/>
-      <c r="BF71" s="101"/>
-      <c r="BG71" s="101"/>
-      <c r="BH71" s="101"/>
-      <c r="BI71" s="101"/>
-      <c r="BJ71" s="101"/>
-      <c r="BK71" s="101"/>
-      <c r="BL71" s="101"/>
-      <c r="BM71" s="101"/>
-      <c r="BN71" s="101"/>
-      <c r="BO71" s="203"/>
-      <c r="BP71" s="203"/>
-      <c r="BQ71" s="203"/>
-      <c r="BR71" s="203"/>
-      <c r="BS71" s="203"/>
-      <c r="BT71" s="203"/>
-      <c r="BU71" s="203"/>
-      <c r="BV71" s="203"/>
-      <c r="BW71" s="203"/>
-      <c r="BX71" s="203"/>
-      <c r="BY71" s="203"/>
-      <c r="BZ71" s="203"/>
-      <c r="CA71" s="203"/>
-      <c r="CB71" s="203"/>
-      <c r="CC71" s="203"/>
-      <c r="CD71" s="203"/>
-      <c r="CE71" s="203"/>
-      <c r="CF71" s="203"/>
-      <c r="CG71" s="203"/>
-      <c r="CH71" s="203"/>
-      <c r="CI71" s="203"/>
-      <c r="CJ71" s="203"/>
-      <c r="CK71" s="203"/>
-      <c r="CL71" s="203"/>
-      <c r="CM71" s="203"/>
-      <c r="CN71" s="203"/>
-      <c r="CO71" s="203"/>
-      <c r="CP71" s="203"/>
-      <c r="CQ71" s="203"/>
-      <c r="CR71" s="203"/>
-      <c r="CS71" s="203"/>
-      <c r="CT71" s="203"/>
-      <c r="CU71" s="203"/>
-      <c r="CV71" s="203"/>
-      <c r="CW71" s="203"/>
-      <c r="CX71" s="203"/>
-      <c r="CY71" s="203"/>
-      <c r="CZ71" s="203"/>
-      <c r="DA71" s="203"/>
-      <c r="DB71" s="203"/>
-      <c r="DC71" s="203"/>
-      <c r="DD71" s="203"/>
-      <c r="DE71" s="203"/>
-      <c r="DF71" s="203"/>
-      <c r="DG71" s="203"/>
-      <c r="DH71" s="203"/>
-      <c r="DI71" s="203"/>
-      <c r="DJ71" s="203"/>
-      <c r="DK71" s="203"/>
-      <c r="DL71" s="203"/>
-      <c r="DM71" s="203"/>
-      <c r="DN71" s="203"/>
-      <c r="DO71" s="203"/>
-      <c r="DP71" s="203"/>
-      <c r="DQ71" s="203"/>
-      <c r="DR71" s="203"/>
-      <c r="DS71" s="203"/>
-      <c r="DT71" s="203"/>
-      <c r="DU71" s="203"/>
-      <c r="DV71" s="203"/>
-      <c r="DW71" s="203"/>
-      <c r="DX71" s="203"/>
-      <c r="DY71" s="203"/>
-      <c r="DZ71" s="203"/>
-      <c r="EA71" s="203"/>
-      <c r="EB71" s="203"/>
-      <c r="EC71" s="203"/>
-      <c r="ED71" s="203"/>
-      <c r="EE71" s="203"/>
-      <c r="EF71" s="203"/>
-      <c r="EG71" s="203"/>
-      <c r="EH71" s="203"/>
-      <c r="EI71" s="203"/>
-      <c r="EJ71" s="203"/>
-      <c r="EK71" s="203"/>
-      <c r="EL71" s="203"/>
-      <c r="EM71" s="203"/>
-      <c r="EN71" s="203"/>
-      <c r="EO71" s="203"/>
-      <c r="EP71" s="203"/>
-      <c r="EQ71" s="203"/>
-      <c r="ER71" s="203"/>
-      <c r="ES71" s="203"/>
-      <c r="ET71" s="203"/>
-      <c r="EU71" s="203"/>
-      <c r="EV71" s="203"/>
-      <c r="EW71" s="203"/>
-      <c r="EX71" s="203"/>
-      <c r="EY71" s="203"/>
-      <c r="EZ71" s="203"/>
-      <c r="FA71" s="203"/>
-      <c r="FB71" s="203"/>
-      <c r="FC71" s="203"/>
-      <c r="FD71" s="203"/>
-      <c r="FE71" s="203"/>
-      <c r="FF71" s="203"/>
-      <c r="FG71" s="203"/>
-      <c r="FH71" s="203"/>
-      <c r="FI71" s="203"/>
-      <c r="FJ71" s="203"/>
-      <c r="FK71" s="203"/>
-      <c r="FL71" s="203"/>
-      <c r="FM71" s="203"/>
-      <c r="FN71" s="203"/>
-      <c r="FO71" s="203"/>
-      <c r="FP71" s="203"/>
-      <c r="FQ71" s="203"/>
-      <c r="FR71" s="203"/>
-      <c r="FS71" s="203"/>
-      <c r="FT71" s="203"/>
-      <c r="FU71" s="203"/>
-      <c r="FV71" s="203"/>
-      <c r="FW71" s="203"/>
-      <c r="FX71" s="203"/>
-      <c r="FY71" s="203"/>
-      <c r="FZ71" s="203"/>
-      <c r="GA71" s="203"/>
-      <c r="GB71" s="203"/>
-      <c r="GC71" s="203"/>
-      <c r="GD71" s="203"/>
-      <c r="GE71" s="203"/>
-      <c r="GF71" s="203"/>
-      <c r="GG71" s="203"/>
-      <c r="GH71" s="203"/>
-      <c r="GI71" s="203"/>
-      <c r="GJ71" s="203"/>
-      <c r="GK71" s="203"/>
-      <c r="GL71" s="203"/>
-      <c r="GM71" s="203"/>
-      <c r="GN71" s="203"/>
-      <c r="GO71" s="203"/>
-      <c r="GP71" s="203"/>
-      <c r="GQ71" s="203"/>
-      <c r="GR71" s="203"/>
-      <c r="GS71" s="203"/>
-      <c r="GT71" s="203"/>
-      <c r="GU71" s="203"/>
-      <c r="GV71" s="203"/>
+      <c r="E71" s="196" t="s">
+        <v>280</v>
+      </c>
+      <c r="F71" s="173" t="s">
+        <v>280</v>
+      </c>
+      <c r="G71" s="192">
+        <v>1</v>
+      </c>
+      <c r="H71" s="193"/>
+      <c r="I71" s="188">
+        <v>1</v>
+      </c>
+      <c r="J71" s="90"/>
+      <c r="K71" s="99"/>
+      <c r="L71" s="99"/>
+      <c r="M71" s="99"/>
+      <c r="N71" s="99"/>
+      <c r="O71" s="99"/>
+      <c r="P71" s="99"/>
+      <c r="Q71" s="99"/>
+      <c r="R71" s="99"/>
+      <c r="S71" s="99"/>
+      <c r="T71" s="99"/>
+      <c r="U71" s="99"/>
+      <c r="V71" s="99"/>
+      <c r="W71" s="99"/>
+      <c r="X71" s="99"/>
+      <c r="Y71" s="99"/>
+      <c r="Z71" s="99"/>
+      <c r="AA71" s="99"/>
+      <c r="AB71" s="99"/>
+      <c r="AC71" s="99"/>
+      <c r="AD71" s="99"/>
+      <c r="AE71" s="99"/>
+      <c r="AF71" s="99"/>
+      <c r="AG71" s="99"/>
+      <c r="AH71" s="99"/>
+      <c r="AI71" s="99"/>
+      <c r="AJ71" s="99"/>
+      <c r="AK71" s="99"/>
+      <c r="AL71" s="99"/>
+      <c r="AM71" s="99"/>
+      <c r="AN71" s="99"/>
+      <c r="AO71" s="99"/>
+      <c r="AP71" s="99"/>
+      <c r="AQ71" s="99"/>
+      <c r="AR71" s="99"/>
+      <c r="AS71" s="99"/>
+      <c r="AT71" s="99"/>
+      <c r="AU71" s="99"/>
+      <c r="AV71" s="99"/>
+      <c r="AW71" s="99"/>
+      <c r="AX71" s="99"/>
+      <c r="AY71" s="99"/>
+      <c r="AZ71" s="99"/>
+      <c r="BA71" s="99"/>
+      <c r="BB71" s="99"/>
+      <c r="BC71" s="99"/>
+      <c r="BD71" s="99"/>
+      <c r="BE71" s="99"/>
+      <c r="BF71" s="99"/>
+      <c r="BG71" s="99"/>
+      <c r="BH71" s="99"/>
+      <c r="BI71" s="99"/>
+      <c r="BJ71" s="99"/>
+      <c r="BK71" s="99"/>
+      <c r="BL71" s="99"/>
+      <c r="BM71" s="99"/>
+      <c r="BN71" s="99"/>
     </row>
     <row r="72" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A72" s="160">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="B72" s="190" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C72" s="60"/>
       <c r="D72" s="61"/>
       <c r="E72" s="196" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F72" s="173" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G72" s="192">
-        <v>3</v>
-      </c>
-      <c r="H72" s="193">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H72" s="193"/>
       <c r="I72" s="188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J72" s="90"/>
       <c r="K72" s="99"/>
@@ -11277,27 +11188,25 @@
     </row>
     <row r="73" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A73" s="160">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="B73" s="190" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C73" s="60"/>
       <c r="D73" s="61"/>
       <c r="E73" s="196" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="F73" s="173" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="G73" s="192">
-        <v>3</v>
-      </c>
-      <c r="H73" s="193">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H73" s="193"/>
       <c r="I73" s="188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J73" s="90"/>
       <c r="K73" s="99"/>
@@ -11358,312 +11267,318 @@
       <c r="BN73" s="99"/>
     </row>
     <row r="74" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A74" s="160">
-        <v>4.3</v>
-      </c>
-      <c r="B74" s="190" t="s">
-        <v>216</v>
+      <c r="A74" s="159">
+        <v>5</v>
+      </c>
+      <c r="B74" s="168" t="s">
+        <v>137</v>
       </c>
       <c r="C74" s="60"/>
       <c r="D74" s="61"/>
-      <c r="E74" s="196" t="s">
-        <v>279</v>
-      </c>
-      <c r="F74" s="173" t="s">
-        <v>265</v>
-      </c>
-      <c r="G74" s="192">
-        <v>3</v>
-      </c>
-      <c r="H74" s="193">
-        <v>0</v>
-      </c>
-      <c r="I74" s="188">
-        <v>3</v>
-      </c>
-      <c r="J74" s="90"/>
-      <c r="K74" s="99"/>
-      <c r="L74" s="99"/>
-      <c r="M74" s="99"/>
-      <c r="N74" s="99"/>
-      <c r="O74" s="99"/>
-      <c r="P74" s="99"/>
-      <c r="Q74" s="99"/>
-      <c r="R74" s="99"/>
-      <c r="S74" s="99"/>
-      <c r="T74" s="99"/>
-      <c r="U74" s="99"/>
-      <c r="V74" s="99"/>
-      <c r="W74" s="99"/>
-      <c r="X74" s="99"/>
-      <c r="Y74" s="99"/>
-      <c r="Z74" s="99"/>
-      <c r="AA74" s="99"/>
-      <c r="AB74" s="99"/>
-      <c r="AC74" s="99"/>
-      <c r="AD74" s="99"/>
-      <c r="AE74" s="99"/>
-      <c r="AF74" s="99"/>
-      <c r="AG74" s="99"/>
-      <c r="AH74" s="99"/>
-      <c r="AI74" s="99"/>
-      <c r="AJ74" s="99"/>
-      <c r="AK74" s="99"/>
-      <c r="AL74" s="99"/>
-      <c r="AM74" s="99"/>
-      <c r="AN74" s="99"/>
-      <c r="AO74" s="99"/>
-      <c r="AP74" s="99"/>
-      <c r="AQ74" s="99"/>
-      <c r="AR74" s="99"/>
-      <c r="AS74" s="99"/>
-      <c r="AT74" s="99"/>
-      <c r="AU74" s="99"/>
-      <c r="AV74" s="99"/>
-      <c r="AW74" s="99"/>
-      <c r="AX74" s="99"/>
-      <c r="AY74" s="99"/>
-      <c r="AZ74" s="99"/>
-      <c r="BA74" s="99"/>
-      <c r="BB74" s="99"/>
-      <c r="BC74" s="99"/>
-      <c r="BD74" s="99"/>
-      <c r="BE74" s="99"/>
-      <c r="BF74" s="99"/>
-      <c r="BG74" s="99"/>
-      <c r="BH74" s="99"/>
-      <c r="BI74" s="99"/>
-      <c r="BJ74" s="99"/>
-      <c r="BK74" s="99"/>
-      <c r="BL74" s="99"/>
-      <c r="BM74" s="99"/>
-      <c r="BN74" s="99"/>
+      <c r="E74" s="172"/>
+      <c r="F74" s="176"/>
+      <c r="G74" s="186"/>
+      <c r="H74" s="187"/>
+      <c r="I74" s="189"/>
+      <c r="J74" s="89"/>
+      <c r="K74" s="101"/>
+      <c r="L74" s="101"/>
+      <c r="M74" s="101"/>
+      <c r="N74" s="101"/>
+      <c r="O74" s="101"/>
+      <c r="P74" s="101"/>
+      <c r="Q74" s="101"/>
+      <c r="R74" s="101"/>
+      <c r="S74" s="101"/>
+      <c r="T74" s="101"/>
+      <c r="U74" s="101"/>
+      <c r="V74" s="101"/>
+      <c r="W74" s="101"/>
+      <c r="X74" s="101"/>
+      <c r="Y74" s="101"/>
+      <c r="Z74" s="101"/>
+      <c r="AA74" s="101"/>
+      <c r="AB74" s="101"/>
+      <c r="AC74" s="101"/>
+      <c r="AD74" s="101"/>
+      <c r="AE74" s="101"/>
+      <c r="AF74" s="101"/>
+      <c r="AG74" s="101"/>
+      <c r="AH74" s="101"/>
+      <c r="AI74" s="101"/>
+      <c r="AJ74" s="101"/>
+      <c r="AK74" s="101"/>
+      <c r="AL74" s="101"/>
+      <c r="AM74" s="101"/>
+      <c r="AN74" s="101"/>
+      <c r="AO74" s="101"/>
+      <c r="AP74" s="101"/>
+      <c r="AQ74" s="101"/>
+      <c r="AR74" s="101"/>
+      <c r="AS74" s="101"/>
+      <c r="AT74" s="101"/>
+      <c r="AU74" s="101"/>
+      <c r="AV74" s="101"/>
+      <c r="AW74" s="101"/>
+      <c r="AX74" s="101"/>
+      <c r="AY74" s="101"/>
+      <c r="AZ74" s="101"/>
+      <c r="BA74" s="101"/>
+      <c r="BB74" s="101"/>
+      <c r="BC74" s="101"/>
+      <c r="BD74" s="101"/>
+      <c r="BE74" s="101"/>
+      <c r="BF74" s="101"/>
+      <c r="BG74" s="101"/>
+      <c r="BH74" s="101"/>
+      <c r="BI74" s="101"/>
+      <c r="BJ74" s="101"/>
+      <c r="BK74" s="101"/>
+      <c r="BL74" s="101"/>
+      <c r="BM74" s="101"/>
+      <c r="BN74" s="101"/>
+      <c r="BO74" s="203"/>
+      <c r="BP74" s="203"/>
+      <c r="BQ74" s="203"/>
+      <c r="BR74" s="203"/>
+      <c r="BS74" s="203"/>
+      <c r="BT74" s="203"/>
+      <c r="BU74" s="203"/>
+      <c r="BV74" s="203"/>
+      <c r="BW74" s="203"/>
+      <c r="BX74" s="203"/>
+      <c r="BY74" s="203"/>
+      <c r="BZ74" s="203"/>
+      <c r="CA74" s="203"/>
+      <c r="CB74" s="203"/>
+      <c r="CC74" s="203"/>
+      <c r="CD74" s="203"/>
+      <c r="CE74" s="203"/>
+      <c r="CF74" s="203"/>
+      <c r="CG74" s="203"/>
+      <c r="CH74" s="203"/>
+      <c r="CI74" s="203"/>
+      <c r="CJ74" s="203"/>
+      <c r="CK74" s="203"/>
+      <c r="CL74" s="203"/>
+      <c r="CM74" s="203"/>
+      <c r="CN74" s="203"/>
+      <c r="CO74" s="203"/>
+      <c r="CP74" s="203"/>
+      <c r="CQ74" s="203"/>
+      <c r="CR74" s="203"/>
+      <c r="CS74" s="203"/>
+      <c r="CT74" s="203"/>
+      <c r="CU74" s="203"/>
+      <c r="CV74" s="203"/>
+      <c r="CW74" s="203"/>
+      <c r="CX74" s="203"/>
+      <c r="CY74" s="203"/>
+      <c r="CZ74" s="203"/>
+      <c r="DA74" s="203"/>
+      <c r="DB74" s="203"/>
+      <c r="DC74" s="203"/>
+      <c r="DD74" s="203"/>
+      <c r="DE74" s="203"/>
+      <c r="DF74" s="203"/>
+      <c r="DG74" s="203"/>
+      <c r="DH74" s="203"/>
+      <c r="DI74" s="203"/>
+      <c r="DJ74" s="203"/>
+      <c r="DK74" s="203"/>
+      <c r="DL74" s="203"/>
+      <c r="DM74" s="203"/>
+      <c r="DN74" s="203"/>
+      <c r="DO74" s="203"/>
+      <c r="DP74" s="203"/>
+      <c r="DQ74" s="203"/>
+      <c r="DR74" s="203"/>
+      <c r="DS74" s="203"/>
+      <c r="DT74" s="203"/>
+      <c r="DU74" s="203"/>
+      <c r="DV74" s="203"/>
+      <c r="DW74" s="203"/>
+      <c r="DX74" s="203"/>
+      <c r="DY74" s="203"/>
+      <c r="DZ74" s="203"/>
+      <c r="EA74" s="203"/>
+      <c r="EB74" s="203"/>
+      <c r="EC74" s="203"/>
+      <c r="ED74" s="203"/>
+      <c r="EE74" s="203"/>
+      <c r="EF74" s="203"/>
+      <c r="EG74" s="203"/>
+      <c r="EH74" s="203"/>
+      <c r="EI74" s="203"/>
+      <c r="EJ74" s="203"/>
+      <c r="EK74" s="203"/>
+      <c r="EL74" s="203"/>
+      <c r="EM74" s="203"/>
+      <c r="EN74" s="203"/>
+      <c r="EO74" s="203"/>
+      <c r="EP74" s="203"/>
+      <c r="EQ74" s="203"/>
+      <c r="ER74" s="203"/>
+      <c r="ES74" s="203"/>
+      <c r="ET74" s="203"/>
+      <c r="EU74" s="203"/>
+      <c r="EV74" s="203"/>
+      <c r="EW74" s="203"/>
+      <c r="EX74" s="203"/>
+      <c r="EY74" s="203"/>
+      <c r="EZ74" s="203"/>
+      <c r="FA74" s="203"/>
+      <c r="FB74" s="203"/>
+      <c r="FC74" s="203"/>
+      <c r="FD74" s="203"/>
+      <c r="FE74" s="203"/>
+      <c r="FF74" s="203"/>
+      <c r="FG74" s="203"/>
+      <c r="FH74" s="203"/>
+      <c r="FI74" s="203"/>
+      <c r="FJ74" s="203"/>
+      <c r="FK74" s="203"/>
+      <c r="FL74" s="203"/>
+      <c r="FM74" s="203"/>
+      <c r="FN74" s="203"/>
+      <c r="FO74" s="203"/>
+      <c r="FP74" s="203"/>
+      <c r="FQ74" s="203"/>
+      <c r="FR74" s="203"/>
+      <c r="FS74" s="203"/>
+      <c r="FT74" s="203"/>
+      <c r="FU74" s="203"/>
+      <c r="FV74" s="203"/>
+      <c r="FW74" s="203"/>
+      <c r="FX74" s="203"/>
+      <c r="FY74" s="203"/>
+      <c r="FZ74" s="203"/>
+      <c r="GA74" s="203"/>
+      <c r="GB74" s="203"/>
+      <c r="GC74" s="203"/>
+      <c r="GD74" s="203"/>
+      <c r="GE74" s="203"/>
+      <c r="GF74" s="203"/>
+      <c r="GG74" s="203"/>
+      <c r="GH74" s="203"/>
+      <c r="GI74" s="203"/>
+      <c r="GJ74" s="203"/>
+      <c r="GK74" s="203"/>
+      <c r="GL74" s="203"/>
+      <c r="GM74" s="203"/>
+      <c r="GN74" s="203"/>
+      <c r="GO74" s="203"/>
+      <c r="GP74" s="203"/>
+      <c r="GQ74" s="203"/>
+      <c r="GR74" s="203"/>
+      <c r="GS74" s="203"/>
+      <c r="GT74" s="203"/>
+      <c r="GU74" s="203"/>
+      <c r="GV74" s="203"/>
+      <c r="GW74" s="203"/>
     </row>
     <row r="75" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A75" s="159">
-        <v>5</v>
-      </c>
-      <c r="B75" s="168" t="s">
-        <v>140</v>
+      <c r="A75" s="160">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B75" s="190" t="s">
+        <v>204</v>
       </c>
       <c r="C75" s="60"/>
       <c r="D75" s="61"/>
-      <c r="E75" s="172"/>
-      <c r="F75" s="176"/>
-      <c r="G75" s="186"/>
-      <c r="H75" s="187"/>
-      <c r="I75" s="189"/>
-      <c r="J75" s="89"/>
-      <c r="K75" s="101"/>
-      <c r="L75" s="101"/>
-      <c r="M75" s="101"/>
-      <c r="N75" s="101"/>
-      <c r="O75" s="101"/>
-      <c r="P75" s="101"/>
-      <c r="Q75" s="101"/>
-      <c r="R75" s="101"/>
-      <c r="S75" s="101"/>
-      <c r="T75" s="101"/>
-      <c r="U75" s="101"/>
-      <c r="V75" s="101"/>
-      <c r="W75" s="101"/>
-      <c r="X75" s="101"/>
-      <c r="Y75" s="101"/>
-      <c r="Z75" s="101"/>
-      <c r="AA75" s="101"/>
-      <c r="AB75" s="101"/>
-      <c r="AC75" s="101"/>
-      <c r="AD75" s="101"/>
-      <c r="AE75" s="101"/>
-      <c r="AF75" s="101"/>
-      <c r="AG75" s="101"/>
-      <c r="AH75" s="101"/>
-      <c r="AI75" s="101"/>
-      <c r="AJ75" s="101"/>
-      <c r="AK75" s="101"/>
-      <c r="AL75" s="101"/>
-      <c r="AM75" s="101"/>
-      <c r="AN75" s="101"/>
-      <c r="AO75" s="101"/>
-      <c r="AP75" s="101"/>
-      <c r="AQ75" s="101"/>
-      <c r="AR75" s="101"/>
-      <c r="AS75" s="101"/>
-      <c r="AT75" s="101"/>
-      <c r="AU75" s="101"/>
-      <c r="AV75" s="101"/>
-      <c r="AW75" s="101"/>
-      <c r="AX75" s="101"/>
-      <c r="AY75" s="101"/>
-      <c r="AZ75" s="101"/>
-      <c r="BA75" s="101"/>
-      <c r="BB75" s="101"/>
-      <c r="BC75" s="101"/>
-      <c r="BD75" s="101"/>
-      <c r="BE75" s="101"/>
-      <c r="BF75" s="101"/>
-      <c r="BG75" s="101"/>
-      <c r="BH75" s="101"/>
-      <c r="BI75" s="101"/>
-      <c r="BJ75" s="101"/>
-      <c r="BK75" s="101"/>
-      <c r="BL75" s="101"/>
-      <c r="BM75" s="101"/>
-      <c r="BN75" s="101"/>
-      <c r="BO75" s="203"/>
-      <c r="BP75" s="203"/>
-      <c r="BQ75" s="203"/>
-      <c r="BR75" s="203"/>
-      <c r="BS75" s="203"/>
-      <c r="BT75" s="203"/>
-      <c r="BU75" s="203"/>
-      <c r="BV75" s="203"/>
-      <c r="BW75" s="203"/>
-      <c r="BX75" s="203"/>
-      <c r="BY75" s="203"/>
-      <c r="BZ75" s="203"/>
-      <c r="CA75" s="203"/>
-      <c r="CB75" s="203"/>
-      <c r="CC75" s="203"/>
-      <c r="CD75" s="203"/>
-      <c r="CE75" s="203"/>
-      <c r="CF75" s="203"/>
-      <c r="CG75" s="203"/>
-      <c r="CH75" s="203"/>
-      <c r="CI75" s="203"/>
-      <c r="CJ75" s="203"/>
-      <c r="CK75" s="203"/>
-      <c r="CL75" s="203"/>
-      <c r="CM75" s="203"/>
-      <c r="CN75" s="203"/>
-      <c r="CO75" s="203"/>
-      <c r="CP75" s="203"/>
-      <c r="CQ75" s="203"/>
-      <c r="CR75" s="203"/>
-      <c r="CS75" s="203"/>
-      <c r="CT75" s="203"/>
-      <c r="CU75" s="203"/>
-      <c r="CV75" s="203"/>
-      <c r="CW75" s="203"/>
-      <c r="CX75" s="203"/>
-      <c r="CY75" s="203"/>
-      <c r="CZ75" s="203"/>
-      <c r="DA75" s="203"/>
-      <c r="DB75" s="203"/>
-      <c r="DC75" s="203"/>
-      <c r="DD75" s="203"/>
-      <c r="DE75" s="203"/>
-      <c r="DF75" s="203"/>
-      <c r="DG75" s="203"/>
-      <c r="DH75" s="203"/>
-      <c r="DI75" s="203"/>
-      <c r="DJ75" s="203"/>
-      <c r="DK75" s="203"/>
-      <c r="DL75" s="203"/>
-      <c r="DM75" s="203"/>
-      <c r="DN75" s="203"/>
-      <c r="DO75" s="203"/>
-      <c r="DP75" s="203"/>
-      <c r="DQ75" s="203"/>
-      <c r="DR75" s="203"/>
-      <c r="DS75" s="203"/>
-      <c r="DT75" s="203"/>
-      <c r="DU75" s="203"/>
-      <c r="DV75" s="203"/>
-      <c r="DW75" s="203"/>
-      <c r="DX75" s="203"/>
-      <c r="DY75" s="203"/>
-      <c r="DZ75" s="203"/>
-      <c r="EA75" s="203"/>
-      <c r="EB75" s="203"/>
-      <c r="EC75" s="203"/>
-      <c r="ED75" s="203"/>
-      <c r="EE75" s="203"/>
-      <c r="EF75" s="203"/>
-      <c r="EG75" s="203"/>
-      <c r="EH75" s="203"/>
-      <c r="EI75" s="203"/>
-      <c r="EJ75" s="203"/>
-      <c r="EK75" s="203"/>
-      <c r="EL75" s="203"/>
-      <c r="EM75" s="203"/>
-      <c r="EN75" s="203"/>
-      <c r="EO75" s="203"/>
-      <c r="EP75" s="203"/>
-      <c r="EQ75" s="203"/>
-      <c r="ER75" s="203"/>
-      <c r="ES75" s="203"/>
-      <c r="ET75" s="203"/>
-      <c r="EU75" s="203"/>
-      <c r="EV75" s="203"/>
-      <c r="EW75" s="203"/>
-      <c r="EX75" s="203"/>
-      <c r="EY75" s="203"/>
-      <c r="EZ75" s="203"/>
-      <c r="FA75" s="203"/>
-      <c r="FB75" s="203"/>
-      <c r="FC75" s="203"/>
-      <c r="FD75" s="203"/>
-      <c r="FE75" s="203"/>
-      <c r="FF75" s="203"/>
-      <c r="FG75" s="203"/>
-      <c r="FH75" s="203"/>
-      <c r="FI75" s="203"/>
-      <c r="FJ75" s="203"/>
-      <c r="FK75" s="203"/>
-      <c r="FL75" s="203"/>
-      <c r="FM75" s="203"/>
-      <c r="FN75" s="203"/>
-      <c r="FO75" s="203"/>
-      <c r="FP75" s="203"/>
-      <c r="FQ75" s="203"/>
-      <c r="FR75" s="203"/>
-      <c r="FS75" s="203"/>
-      <c r="FT75" s="203"/>
-      <c r="FU75" s="203"/>
-      <c r="FV75" s="203"/>
-      <c r="FW75" s="203"/>
-      <c r="FX75" s="203"/>
-      <c r="FY75" s="203"/>
-      <c r="FZ75" s="203"/>
-      <c r="GA75" s="203"/>
-      <c r="GB75" s="203"/>
-      <c r="GC75" s="203"/>
-      <c r="GD75" s="203"/>
-      <c r="GE75" s="203"/>
-      <c r="GF75" s="203"/>
-      <c r="GG75" s="203"/>
-      <c r="GH75" s="203"/>
-      <c r="GI75" s="203"/>
-      <c r="GJ75" s="203"/>
-      <c r="GK75" s="203"/>
-      <c r="GL75" s="203"/>
-      <c r="GM75" s="203"/>
-      <c r="GN75" s="203"/>
-      <c r="GO75" s="203"/>
-      <c r="GP75" s="203"/>
-      <c r="GQ75" s="203"/>
-      <c r="GR75" s="203"/>
-      <c r="GS75" s="203"/>
-      <c r="GT75" s="203"/>
-      <c r="GU75" s="203"/>
-      <c r="GV75" s="203"/>
-      <c r="GW75" s="203"/>
+      <c r="E75" s="196" t="s">
+        <v>283</v>
+      </c>
+      <c r="F75" s="173" t="s">
+        <v>284</v>
+      </c>
+      <c r="G75" s="192">
+        <v>2</v>
+      </c>
+      <c r="H75" s="193"/>
+      <c r="I75" s="188">
+        <v>2</v>
+      </c>
+      <c r="J75" s="90"/>
+      <c r="K75" s="99"/>
+      <c r="L75" s="99"/>
+      <c r="M75" s="99"/>
+      <c r="N75" s="99"/>
+      <c r="O75" s="99"/>
+      <c r="P75" s="99"/>
+      <c r="Q75" s="99"/>
+      <c r="R75" s="99"/>
+      <c r="S75" s="99"/>
+      <c r="T75" s="99"/>
+      <c r="U75" s="99"/>
+      <c r="V75" s="99"/>
+      <c r="W75" s="99"/>
+      <c r="X75" s="99"/>
+      <c r="Y75" s="99"/>
+      <c r="Z75" s="99"/>
+      <c r="AA75" s="99"/>
+      <c r="AB75" s="99"/>
+      <c r="AC75" s="99"/>
+      <c r="AD75" s="99"/>
+      <c r="AE75" s="99"/>
+      <c r="AF75" s="99"/>
+      <c r="AG75" s="99"/>
+      <c r="AH75" s="99"/>
+      <c r="AI75" s="99"/>
+      <c r="AJ75" s="99"/>
+      <c r="AK75" s="99"/>
+      <c r="AL75" s="99"/>
+      <c r="AM75" s="99"/>
+      <c r="AN75" s="99"/>
+      <c r="AO75" s="99"/>
+      <c r="AP75" s="99"/>
+      <c r="AQ75" s="99"/>
+      <c r="AR75" s="99"/>
+      <c r="AS75" s="99"/>
+      <c r="AT75" s="99"/>
+      <c r="AU75" s="99"/>
+      <c r="AV75" s="99"/>
+      <c r="AW75" s="99"/>
+      <c r="AX75" s="99"/>
+      <c r="AY75" s="99"/>
+      <c r="AZ75" s="99"/>
+      <c r="BA75" s="99"/>
+      <c r="BB75" s="99"/>
+      <c r="BC75" s="99"/>
+      <c r="BD75" s="99"/>
+      <c r="BE75" s="99"/>
+      <c r="BF75" s="99"/>
+      <c r="BG75" s="99"/>
+      <c r="BH75" s="99"/>
+      <c r="BI75" s="99"/>
+      <c r="BJ75" s="99"/>
+      <c r="BK75" s="99"/>
+      <c r="BL75" s="99"/>
+      <c r="BM75" s="99"/>
+      <c r="BN75" s="99"/>
     </row>
     <row r="76" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A76" s="160">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="B76" s="190" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C76" s="60"/>
       <c r="D76" s="61"/>
-      <c r="E76" s="196"/>
-      <c r="F76" s="173"/>
-      <c r="G76" s="192"/>
+      <c r="E76" s="196" t="s">
+        <v>285</v>
+      </c>
+      <c r="F76" s="173" t="s">
+        <v>286</v>
+      </c>
+      <c r="G76" s="192">
+        <v>6</v>
+      </c>
       <c r="H76" s="193"/>
-      <c r="I76" s="188"/>
+      <c r="I76" s="188">
+        <v>6</v>
+      </c>
       <c r="J76" s="90"/>
       <c r="K76" s="99"/>
       <c r="L76" s="99"/>
@@ -11723,19 +11638,15 @@
       <c r="BN76" s="99"/>
     </row>
     <row r="77" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A77" s="160">
-        <v>5.2</v>
-      </c>
-      <c r="B77" s="190" t="s">
-        <v>218</v>
-      </c>
+      <c r="A77" s="154"/>
+      <c r="B77" s="155"/>
       <c r="C77" s="60"/>
       <c r="D77" s="61"/>
-      <c r="E77" s="196"/>
-      <c r="F77" s="173"/>
-      <c r="G77" s="192"/>
-      <c r="H77" s="193"/>
-      <c r="I77" s="188"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="95"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="64"/>
       <c r="J77" s="90"/>
       <c r="K77" s="99"/>
       <c r="L77" s="99"/>
@@ -11863,15 +11774,18 @@
       <c r="BN78" s="99"/>
     </row>
     <row r="79" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A79" s="154"/>
-      <c r="B79" s="155"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="60"/>
       <c r="C79" s="60"/>
       <c r="D79" s="61"/>
       <c r="E79" s="95"/>
       <c r="F79" s="95"/>
       <c r="G79" s="62"/>
       <c r="H79" s="63"/>
-      <c r="I79" s="64"/>
+      <c r="I79" s="64" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J79" s="90"/>
       <c r="K79" s="99"/>
       <c r="L79" s="99"/>
@@ -11930,20 +11844,19 @@
       <c r="BM79" s="99"/>
       <c r="BN79" s="99"/>
     </row>
-    <row r="80" spans="1:205" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A80" s="56"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="95"/>
-      <c r="F80" s="95"/>
-      <c r="G80" s="62"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="64" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J80" s="90"/>
+    <row r="80" spans="1:205" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A80" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="67"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="96"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
+      <c r="J80" s="91"/>
       <c r="K80" s="99"/>
       <c r="L80" s="99"/>
       <c r="M80" s="99"/>
@@ -12001,18 +11914,18 @@
       <c r="BM80" s="99"/>
       <c r="BN80" s="99"/>
     </row>
-    <row r="81" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A81" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="67"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="69"/>
-      <c r="H81" s="69"/>
-      <c r="I81" s="69"/>
+    <row r="81" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A81" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="72"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="97"/>
+      <c r="F81" s="97"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
       <c r="J81" s="91"/>
       <c r="K81" s="99"/>
       <c r="L81" s="99"/>
@@ -12072,18 +11985,27 @@
       <c r="BN81" s="99"/>
     </row>
     <row r="82" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A82" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" s="72"/>
-      <c r="C82" s="72"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="97"/>
-      <c r="F82" s="97"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="72"/>
-      <c r="I82" s="72"/>
-      <c r="J82" s="91"/>
+      <c r="A82" s="120" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B82" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="73"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="93"/>
+      <c r="F82" s="94" t="str">
+        <f t="shared" ref="F82:F85" si="8">IF(ISBLANK(E82)," - ",IF(G82=0,E82,E82+G82-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G82" s="58"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="75" t="str">
+        <f>IF(OR(F82=0,E82=0)," - ",NETWORKDAYS(E82,F82))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J82" s="92"/>
       <c r="K82" s="99"/>
       <c r="L82" s="99"/>
       <c r="M82" s="99"/>
@@ -12142,24 +12064,24 @@
       <c r="BN82" s="99"/>
     </row>
     <row r="83" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A83" s="120" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B83" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="73"/>
+      <c r="A83" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B83" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="76"/>
       <c r="D83" s="74"/>
       <c r="E83" s="93"/>
       <c r="F83" s="94" t="str">
-        <f t="shared" ref="F83:F86" si="8">IF(ISBLANK(E83)," - ",IF(G83=0,E83,E83+G83-1))</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G83" s="58"/>
       <c r="H83" s="59"/>
       <c r="I83" s="75" t="str">
-        <f>IF(OR(F83=0,E83=0)," - ",NETWORKDAYS(E83,F83))</f>
+        <f t="shared" ref="I83:I85" si="9">IF(OR(F83=0,E83=0)," - ",NETWORKDAYS(E83,F83))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J83" s="92"/>
@@ -12222,10 +12144,10 @@
     </row>
     <row r="84" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A84" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B84" s="76" t="s">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B84" s="77" t="s">
         <v>64</v>
       </c>
       <c r="C84" s="76"/>
@@ -12238,7 +12160,7 @@
       <c r="G84" s="58"/>
       <c r="H84" s="59"/>
       <c r="I84" s="75" t="str">
-        <f t="shared" ref="I84:I86" si="9">IF(OR(F84=0,E84=0)," - ",NETWORKDAYS(E84,F84))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J84" s="92"/>
@@ -12301,8 +12223,8 @@
     </row>
     <row r="85" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A85" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
       </c>
       <c r="B85" s="77" t="s">
         <v>65</v>
@@ -12378,155 +12300,76 @@
       <c r="BM85" s="99"/>
       <c r="BN85" s="99"/>
     </row>
-    <row r="86" spans="1:66" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A86" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B86" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="C86" s="76"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="93"/>
-      <c r="F86" s="94" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G86" s="58"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="75" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J86" s="92"/>
-      <c r="K86" s="99"/>
-      <c r="L86" s="99"/>
-      <c r="M86" s="99"/>
-      <c r="N86" s="99"/>
-      <c r="O86" s="99"/>
-      <c r="P86" s="99"/>
-      <c r="Q86" s="99"/>
-      <c r="R86" s="99"/>
-      <c r="S86" s="99"/>
-      <c r="T86" s="99"/>
-      <c r="U86" s="99"/>
-      <c r="V86" s="99"/>
-      <c r="W86" s="99"/>
-      <c r="X86" s="99"/>
-      <c r="Y86" s="99"/>
-      <c r="Z86" s="99"/>
-      <c r="AA86" s="99"/>
-      <c r="AB86" s="99"/>
-      <c r="AC86" s="99"/>
-      <c r="AD86" s="99"/>
-      <c r="AE86" s="99"/>
-      <c r="AF86" s="99"/>
-      <c r="AG86" s="99"/>
-      <c r="AH86" s="99"/>
-      <c r="AI86" s="99"/>
-      <c r="AJ86" s="99"/>
-      <c r="AK86" s="99"/>
-      <c r="AL86" s="99"/>
-      <c r="AM86" s="99"/>
-      <c r="AN86" s="99"/>
-      <c r="AO86" s="99"/>
-      <c r="AP86" s="99"/>
-      <c r="AQ86" s="99"/>
-      <c r="AR86" s="99"/>
-      <c r="AS86" s="99"/>
-      <c r="AT86" s="99"/>
-      <c r="AU86" s="99"/>
-      <c r="AV86" s="99"/>
-      <c r="AW86" s="99"/>
-      <c r="AX86" s="99"/>
-      <c r="AY86" s="99"/>
-      <c r="AZ86" s="99"/>
-      <c r="BA86" s="99"/>
-      <c r="BB86" s="99"/>
-      <c r="BC86" s="99"/>
-      <c r="BD86" s="99"/>
-      <c r="BE86" s="99"/>
-      <c r="BF86" s="99"/>
-      <c r="BG86" s="99"/>
-      <c r="BH86" s="99"/>
-      <c r="BI86" s="99"/>
-      <c r="BJ86" s="99"/>
-      <c r="BK86" s="99"/>
-      <c r="BL86" s="99"/>
-      <c r="BM86" s="99"/>
-      <c r="BN86" s="99"/>
-    </row>
-    <row r="87" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="153" t="str">
+    <row r="86" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="153" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="30"/>
-      <c r="N87" s="30"/>
-      <c r="O87" s="30"/>
-      <c r="P87" s="30"/>
-      <c r="Q87" s="30"/>
-      <c r="R87" s="30"/>
-      <c r="S87" s="30"/>
-      <c r="T87" s="30"/>
-      <c r="U87" s="30"/>
-      <c r="V87" s="30"/>
-      <c r="W87" s="30"/>
-      <c r="X87" s="30"/>
-      <c r="Y87" s="30"/>
-      <c r="Z87" s="30"/>
-      <c r="AA87" s="30"/>
-      <c r="AB87" s="30"/>
-      <c r="AC87" s="30"/>
-      <c r="AD87" s="30"/>
-      <c r="AE87" s="30"/>
-      <c r="AF87" s="30"/>
-      <c r="AG87" s="30"/>
-      <c r="AH87" s="30"/>
-      <c r="AI87" s="30"/>
-      <c r="AJ87" s="30"/>
-      <c r="AK87" s="30"/>
-      <c r="AL87" s="30"/>
-      <c r="AM87" s="30"/>
-      <c r="AN87" s="30"/>
-      <c r="AO87" s="30"/>
-      <c r="AP87" s="30"/>
-      <c r="AQ87" s="30"/>
-      <c r="AR87" s="30"/>
-      <c r="AS87" s="30"/>
-      <c r="AT87" s="30"/>
-      <c r="AU87" s="30"/>
-      <c r="AV87" s="30"/>
-      <c r="AW87" s="30"/>
-      <c r="AX87" s="30"/>
-      <c r="AY87" s="30"/>
-      <c r="AZ87" s="30"/>
-      <c r="BA87" s="30"/>
-      <c r="BB87" s="30"/>
-      <c r="BC87" s="30"/>
-      <c r="BD87" s="30"/>
-      <c r="BE87" s="30"/>
-      <c r="BF87" s="30"/>
-      <c r="BG87" s="30"/>
-      <c r="BH87" s="30"/>
-      <c r="BI87" s="30"/>
-      <c r="BJ87" s="30"/>
-      <c r="BK87" s="30"/>
-      <c r="BL87" s="30"/>
-      <c r="BM87" s="30"/>
-      <c r="BN87" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="30"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="30"/>
+      <c r="R86" s="30"/>
+      <c r="S86" s="30"/>
+      <c r="T86" s="30"/>
+      <c r="U86" s="30"/>
+      <c r="V86" s="30"/>
+      <c r="W86" s="30"/>
+      <c r="X86" s="30"/>
+      <c r="Y86" s="30"/>
+      <c r="Z86" s="30"/>
+      <c r="AA86" s="30"/>
+      <c r="AB86" s="30"/>
+      <c r="AC86" s="30"/>
+      <c r="AD86" s="30"/>
+      <c r="AE86" s="30"/>
+      <c r="AF86" s="30"/>
+      <c r="AG86" s="30"/>
+      <c r="AH86" s="30"/>
+      <c r="AI86" s="30"/>
+      <c r="AJ86" s="30"/>
+      <c r="AK86" s="30"/>
+      <c r="AL86" s="30"/>
+      <c r="AM86" s="30"/>
+      <c r="AN86" s="30"/>
+      <c r="AO86" s="30"/>
+      <c r="AP86" s="30"/>
+      <c r="AQ86" s="30"/>
+      <c r="AR86" s="30"/>
+      <c r="AS86" s="30"/>
+      <c r="AT86" s="30"/>
+      <c r="AU86" s="30"/>
+      <c r="AV86" s="30"/>
+      <c r="AW86" s="30"/>
+      <c r="AX86" s="30"/>
+      <c r="AY86" s="30"/>
+      <c r="AZ86" s="30"/>
+      <c r="BA86" s="30"/>
+      <c r="BB86" s="30"/>
+      <c r="BC86" s="30"/>
+      <c r="BD86" s="30"/>
+      <c r="BE86" s="30"/>
+      <c r="BF86" s="30"/>
+      <c r="BG86" s="30"/>
+      <c r="BH86" s="30"/>
+      <c r="BI86" s="30"/>
+      <c r="BJ86" s="30"/>
+      <c r="BK86" s="30"/>
+      <c r="BL86" s="30"/>
+      <c r="BM86" s="30"/>
+      <c r="BN86" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -12552,7 +12395,7 @@
     <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H78:H86 H8">
+  <conditionalFormatting sqref="H77:H85 H8:H73">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12571,7 +12414,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN86">
+  <conditionalFormatting sqref="K8:BN85">
     <cfRule type="expression" dxfId="2" priority="50">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -12579,12 +12422,12 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN86">
+  <conditionalFormatting sqref="K6:BN85">
     <cfRule type="expression" dxfId="0" priority="10">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H74 H76:H77">
+  <conditionalFormatting sqref="H75:H76">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12598,7 +12441,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75">
+  <conditionalFormatting sqref="G74">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12612,7 +12455,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="H4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <hyperlinks>
@@ -12622,7 +12465,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A82:B82 B81 E80:H82 G83:G86" unlockedFormula="1"/>
+    <ignoredError sqref="A81:B81 B80 E79:H81 G82:G85" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -12670,7 +12513,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H78:H86 H8</xm:sqref>
+          <xm:sqref>H77:H85 H8:H73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{536A500D-BA6A-7E41-AE40-46542237B1C0}">
@@ -12685,7 +12528,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H9:H74 H76:H77</xm:sqref>
+          <xm:sqref>H75:H76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B28C2730-E9B2-C447-8525-CE446FC627D5}">
@@ -12700,7 +12543,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G75</xm:sqref>
+          <xm:sqref>G74</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12729,17 +12572,17 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -12747,149 +12590,149 @@
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C7" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C13" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:2" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B22" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:2" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B42" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -12923,14 +12766,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
@@ -12942,34 +12785,34 @@
     </row>
     <row r="4" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="123" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="B5" s="129" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="B7" s="129" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="128" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="B11" s="127" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="213" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="213"/>
     </row>
@@ -12977,55 +12820,55 @@
     <row r="15" spans="1:3" s="124" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A15" s="132"/>
       <c r="B15" s="130" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="124" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A16" s="132"/>
       <c r="B16" s="131" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="133"/>
       <c r="B17" s="131" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="133"/>
       <c r="B18" s="131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="41" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="136"/>
       <c r="B19" s="131" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="124" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A20" s="132"/>
       <c r="B20" s="130" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="125" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="133"/>
       <c r="B21" s="131" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="134"/>
       <c r="B22" s="135" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -13034,14 +12877,14 @@
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="213" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="213"/>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="134"/>
       <c r="B25" s="131" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -13051,19 +12894,19 @@
     <row r="27" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="134"/>
       <c r="B27" s="152" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="134"/>
       <c r="B28" s="131" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="134"/>
       <c r="B29" s="131" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -13073,19 +12916,19 @@
     <row r="31" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="134"/>
       <c r="B31" s="152" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="134"/>
       <c r="B32" s="131" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="134"/>
       <c r="B33" s="131" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -13095,13 +12938,13 @@
     <row r="35" spans="1:2" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="134"/>
       <c r="B35" s="131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="134"/>
       <c r="B36" s="137" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -13110,31 +12953,31 @@
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="213"/>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="B39" s="131" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="B41" s="131" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:2" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="B43" s="131" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="B45" s="131" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -13142,7 +12985,7 @@
     </row>
     <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="B47" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -13150,13 +12993,13 @@
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="213"/>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="B50" s="131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -13164,86 +13007,86 @@
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="131" t="s">
         <v>12</v>
-      </c>
-      <c r="B52" s="131" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="131" t="s">
         <v>14</v>
-      </c>
-      <c r="B53" s="131" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="131" t="s">
         <v>16</v>
-      </c>
-      <c r="B54" s="131" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A55" s="127"/>
       <c r="B55" s="131" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A56" s="127"/>
       <c r="B56" s="131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="131" t="s">
         <v>18</v>
-      </c>
-      <c r="B57" s="131" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="127"/>
       <c r="B58" s="131" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="127"/>
       <c r="B59" s="131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="131" t="s">
         <v>20</v>
-      </c>
-      <c r="B60" s="131" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A61" s="127"/>
       <c r="B61" s="131" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A62" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="131" t="s">
         <v>110</v>
-      </c>
-      <c r="B62" s="131" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="139"/>
       <c r="B63" s="131" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.15">
@@ -13251,13 +13094,13 @@
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="213" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" s="213"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="B66" s="131" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.15">
@@ -13265,22 +13108,22 @@
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68" s="213"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A69" s="146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B69" s="147" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A70" s="140"/>
       <c r="B70" s="145" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -13289,16 +13132,16 @@
     </row>
     <row r="72" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A72" s="146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B72" s="147" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A73" s="140"/>
       <c r="B73" s="145" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -13307,16 +13150,16 @@
     </row>
     <row r="75" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" s="149" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A76" s="140"/>
       <c r="B76" s="129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -13325,16 +13168,16 @@
     </row>
     <row r="78" spans="1:2" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78" s="149" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A79" s="140"/>
       <c r="B79" s="129" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -13343,28 +13186,28 @@
     </row>
     <row r="81" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81" s="149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A82" s="140"/>
       <c r="B82" s="144" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A83" s="140"/>
       <c r="B83" s="144" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:2" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="140"/>
       <c r="B84" s="144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -13373,28 +13216,28 @@
     </row>
     <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B86" s="149" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A87" s="140"/>
       <c r="B87" s="129" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A88" s="140"/>
       <c r="B88" s="142" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A89" s="140"/>
       <c r="B89" s="148" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -13403,21 +13246,21 @@
     </row>
     <row r="91" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B91" s="151" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A92" s="127"/>
       <c r="B92" s="144" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -13460,7 +13303,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="44"/>
@@ -13475,14 +13318,14 @@
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
       <c r="B3" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="15"/>
     </row>
@@ -13494,7 +13337,7 @@
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="15"/>
     </row>
@@ -13506,7 +13349,7 @@
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="15"/>
     </row>
@@ -13518,7 +13361,7 @@
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="15"/>
     </row>
@@ -13530,7 +13373,7 @@
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="15"/>
     </row>
@@ -13542,7 +13385,7 @@
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="15"/>
     </row>
@@ -13554,7 +13397,7 @@
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="15"/>
     </row>
@@ -13566,14 +13409,14 @@
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="15"/>
     </row>
